--- a/thermax_backend/templates/other_division_cable_schedule_template.xlsx
+++ b/thermax_backend/templates/other_division_cable_schedule_template.xlsx
@@ -8,17 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\abhishekraje30\frappe-bench\apps\thermax_backend\thermax_backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030D35D0-E346-4987-ADDA-5269725284D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBF79ED-4B28-47DC-8A49-F935A05C5C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MCC CABLE SCHDULE" sheetId="1" r:id="rId1"/>
+    <sheet name="Dropdowns" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="GLAND SELEC. INPUT &amp; NOTES SHT" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -315,7 +328,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="123">
   <si>
     <t>SR.
 NO.</t>
@@ -422,13 +435,277 @@
   </si>
   <si>
     <t>SCOPE</t>
+  </si>
+  <si>
+    <t>0.625" ET</t>
+  </si>
+  <si>
+    <t>0.75" ET</t>
+  </si>
+  <si>
+    <t>1" ET</t>
+  </si>
+  <si>
+    <t>1.25" ET</t>
+  </si>
+  <si>
+    <t>1.5" ET</t>
+  </si>
+  <si>
+    <t>2" ET</t>
+  </si>
+  <si>
+    <t>2.5" ET</t>
+  </si>
+  <si>
+    <t>3" ET</t>
+  </si>
+  <si>
+    <t>3.25" ET</t>
+  </si>
+  <si>
+    <t>3.5" ET</t>
+  </si>
+  <si>
+    <t>4" ET</t>
+  </si>
+  <si>
+    <t>4.5" ET</t>
+  </si>
+  <si>
+    <t>40 MM</t>
+  </si>
+  <si>
+    <t>42 MM</t>
+  </si>
+  <si>
+    <t>70 MM</t>
+  </si>
+  <si>
+    <t>3.75" ET</t>
+  </si>
+  <si>
+    <t>M28</t>
+  </si>
+  <si>
+    <t>M40</t>
+  </si>
+  <si>
+    <t>M42</t>
+  </si>
+  <si>
+    <t>M70</t>
+  </si>
+  <si>
+    <t>M16</t>
+  </si>
+  <si>
+    <t>M20</t>
+  </si>
+  <si>
+    <t>M25</t>
+  </si>
+  <si>
+    <t>M32</t>
+  </si>
+  <si>
+    <t>M50</t>
+  </si>
+  <si>
+    <t>M63</t>
+  </si>
+  <si>
+    <t>M75</t>
+  </si>
+  <si>
+    <t>M82</t>
+  </si>
+  <si>
+    <t>M90</t>
+  </si>
+  <si>
+    <t>M100</t>
+  </si>
+  <si>
+    <t>M115</t>
+  </si>
+  <si>
+    <t>1/2" NPT</t>
+  </si>
+  <si>
+    <t>3/4" NPT</t>
+  </si>
+  <si>
+    <t>1" NPT</t>
+  </si>
+  <si>
+    <t>1.25" NPT</t>
+  </si>
+  <si>
+    <t>1.5" NPT</t>
+  </si>
+  <si>
+    <t>2" NPT</t>
+  </si>
+  <si>
+    <t>2.5" NPT</t>
+  </si>
+  <si>
+    <t>3" NPT</t>
+  </si>
+  <si>
+    <t>3.5" NPT</t>
+  </si>
+  <si>
+    <t>INSTRUCTIONS &amp; NOTES FOR SELECTION OF WEATHER PROOF DOUBLE COMPRESSION CABLE GLANDS USING THIS CABLE SCHEDULE</t>
+  </si>
+  <si>
+    <t>Notes :</t>
+  </si>
+  <si>
+    <t>This Excel is for selection of Weather Proof Double compression cable glands for Armoured / Unarmoured cables.</t>
+  </si>
+  <si>
+    <t>This Excel has been prepared with Standard cable gland CAT No's of make Braco &amp; Comet.</t>
+  </si>
+  <si>
+    <t>This Excel can be used for selection of all type of cable entries i.e. ET, Metric, NPT.</t>
+  </si>
+  <si>
+    <t>This Excel has been prepared with cable gland MOC of Nickel Plate Brass &amp; SS304.</t>
+  </si>
+  <si>
+    <t>(SS304 MOC for Make Braco make only.)</t>
+  </si>
+  <si>
+    <t>Instructions to use :</t>
+  </si>
+  <si>
+    <t>Select the cable gland Make &amp; MOC as per the project requirement. (Discuss with respective buyer &amp; PM for the make)</t>
+  </si>
+  <si>
+    <t>SELECT GLAND MAKE :</t>
+  </si>
+  <si>
+    <t>BRACO</t>
+  </si>
+  <si>
+    <t>SELECT GLAND MOC :</t>
+  </si>
+  <si>
+    <t>Ni PLATED BRASS</t>
+  </si>
+  <si>
+    <t>Please do not shift any rows / coloumns in cable schedule sheet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cable size description should be as follows do not change the format/sequence(ex. Space) of the description. It should be always </t>
+  </si>
+  <si>
+    <t>end with either "ARMOURED CABLE" or "UNARMOURED CABLE".</t>
+  </si>
+  <si>
+    <t>Ex .</t>
+  </si>
+  <si>
+    <t>a) "3C x 2.5 SQ.MM. CU. XLPE/PVC ARMOURED CABLE"</t>
+  </si>
+  <si>
+    <t>b) "3C x 2.5 SQ.MM. CU. XLPE/PVC UNARMOURED CABLE"</t>
+  </si>
+  <si>
+    <t>c) "1PR X 1.0 SQ.MM. CU. XLPE/PVC ARMOURED CABLE"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fill the cable types &amp; OD below. ( Take exact OD from test report(recommended). If exact OD not available mention OD with specificied </t>
+  </si>
+  <si>
+    <t>tolerance in final datasheet.)</t>
+  </si>
+  <si>
+    <t>Sr.No</t>
+  </si>
+  <si>
+    <t>Cable Size (Discription shall be same as cable schedule)</t>
+  </si>
+  <si>
+    <t>Cable OD</t>
+  </si>
+  <si>
+    <t>3C X 2.5 SQ.MM. CU. XLPE ARMOURED CABLE</t>
+  </si>
+  <si>
+    <t>3C X 6 SQ.MM. AL. XLPE ARMOURED CABLE</t>
+  </si>
+  <si>
+    <t>3C X 10 SQ.MM. AL. XLPE ARMOURED CABLE</t>
+  </si>
+  <si>
+    <t>3C X 16 SQ.MM. AL. XLPE ARMOURED CABLE</t>
+  </si>
+  <si>
+    <t>3C X 35 SQ.MM. AL. XLPE ARMOURED CABLE</t>
+  </si>
+  <si>
+    <t>3C X 70 SQ.MM. AL. XLPE ARMOURED CABLE</t>
+  </si>
+  <si>
+    <t>3C X 95 SQ.MM. AL. XLPE ARMOURED CABLE</t>
+  </si>
+  <si>
+    <t>3.5C X 120 SQ.MM. AL. XLPE ARMOURED CABLE</t>
+  </si>
+  <si>
+    <t>3.5C X 35 SQ.MM. AL. XLPE ARMOURED CABLE</t>
+  </si>
+  <si>
+    <t>3.5C X 70 SQ.MM. AL. XLPE ARMOURED CABLE</t>
+  </si>
+  <si>
+    <t>3.5C X 95 SQ.MM. AL. XLPE ARMOURED CABLE</t>
+  </si>
+  <si>
+    <t>4C X 10 SQ.MM. AL. XLPE ARMOURED CABLE</t>
+  </si>
+  <si>
+    <t>6P X 1 SQ.MM. CU. ARMOURED CABLE</t>
+  </si>
+  <si>
+    <t>7C X 1.5 SQ.MM. CU. XLPE ARMOURED CABLE</t>
+  </si>
+  <si>
+    <t>In "cable schedule" sheet "FROM / TO SIDE ENTRY AVAILABLE" coloumn fill the availabe Entry as per the Equipment / Instrument datasheet.</t>
+  </si>
+  <si>
+    <t>In "cable schedule" sheet "FROM / TO SIDE SIZE SELECTED" coloumn if the entry available is "Plate" Select the ET size (start from minimum size to</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> maximum size to obtain the Gland CAT No. and if not plate select the same size as Available entry.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the above Instructions followed properly Gland CAT would have been generated automatically by now. If not it might be non standard requirement </t>
+  </si>
+  <si>
+    <t>please select the cable gland as per the respective cable gland catalogues.</t>
+  </si>
+  <si>
+    <t>After that In "cable schedule" Sheet "FROM / TO SIDE SHROUD REQUIREMENT" Coloumn Select either "Yes" or "No" as per the requirement.</t>
+  </si>
+  <si>
+    <t>(Note PVC Shroud shall be used for all Glands which are outside MCC / Control Room)</t>
+  </si>
+  <si>
+    <t>After Selection of Shroud requirement Shroud CAT No. would have been generated automatically by now.</t>
+  </si>
+  <si>
+    <t>After completion of All cable gland selection Hide the "To be hide" coloumn while submitting to client.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -442,8 +719,37 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -468,8 +774,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -535,11 +847,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -580,6 +972,77 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1003,4 +1466,1122 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366850E3-F4A5-412F-A5F5-DCD360C92131}">
+  <dimension ref="A1:A40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C875D96D-13EA-478D-A44B-25B1008F6539}">
+  <dimension ref="C1:N64"/>
+  <sheetViews>
+    <sheetView topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="6" width="8.6328125" customWidth="1"/>
+    <col min="7" max="7" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C1" s="11"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="14"/>
+    </row>
+    <row r="2" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C2" s="15"/>
+      <c r="E2" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="38"/>
+      <c r="N2" s="16"/>
+    </row>
+    <row r="3" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C3" s="15"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="41"/>
+      <c r="N3" s="16"/>
+    </row>
+    <row r="4" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C4" s="15"/>
+      <c r="F4" s="17"/>
+      <c r="N4" s="16"/>
+    </row>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C5" s="15"/>
+      <c r="D5" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="N5" s="16"/>
+    </row>
+    <row r="6" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C6" s="15"/>
+      <c r="D6" s="19">
+        <v>1</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="N6" s="16"/>
+    </row>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C7" s="15"/>
+      <c r="D7" s="19">
+        <v>2</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="N7" s="16"/>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C8" s="15"/>
+      <c r="D8" s="19">
+        <v>3</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="N8" s="16"/>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C9" s="15"/>
+      <c r="D9" s="19">
+        <v>4</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="N9" s="16"/>
+    </row>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C10" s="15"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="N10" s="16"/>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C11" s="15"/>
+      <c r="D11" s="22"/>
+      <c r="F11" s="17"/>
+      <c r="N11" s="16"/>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C12" s="15"/>
+      <c r="D12" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="N12" s="16"/>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C13" s="15"/>
+      <c r="F13" s="17"/>
+      <c r="N13" s="16"/>
+    </row>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C14" s="15"/>
+      <c r="D14" s="21">
+        <v>1</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="N14" s="16"/>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C15" s="15"/>
+      <c r="F15" s="17"/>
+      <c r="N15" s="16"/>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C16" s="15"/>
+      <c r="F16" s="23">
+        <v>1</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="N16" s="16"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C17" s="15"/>
+      <c r="F17" s="23">
+        <v>2</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="N17" s="16"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C18" s="15"/>
+      <c r="F18" s="17"/>
+      <c r="N18" s="16"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C19" s="15"/>
+      <c r="D19" s="21">
+        <v>2</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="21"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="16"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C20" s="15"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="16"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C21" s="15"/>
+      <c r="D21" s="21">
+        <v>3</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="21"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="16"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C22" s="15"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" s="21"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="16"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C23" s="15"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="16"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C24" s="15"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="16"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C25" s="15"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="16"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C26" s="15"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="16"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C27" s="15"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="16"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C28" s="15"/>
+      <c r="D28" s="21">
+        <v>4</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="F28" s="21"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="16"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C29" s="15"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="F29" s="21"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="16"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C30" s="15"/>
+      <c r="F30" s="17"/>
+      <c r="N30" s="16"/>
+    </row>
+    <row r="31" spans="3:14" ht="116" x14ac:dyDescent="0.35">
+      <c r="C31" s="15"/>
+      <c r="F31" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="G31" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="H31" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="N31" s="16"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C32" s="15"/>
+      <c r="F32" s="23">
+        <v>1</v>
+      </c>
+      <c r="G32" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="H32" s="25">
+        <f>14+3</f>
+        <v>17</v>
+      </c>
+      <c r="N32" s="16"/>
+    </row>
+    <row r="33" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C33" s="15"/>
+      <c r="F33" s="23">
+        <v>2</v>
+      </c>
+      <c r="G33" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="H33" s="25">
+        <f>17+3</f>
+        <v>20</v>
+      </c>
+      <c r="N33" s="16"/>
+    </row>
+    <row r="34" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C34" s="15"/>
+      <c r="F34" s="23">
+        <v>3</v>
+      </c>
+      <c r="G34" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="H34" s="25">
+        <f>18+3</f>
+        <v>21</v>
+      </c>
+      <c r="N34" s="16"/>
+    </row>
+    <row r="35" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C35" s="15"/>
+      <c r="F35" s="23">
+        <v>4</v>
+      </c>
+      <c r="G35" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="H35" s="25">
+        <f>18+3</f>
+        <v>21</v>
+      </c>
+      <c r="N35" s="16"/>
+    </row>
+    <row r="36" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C36" s="15"/>
+      <c r="F36" s="23">
+        <v>5</v>
+      </c>
+      <c r="G36" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="H36" s="25">
+        <f>21.5+3</f>
+        <v>24.5</v>
+      </c>
+      <c r="N36" s="16"/>
+    </row>
+    <row r="37" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C37" s="15"/>
+      <c r="F37" s="23">
+        <v>6</v>
+      </c>
+      <c r="G37" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="H37" s="25">
+        <f>27.5+3</f>
+        <v>30.5</v>
+      </c>
+      <c r="N37" s="16"/>
+    </row>
+    <row r="38" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C38" s="15"/>
+      <c r="F38" s="23">
+        <v>7</v>
+      </c>
+      <c r="G38" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="H38" s="25">
+        <f>31+3</f>
+        <v>34</v>
+      </c>
+      <c r="N38" s="16"/>
+    </row>
+    <row r="39" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C39" s="15"/>
+      <c r="F39" s="23">
+        <v>8</v>
+      </c>
+      <c r="G39" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="H39" s="25">
+        <f>39+3</f>
+        <v>42</v>
+      </c>
+      <c r="N39" s="16"/>
+    </row>
+    <row r="40" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C40" s="15"/>
+      <c r="F40" s="23">
+        <v>9</v>
+      </c>
+      <c r="G40" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="H40" s="25">
+        <f>25+3</f>
+        <v>28</v>
+      </c>
+      <c r="N40" s="16"/>
+    </row>
+    <row r="41" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C41" s="15"/>
+      <c r="F41" s="23">
+        <v>10</v>
+      </c>
+      <c r="G41" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="H41" s="25">
+        <f>32+3</f>
+        <v>35</v>
+      </c>
+      <c r="N41" s="16"/>
+    </row>
+    <row r="42" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C42" s="15"/>
+      <c r="F42" s="23">
+        <v>11</v>
+      </c>
+      <c r="G42" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="H42" s="25">
+        <f>36+3</f>
+        <v>39</v>
+      </c>
+      <c r="N42" s="16"/>
+    </row>
+    <row r="43" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C43" s="15"/>
+      <c r="F43" s="23">
+        <v>12</v>
+      </c>
+      <c r="G43" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="H43" s="25">
+        <f>19+3</f>
+        <v>22</v>
+      </c>
+      <c r="N43" s="16"/>
+    </row>
+    <row r="44" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C44" s="15"/>
+      <c r="F44" s="23">
+        <v>13</v>
+      </c>
+      <c r="G44" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="H44" s="25">
+        <v>20</v>
+      </c>
+      <c r="N44" s="16"/>
+    </row>
+    <row r="45" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C45" s="15"/>
+      <c r="F45" s="23">
+        <v>14</v>
+      </c>
+      <c r="G45" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="H45" s="25">
+        <v>18</v>
+      </c>
+      <c r="N45" s="16"/>
+    </row>
+    <row r="46" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C46" s="15"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="N46" s="16"/>
+    </row>
+    <row r="47" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C47" s="15"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="N47" s="16"/>
+    </row>
+    <row r="48" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C48" s="15"/>
+      <c r="D48" s="21">
+        <v>5</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="F48" s="21"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="20"/>
+      <c r="N48" s="31"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C49" s="15"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="20"/>
+      <c r="M49" s="20"/>
+      <c r="N49" s="31"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C50" s="15"/>
+      <c r="D50" s="21">
+        <v>6</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="F50" s="21"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="31"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C51" s="15"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="F51" s="21"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="20"/>
+      <c r="N51" s="31"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C52" s="15"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="20"/>
+      <c r="M52" s="20"/>
+      <c r="N52" s="31"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C53" s="15"/>
+      <c r="D53" s="21">
+        <v>7</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="F53" s="21"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="20"/>
+      <c r="M53" s="20"/>
+      <c r="N53" s="31"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C54" s="15"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="F54" s="21"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="20"/>
+      <c r="M54" s="20"/>
+      <c r="N54" s="31"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C55" s="15"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="20"/>
+      <c r="M55" s="20"/>
+      <c r="N55" s="31"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C56" s="15"/>
+      <c r="D56" s="21">
+        <v>8</v>
+      </c>
+      <c r="E56" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="F56" s="21"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="20"/>
+      <c r="M56" s="20"/>
+      <c r="N56" s="31"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C57" s="15"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="F57" s="21"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="20"/>
+      <c r="N57" s="31"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C58" s="15"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="20"/>
+      <c r="M58" s="20"/>
+      <c r="N58" s="31"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C59" s="15"/>
+      <c r="D59" s="21">
+        <v>9</v>
+      </c>
+      <c r="E59" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="F59" s="21"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="20"/>
+      <c r="K59" s="20"/>
+      <c r="L59" s="20"/>
+      <c r="M59" s="20"/>
+      <c r="N59" s="31"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C60" s="15"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="20"/>
+      <c r="K60" s="20"/>
+      <c r="L60" s="20"/>
+      <c r="M60" s="20"/>
+      <c r="N60" s="31"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C61" s="15"/>
+      <c r="D61" s="21">
+        <v>10</v>
+      </c>
+      <c r="E61" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="F61" s="21"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="20"/>
+      <c r="K61" s="20"/>
+      <c r="L61" s="20"/>
+      <c r="M61" s="20"/>
+      <c r="N61" s="31"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C62" s="15"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="20"/>
+      <c r="K62" s="20"/>
+      <c r="L62" s="20"/>
+      <c r="M62" s="20"/>
+      <c r="N62" s="31"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C63" s="15"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="20"/>
+      <c r="K63" s="20"/>
+      <c r="L63" s="20"/>
+      <c r="M63" s="20"/>
+      <c r="N63" s="31"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C64" s="32"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="34"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="33"/>
+      <c r="I64" s="33"/>
+      <c r="J64" s="33"/>
+      <c r="K64" s="33"/>
+      <c r="L64" s="33"/>
+      <c r="M64" s="33"/>
+      <c r="N64" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:L3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/thermax_backend/templates/other_division_cable_schedule_template.xlsx
+++ b/thermax_backend/templates/other_division_cable_schedule_template.xlsx
@@ -8,17 +8,139 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\abhishekraje30\frappe-bench\apps\thermax_backend\thermax_backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9148AACF-5796-4C60-9BEB-7ED12105B0AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81BD5CD-9829-44D1-BC41-454ABD0DDD6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MCC CABLE SCHDULE" sheetId="1" r:id="rId1"/>
-    <sheet name="SS" sheetId="5" state="hidden" r:id="rId2"/>
-    <sheet name="BRASS" sheetId="4" state="hidden" r:id="rId3"/>
-    <sheet name="Dropdowns" sheetId="2" state="hidden" r:id="rId4"/>
-    <sheet name="GLAND SELEC. INPUT &amp; NOTES SHT" sheetId="3" state="hidden" r:id="rId5"/>
+    <sheet name="CABLE SUMMARY" sheetId="6" r:id="rId2"/>
+    <sheet name="GLAND SUMMARY" sheetId="7" r:id="rId3"/>
+    <sheet name="SS" sheetId="5" state="hidden" r:id="rId4"/>
+    <sheet name="BRASS" sheetId="4" state="hidden" r:id="rId5"/>
+    <sheet name="Dropdowns" sheetId="2" state="hidden" r:id="rId6"/>
+    <sheet name="GLAND SELEC. INPUT &amp; NOTES SHT" sheetId="3" state="hidden" r:id="rId7"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
+    <externalReference r:id="rId14"/>
+    <externalReference r:id="rId15"/>
+    <externalReference r:id="rId16"/>
+    <externalReference r:id="rId17"/>
+    <externalReference r:id="rId18"/>
+    <externalReference r:id="rId19"/>
+    <externalReference r:id="rId20"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="____PAG1">[1]book1!#REF!</definedName>
+    <definedName name="___chr1">#REF!</definedName>
+    <definedName name="___PAG1">[1]book1!#REF!</definedName>
+    <definedName name="__chr1">#REF!</definedName>
+    <definedName name="__PAG1">[1]book1!#REF!</definedName>
+    <definedName name="_1FOGLIO_3_1">'[1]MH BUDGET JAN''98'!$A$1:$M$46</definedName>
+    <definedName name="_2FOGLIO_3_2">'[1]MH BUDGET JAN''98'!$A$49:$M$108</definedName>
+    <definedName name="_chr1">#REF!</definedName>
+    <definedName name="_Fill" hidden="1">#REF!</definedName>
+    <definedName name="_Order1" hidden="1">255</definedName>
+    <definedName name="_Order2" hidden="1">0</definedName>
+    <definedName name="_PAG1">[1]book1!#REF!</definedName>
+    <definedName name="aa">'[2]Set-up'!#REF!</definedName>
+    <definedName name="ABB">[3]Data!$B$132:$L$159</definedName>
+    <definedName name="abc">#REF!</definedName>
+    <definedName name="Actual_Length">#REF!</definedName>
+    <definedName name="AFDD">#REF!</definedName>
+    <definedName name="aq">'[1]15THMONTH'!$B$3:$E$27</definedName>
+    <definedName name="CablCateg">#REF!</definedName>
+    <definedName name="Cable_ActualLength">#REF!</definedName>
+    <definedName name="Cable_Category">#REF!</definedName>
+    <definedName name="Cable_Fopmation">#REF!</definedName>
+    <definedName name="Cable_ItemTag">#REF!</definedName>
+    <definedName name="Cable_Size">[4]Main!$B$6:$B$65</definedName>
+    <definedName name="CableItmTg">#REF!</definedName>
+    <definedName name="CableName">#REF!</definedName>
+    <definedName name="CABLEOD">#REF!</definedName>
+    <definedName name="CableSpec">#REF!</definedName>
+    <definedName name="CablFormation">#REF!</definedName>
+    <definedName name="CalcActual">#REF!</definedName>
+    <definedName name="CalculActLength_m">#REF!</definedName>
+    <definedName name="CondArrang">#REF!</definedName>
+    <definedName name="Crompton">[3]Data!$B$105:$L$130</definedName>
+    <definedName name="CVST">[5]INTSHEET1!$A$1:$J$48</definedName>
+    <definedName name="_xlnm.Database">#REF!</definedName>
+    <definedName name="DBTOT">[1]p_2!$B$12:$W$147</definedName>
+    <definedName name="DEGR">#REF!</definedName>
+    <definedName name="Design_Length">#REF!</definedName>
+    <definedName name="DesignLength">#REF!</definedName>
+    <definedName name="DesLength_ft">[6]BOQ!#REF!</definedName>
+    <definedName name="DesLength_m">#REF!</definedName>
+    <definedName name="DM">[1]p_2!$AB$1</definedName>
+    <definedName name="Drum_ItemTag">#REF!</definedName>
+    <definedName name="Duty_Type">'[7]PF Eff &amp; ST Cr'!$M$51:$M$56</definedName>
+    <definedName name="ELECTRICALINDEX">[8]ALL!$A$2:$AU$30</definedName>
+    <definedName name="Enter">#REF!</definedName>
+    <definedName name="EqNumbr">#REF!</definedName>
+    <definedName name="EREGR">#REF!</definedName>
+    <definedName name="Estimated_Length">#REF!</definedName>
+    <definedName name="EstimtLength_Hide">#REF!</definedName>
+    <definedName name="EstmLength_ft">[6]BOQ!#REF!</definedName>
+    <definedName name="EstmtLength_m">#REF!</definedName>
+    <definedName name="EXTSHT3">[5]INTSHEET3!$H$51:$L$114</definedName>
+    <definedName name="FOGLIO_1">#N/A</definedName>
+    <definedName name="FOGLIO_2">'[1]MH CONSPTN'!$A$1:$M$52</definedName>
+    <definedName name="FOGLIO_4">'[1]15THMONTH'!$A$1:$M$52</definedName>
+    <definedName name="From">#REF!</definedName>
+    <definedName name="GE">[3]Data!$B$77:$L$103</definedName>
+    <definedName name="GRAPH_DATA">#REF!</definedName>
+    <definedName name="Incomer_Tbl">'[7]PF Eff &amp; ST Cr'!$M$6:$P$45</definedName>
+    <definedName name="INDEX">#REF!</definedName>
+    <definedName name="INDEX1">#REF!</definedName>
+    <definedName name="index2">#REF!</definedName>
+    <definedName name="INDEX3">[8]ALL!$G$2:$AU$30</definedName>
+    <definedName name="Jacket_Color">#REF!</definedName>
+    <definedName name="JackInsulation">#REF!</definedName>
+    <definedName name="LnT">[3]Data!$B$2:$L$46</definedName>
+    <definedName name="macros">#REF!</definedName>
+    <definedName name="Manhour_copy_col">#REF!</definedName>
+    <definedName name="Manhours_enter">#REF!,#REF!,#REF!,#REF!,#REF!</definedName>
+    <definedName name="MFGGR">#REF!</definedName>
+    <definedName name="MMC">#REF!</definedName>
+    <definedName name="MONTHLY">#REF!</definedName>
+    <definedName name="Motor_Scope">'[7]PF Eff &amp; ST Cr'!$N$76:$N$78</definedName>
+    <definedName name="NumbrConduct">#REF!</definedName>
+    <definedName name="ofgfshl">#REF!</definedName>
+    <definedName name="OVEGR">#REF!</definedName>
+    <definedName name="oveprgr">#REF!</definedName>
+    <definedName name="OVERALL">'[1]BASE DATI'!$B$3:$E$27</definedName>
+    <definedName name="PRGR">#REF!</definedName>
+    <definedName name="PRODPER">#REF!</definedName>
+    <definedName name="PROGPER">#REF!</definedName>
+    <definedName name="RAP_NUM">#N/A</definedName>
+    <definedName name="Rated_Voltage">#REF!</definedName>
+    <definedName name="_xlnm.Recorder">[2]Macro1!$B$1:$B$65536</definedName>
+    <definedName name="Reference_Cable">#REF!</definedName>
+    <definedName name="Replace">#REF!</definedName>
+    <definedName name="Routing_Path">#REF!</definedName>
+    <definedName name="rpt">#REF!</definedName>
+    <definedName name="sascxlk">#REF!</definedName>
+    <definedName name="SBK">[9]ELECT!$AB$14:$AE$16</definedName>
+    <definedName name="Scheme">'[10]Drop Down'!$B$2:$B$13</definedName>
+    <definedName name="Scheme_Type">#REF!</definedName>
+    <definedName name="Siemens">[3]Data!$B$49:$L$75</definedName>
+    <definedName name="Starting">'[10]Drop Down'!$D$2:$D$6</definedName>
+    <definedName name="Starting_Type">#REF!</definedName>
+    <definedName name="TKES">#REF!</definedName>
+    <definedName name="To">#REF!</definedName>
+    <definedName name="TOF">[11]NOTES!$E$31:$E$36</definedName>
+    <definedName name="UNIT">[12]SUMMARY!$C$138:$C$164</definedName>
+    <definedName name="UPDATE">[5]INTSHEET5A!$H$13:$I$18,[5]INTSHEET5A!$H$21:$I$23,[5]INTSHEET5A!$H$27:$I$30,[5]INTSHEET5A!$H$36:$I$39,[5]INTSHEET5A!$H$42:$I$43</definedName>
+    <definedName name="vikas">[13]ELECT!$AB$14:$AE$16</definedName>
+    <definedName name="WEQ">'[2]Set-up'!#REF!</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -330,7 +452,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1597" uniqueCount="431">
   <si>
     <t>SR.
 NO.</t>
@@ -1574,6 +1696,57 @@
   </si>
   <si>
     <t>NPT</t>
+  </si>
+  <si>
+    <t>REF. DRG'S.</t>
+  </si>
+  <si>
+    <t>1) EQUIPMENT LAYOUT - DRG. NO. xxxx</t>
+  </si>
+  <si>
+    <t>2) ELECTRICAL LOAD LIST -DOC NO.xxxxx</t>
+  </si>
+  <si>
+    <t>NOTES:-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) CABLE LENGTH MENTIONED ARE TENTATIVE ONLY. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EXACT LENGTHS SHOULD BE MEASURED AT SITE BEFORE CUTTING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    THE CABLE FROM CABLE DRUM &amp; THE CABLE LENGTHS SHOULD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    BE CUT ACCORDINGLY.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2) CABLE ROUTE NOS. SHALL BE INCORPORATE AFTER APPROVAL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    OF CABLE LAYOUT.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3) CABLE LENGTH MENTIONED ARE APPROXIMATE ONLY. </t>
+  </si>
+  <si>
+    <t>CABLE SPECIFICATIONS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LT POWER CABLES:- </t>
+  </si>
+  <si>
+    <t>REF.</t>
+  </si>
+  <si>
+    <t>1) PVC SHROUDS SHALL BE PROVIDED FOR CABLE GLANDS WHICH ARE</t>
+  </si>
+  <si>
+    <t>LOCATED OUTSIDE MCC ROOM.</t>
+  </si>
+  <si>
+    <t>CABLE GLAND SUMMARY :</t>
   </si>
 </sst>
 </file>
@@ -1583,7 +1756,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1645,6 +1818,31 @@
       <color theme="1"/>
       <name val="Aharoni"/>
       <charset val="177"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2022,10 +2220,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2195,6 +2394,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2255,13 +2458,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2 2" xfId="1" xr:uid="{7C856360-2A34-4594-AF8E-3A9439C1E264}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2274,6 +2498,8863 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+      <sheetName val="p_2"/>
+      <sheetName val="BASE DATI"/>
+      <sheetName val="book1"/>
+      <sheetName val="p_3"/>
+      <sheetName val="p_4"/>
+      <sheetName val="PROG, EV"/>
+      <sheetName val="ENGG-DHDS UNIT &amp; OFFSITES"/>
+      <sheetName val="MH CONSPTN"/>
+      <sheetName val="MH BUDGET JAN'98"/>
+      <sheetName val="15THMONTH"/>
+      <sheetName val="LIRE"/>
+      <sheetName val="RIEP"/>
+      <sheetName val="PURCHASE-ALL"/>
+      <sheetName val="BASIC RATES"/>
+      <sheetName val="#REF"/>
+      <sheetName val="Labour histogram"/>
+      <sheetName val="BOQ Club house (2)"/>
+      <sheetName val="Concrete analy"/>
+      <sheetName val="List of mac"/>
+      <sheetName val="BOQ OPTION I convent. shutter "/>
+      <sheetName val="BOQ Podium (2)"/>
+      <sheetName val="major qty"/>
+      <sheetName val="Fill this out first..."/>
+      <sheetName val="Fill this out first___"/>
+      <sheetName val="labour coeff"/>
+      <sheetName val="p&amp;m"/>
+      <sheetName val="Main"/>
+      <sheetName val="Data"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="30" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="TITLE"/>
+      <sheetName val="11kV Switchboard@SS-3"/>
+      <sheetName val="Existing 11kV Switchboard@SS-1"/>
+      <sheetName val="Existing 11kV Switchboard@SS-2"/>
+      <sheetName val="3.3kV Switchboard@SS-2"/>
+      <sheetName val="3.3kV Switchboard@SS-3"/>
+      <sheetName val="3.3kV Switchboards@SS-1(OP 1)"/>
+      <sheetName val="3.3kV SWB@SS-1(BUS-A)"/>
+      <sheetName val="3.3kV SWB@SS-1(BUS-B)"/>
+      <sheetName val="3.3kV SWB@SS-1(BUS-C)"/>
+      <sheetName val="3.3kV SWB@SS-1(BUS-D)"/>
+      <sheetName val="PMCC@SS-1"/>
+      <sheetName val="PMCC@E2"/>
+      <sheetName val="PMCC@E4"/>
+      <sheetName val="PMCC@E5"/>
+      <sheetName val="PMCC@E6"/>
+      <sheetName val="PMCC@SS-2"/>
+      <sheetName val="PMCC@E9"/>
+      <sheetName val="ACDB@SS-3"/>
+      <sheetName val="PMCC@E7"/>
+      <sheetName val="PMCC@E8"/>
+      <sheetName val="Load Summary"/>
+      <sheetName val="Ref"/>
+      <sheetName val="Typical IO List"/>
+      <sheetName val="Scheme Summary"/>
+      <sheetName val="Drop Down"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25">
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>LV_Scheme_BRK</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>DOL</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>LV_Scheme_DOL</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>RDOL</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>LV_Scheme_OG</v>
+          </cell>
+          <cell r="D4" t="str">
+            <v>VFD</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>LV_Scheme_RDOL</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>OG</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>LV_Scheme_RDOL(CON)</v>
+          </cell>
+          <cell r="D6" t="str">
+            <v>CAP</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>LV_Scheme_SCOOP</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>LV_Scheme_SCOOP CF</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>MV_Scheme_BC</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>MV_Scheme_DOL</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="str">
+            <v>MV_Scheme_IC</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12" t="str">
+            <v>MV_Scheme_OG</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
+            <v>MV_Scheme_Trafo</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="COVER"/>
+      <sheetName val="INDEX"/>
+      <sheetName val="NOTES"/>
+      <sheetName val="B4-LVSW-102"/>
+      <sheetName val="B4-LVSW-103"/>
+      <sheetName val="B4-LVSW-104"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="32">
+          <cell r="E32" t="str">
+            <v>Acronym</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="E33" t="str">
+            <v>DOL</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="E34" t="str">
+            <v>RDL</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="E35" t="str">
+            <v>TRF</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="E36" t="str">
+            <v>OGF</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="SUMMARY"/>
+      <sheetName val="Local 1"/>
+      <sheetName val="Local 2"/>
+      <sheetName val="Local 3"/>
+      <sheetName val="Local 4"/>
+      <sheetName val="L&amp;T Manuf."/>
+      <sheetName val="Import 1"/>
+      <sheetName val="Import 2"/>
+      <sheetName val="Transport"/>
+      <sheetName val="ENGG &amp; EXEC."/>
+      <sheetName val="MANPO.-Eng &amp; Exe"/>
+      <sheetName val="SITE &amp; PRECOM."/>
+      <sheetName val="MANPO.- Site &amp; Precom"/>
+      <sheetName val="MANPO.- Site - Vendor"/>
+      <sheetName val="Civil 1"/>
+      <sheetName val="Civil 2"/>
+      <sheetName val="Civil 3"/>
+      <sheetName val="Site 1"/>
+      <sheetName val="Site 2"/>
+      <sheetName val="Site 3"/>
+      <sheetName val="Site Faci."/>
+      <sheetName val="Collab."/>
+      <sheetName val="Local-Spare"/>
+      <sheetName val="Import-Spare"/>
+      <sheetName val="Cont"/>
+      <sheetName val="Risk Anal"/>
+      <sheetName val="Risk Table"/>
+      <sheetName val="Risk graph"/>
+      <sheetName val="Ranges"/>
+      <sheetName val="FOR SMG"/>
+      <sheetName val="Module1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1">
+        <row r="139">
+          <cell r="C139" t="str">
+            <v>MT</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="C140" t="str">
+            <v>kg</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="C141" t="str">
+            <v>m2</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="C142" t="str">
+            <v>m3</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="C143" t="str">
+            <v>Nos.</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="C144" t="str">
+            <v>Lot</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="C145" t="str">
+            <v>in-m</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="C146" t="str">
+            <v>in-dia</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="C147" t="str">
+            <v>in</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="C148" t="str">
+            <v>ft</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="C149" t="str">
+            <v>m</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="C150" t="str">
+            <v>mm</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="C151" t="str">
+            <v>cm</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="C152" t="str">
+            <v>km</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="C153" t="str">
+            <v>cm2</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="C154" t="str">
+            <v>ft2</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="C155" t="str">
+            <v>in2</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="C156" t="str">
+            <v>m2(  )</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="C157" t="str">
+            <v>lit</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="C158" t="str">
+            <v>Days</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="C159" t="str">
+            <v>Months</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="C160" t="str">
+            <v>Man-months</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="S Process"/>
+      <sheetName val="S Procmnt"/>
+      <sheetName val="S Det-Engg"/>
+      <sheetName val="Det-Engg"/>
+      <sheetName val="CIVIL &amp; STR"/>
+      <sheetName val="PILING"/>
+      <sheetName val="INST"/>
+      <sheetName val="MECH"/>
+      <sheetName val="ELECT"/>
+      <sheetName val="PROCESS"/>
+      <sheetName val="PIPING"/>
+      <sheetName val="PREQ."/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8">
+        <row r="14">
+          <cell r="AB14">
+            <v>4.6511627906976744E-2</v>
+          </cell>
+          <cell r="AC14">
+            <v>2.3255813953488372E-2</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="AC16">
+            <v>2.3255813953488372E-2</v>
+          </cell>
+          <cell r="AD16">
+            <v>4.6511627906976744E-2</v>
+          </cell>
+          <cell r="AE16">
+            <v>2.3255813953488372E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Set-up"/>
+      <sheetName val="Specification_Activity"/>
+      <sheetName val="Calculation"/>
+      <sheetName val="Miscellaneous_Activity"/>
+      <sheetName val="Progress"/>
+      <sheetName val="Progress_Overall"/>
+      <sheetName val="Progress_Overall_1"/>
+      <sheetName val="Chart1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Equipment_Status"/>
+      <sheetName val="Document_Index"/>
+      <sheetName val="Pipe_Class_Status"/>
+      <sheetName val="Stress_Analysis_Index"/>
+      <sheetName val="Special_Support_Index"/>
+      <sheetName val="Material_Hndl_Equipments"/>
+      <sheetName val="Material_Hndl_Packages"/>
+      <sheetName val="Macro1"/>
+      <sheetName val="Module1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16" refreshError="1">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Macro1</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>Macro2</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="B2" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="17" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Test (2)"/>
+      <sheetName val="Test"/>
+      <sheetName val="PRIMARY CRUSHING BUILDING"/>
+      <sheetName val="SLD"/>
+      <sheetName val="SCREENING &amp; SECONDARY CRUSHING "/>
+      <sheetName val="SLD (2)"/>
+      <sheetName val="Data"/>
+      <sheetName val="Sheet3"/>
+      <sheetName val="Data_Validation"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="16">
+          <cell r="B16">
+            <v>1600</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6">
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>LnT</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>Type 2 co-ordination chart</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>Motor kW</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>A</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>Protection Device</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>Rating</v>
+          </cell>
+          <cell r="F3" t="str">
+            <v>Mecon Sel</v>
+          </cell>
+          <cell r="G3" t="str">
+            <v>TOL Range</v>
+          </cell>
+          <cell r="H3" t="str">
+            <v>Contactor</v>
+          </cell>
+          <cell r="J3" t="str">
+            <v>HRC Fuse</v>
+          </cell>
+          <cell r="K3" t="str">
+            <v>Panel Rqmt</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>0.09</v>
+          </cell>
+          <cell r="C4">
+            <v>0.4</v>
+          </cell>
+          <cell r="D4" t="str">
+            <v>MPCB</v>
+          </cell>
+          <cell r="E4" t="str">
+            <v>0.25 - 0.4</v>
+          </cell>
+          <cell r="F4" t="str">
+            <v>0.4 - 0.63</v>
+          </cell>
+          <cell r="G4" t="str">
+            <v>0.3 - 0.5</v>
+          </cell>
+          <cell r="H4">
+            <v>32</v>
+          </cell>
+          <cell r="K4">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>0.11</v>
+          </cell>
+          <cell r="C5">
+            <v>0.45</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>MPCB</v>
+          </cell>
+          <cell r="E5" t="str">
+            <v>0.4 - 0.63</v>
+          </cell>
+          <cell r="F5" t="str">
+            <v>0.63 - 1</v>
+          </cell>
+          <cell r="G5" t="str">
+            <v>0.45 - 0.75</v>
+          </cell>
+          <cell r="H5">
+            <v>32</v>
+          </cell>
+          <cell r="K5">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>0.15</v>
+          </cell>
+          <cell r="C6">
+            <v>0.56999999999999995</v>
+          </cell>
+          <cell r="D6" t="str">
+            <v>MPCB</v>
+          </cell>
+          <cell r="E6" t="str">
+            <v>0.4 - 0.63</v>
+          </cell>
+          <cell r="F6" t="str">
+            <v>0.63 - 1</v>
+          </cell>
+          <cell r="G6" t="str">
+            <v>0.45 - 0.75</v>
+          </cell>
+          <cell r="H6">
+            <v>32</v>
+          </cell>
+          <cell r="K6">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>0.19</v>
+          </cell>
+          <cell r="C7">
+            <v>0.7</v>
+          </cell>
+          <cell r="D7" t="str">
+            <v>MPCB</v>
+          </cell>
+          <cell r="E7" t="str">
+            <v>0.63 - 1</v>
+          </cell>
+          <cell r="F7" t="str">
+            <v>1 - 1.6</v>
+          </cell>
+          <cell r="G7" t="str">
+            <v>0.6 - 1</v>
+          </cell>
+          <cell r="H7">
+            <v>32</v>
+          </cell>
+          <cell r="K7">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>0.25</v>
+          </cell>
+          <cell r="C8">
+            <v>0.88</v>
+          </cell>
+          <cell r="D8" t="str">
+            <v>MPCB</v>
+          </cell>
+          <cell r="E8" t="str">
+            <v>0.63 - 1</v>
+          </cell>
+          <cell r="F8" t="str">
+            <v>1 - 1.6</v>
+          </cell>
+          <cell r="G8" t="str">
+            <v>0.6 - 1</v>
+          </cell>
+          <cell r="H8">
+            <v>32</v>
+          </cell>
+          <cell r="K8">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>0.37</v>
+          </cell>
+          <cell r="C9">
+            <v>1.2</v>
+          </cell>
+          <cell r="D9" t="str">
+            <v>MPCB</v>
+          </cell>
+          <cell r="E9" t="str">
+            <v>1 - 1.6</v>
+          </cell>
+          <cell r="F9" t="str">
+            <v>1.6 - 2.5</v>
+          </cell>
+          <cell r="G9" t="str">
+            <v>0.9 - 1.5</v>
+          </cell>
+          <cell r="H9">
+            <v>32</v>
+          </cell>
+          <cell r="K9">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>0.55000000000000004</v>
+          </cell>
+          <cell r="C10">
+            <v>1.6</v>
+          </cell>
+          <cell r="D10" t="str">
+            <v>MPCB</v>
+          </cell>
+          <cell r="E10" t="str">
+            <v>1 - 1.6</v>
+          </cell>
+          <cell r="F10" t="str">
+            <v>1.6 - 2.5</v>
+          </cell>
+          <cell r="G10" t="str">
+            <v>1.4 - 2.3</v>
+          </cell>
+          <cell r="H10">
+            <v>32</v>
+          </cell>
+          <cell r="K10">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>0.75</v>
+          </cell>
+          <cell r="C11">
+            <v>1.8</v>
+          </cell>
+          <cell r="D11" t="str">
+            <v>MPCB</v>
+          </cell>
+          <cell r="E11" t="str">
+            <v>1.6 - 2.5</v>
+          </cell>
+          <cell r="F11" t="str">
+            <v>2.5 - 4</v>
+          </cell>
+          <cell r="G11" t="str">
+            <v>1.4 - 2.3</v>
+          </cell>
+          <cell r="H11">
+            <v>32</v>
+          </cell>
+          <cell r="K11">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>0.92</v>
+          </cell>
+          <cell r="C12">
+            <v>2.1</v>
+          </cell>
+          <cell r="D12" t="str">
+            <v>MPCB</v>
+          </cell>
+          <cell r="E12" t="str">
+            <v>1.6 - 2.5</v>
+          </cell>
+          <cell r="F12" t="str">
+            <v>2.5 - 4</v>
+          </cell>
+          <cell r="G12" t="str">
+            <v>1.4 - 2.3</v>
+          </cell>
+          <cell r="H12">
+            <v>32</v>
+          </cell>
+          <cell r="K12">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>1.1000000000000001</v>
+          </cell>
+          <cell r="C13">
+            <v>2.6</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>MPCB</v>
+          </cell>
+          <cell r="E13" t="str">
+            <v>2.5 - 4</v>
+          </cell>
+          <cell r="F13" t="str">
+            <v>4 - 6.3</v>
+          </cell>
+          <cell r="G13" t="str">
+            <v>2.0 - 3.3</v>
+          </cell>
+          <cell r="H13">
+            <v>32</v>
+          </cell>
+          <cell r="K13">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>1.3</v>
+          </cell>
+          <cell r="C14">
+            <v>3</v>
+          </cell>
+          <cell r="D14" t="str">
+            <v>MPCB</v>
+          </cell>
+          <cell r="E14" t="str">
+            <v>2.5 - 4</v>
+          </cell>
+          <cell r="F14" t="str">
+            <v>4 - 6.3</v>
+          </cell>
+          <cell r="G14" t="str">
+            <v>2.0 - 3.3</v>
+          </cell>
+          <cell r="H14">
+            <v>32</v>
+          </cell>
+          <cell r="K14">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15">
+            <v>1.5</v>
+          </cell>
+          <cell r="C15">
+            <v>3.5</v>
+          </cell>
+          <cell r="D15" t="str">
+            <v>MPCB</v>
+          </cell>
+          <cell r="E15" t="str">
+            <v>2.5 - 4</v>
+          </cell>
+          <cell r="F15" t="str">
+            <v>4 - 6.3</v>
+          </cell>
+          <cell r="G15" t="str">
+            <v>3.0 - 5.0</v>
+          </cell>
+          <cell r="H15">
+            <v>32</v>
+          </cell>
+          <cell r="K15">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16">
+            <v>1.8</v>
+          </cell>
+          <cell r="C16">
+            <v>4.8</v>
+          </cell>
+          <cell r="D16" t="str">
+            <v>MPCB</v>
+          </cell>
+          <cell r="E16" t="str">
+            <v>4 - 6.3</v>
+          </cell>
+          <cell r="F16" t="str">
+            <v>6.3 - 10</v>
+          </cell>
+          <cell r="G16" t="str">
+            <v>4.5 - 7.5</v>
+          </cell>
+          <cell r="H16">
+            <v>32</v>
+          </cell>
+          <cell r="K16">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17">
+            <v>2.2000000000000002</v>
+          </cell>
+          <cell r="C17">
+            <v>5</v>
+          </cell>
+          <cell r="D17" t="str">
+            <v>MPCB</v>
+          </cell>
+          <cell r="E17" t="str">
+            <v>4 - 6.3</v>
+          </cell>
+          <cell r="F17" t="str">
+            <v>6.3 - 10</v>
+          </cell>
+          <cell r="G17" t="str">
+            <v>4.5 - 7.5</v>
+          </cell>
+          <cell r="H17">
+            <v>32</v>
+          </cell>
+          <cell r="K17">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>3</v>
+          </cell>
+          <cell r="C18">
+            <v>6.2</v>
+          </cell>
+          <cell r="D18" t="str">
+            <v>MPCB</v>
+          </cell>
+          <cell r="E18" t="str">
+            <v>4 - 6.3</v>
+          </cell>
+          <cell r="F18" t="str">
+            <v>6.3 - 10</v>
+          </cell>
+          <cell r="G18" t="str">
+            <v>4.5 - 7.5</v>
+          </cell>
+          <cell r="H18">
+            <v>32</v>
+          </cell>
+          <cell r="K18">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19">
+            <v>3.7</v>
+          </cell>
+          <cell r="C19">
+            <v>7.5</v>
+          </cell>
+          <cell r="D19" t="str">
+            <v>MPCB</v>
+          </cell>
+          <cell r="E19" t="str">
+            <v>6.3 - 10</v>
+          </cell>
+          <cell r="F19" t="str">
+            <v>10 - 16</v>
+          </cell>
+          <cell r="G19" t="str">
+            <v>6.0 - 10</v>
+          </cell>
+          <cell r="H19">
+            <v>32</v>
+          </cell>
+          <cell r="K19">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20">
+            <v>4.5</v>
+          </cell>
+          <cell r="C20">
+            <v>9</v>
+          </cell>
+          <cell r="D20" t="str">
+            <v>MPCB</v>
+          </cell>
+          <cell r="E20" t="str">
+            <v>6.3 - 10</v>
+          </cell>
+          <cell r="F20" t="str">
+            <v>10 - 16</v>
+          </cell>
+          <cell r="G20" t="str">
+            <v>6.0 - 10</v>
+          </cell>
+          <cell r="H20">
+            <v>32</v>
+          </cell>
+          <cell r="K20">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21">
+            <v>5.5</v>
+          </cell>
+          <cell r="C21">
+            <v>11</v>
+          </cell>
+          <cell r="D21" t="str">
+            <v>MPCB</v>
+          </cell>
+          <cell r="E21" t="str">
+            <v>10 - 16</v>
+          </cell>
+          <cell r="F21" t="str">
+            <v>10 - 16</v>
+          </cell>
+          <cell r="G21" t="str">
+            <v>9.0 - 15</v>
+          </cell>
+          <cell r="H21">
+            <v>80</v>
+          </cell>
+          <cell r="K21">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>7.5</v>
+          </cell>
+          <cell r="C22">
+            <v>14</v>
+          </cell>
+          <cell r="D22" t="str">
+            <v>MPCB</v>
+          </cell>
+          <cell r="E22" t="str">
+            <v>10 - 16</v>
+          </cell>
+          <cell r="F22" t="str">
+            <v>16 - 25</v>
+          </cell>
+          <cell r="G22" t="str">
+            <v>14 - 23</v>
+          </cell>
+          <cell r="H22">
+            <v>80</v>
+          </cell>
+          <cell r="K22">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23">
+            <v>9.3000000000000007</v>
+          </cell>
+          <cell r="C23">
+            <v>18</v>
+          </cell>
+          <cell r="D23" t="str">
+            <v>MPCB</v>
+          </cell>
+          <cell r="E23" t="str">
+            <v>16 - 25</v>
+          </cell>
+          <cell r="F23" t="str">
+            <v>16 - 25</v>
+          </cell>
+          <cell r="G23" t="str">
+            <v>14 - 23</v>
+          </cell>
+          <cell r="H23">
+            <v>80</v>
+          </cell>
+          <cell r="K23">
+            <v>0.25</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24">
+            <v>11</v>
+          </cell>
+          <cell r="C24">
+            <v>21</v>
+          </cell>
+          <cell r="D24" t="str">
+            <v>MPCB</v>
+          </cell>
+          <cell r="E24" t="str">
+            <v>16 - 25</v>
+          </cell>
+          <cell r="F24" t="str">
+            <v>24 - 32</v>
+          </cell>
+          <cell r="G24" t="str">
+            <v>20 - 33</v>
+          </cell>
+          <cell r="H24">
+            <v>80</v>
+          </cell>
+          <cell r="K24">
+            <v>0.25</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25">
+            <v>13</v>
+          </cell>
+          <cell r="C25">
+            <v>24</v>
+          </cell>
+          <cell r="D25" t="str">
+            <v>MPCB</v>
+          </cell>
+          <cell r="E25" t="str">
+            <v>16 - 25</v>
+          </cell>
+          <cell r="F25" t="str">
+            <v>24 - 32</v>
+          </cell>
+          <cell r="G25" t="str">
+            <v>20 - 33</v>
+          </cell>
+          <cell r="H25">
+            <v>80</v>
+          </cell>
+          <cell r="K25">
+            <v>0.25</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26">
+            <v>15</v>
+          </cell>
+          <cell r="C26">
+            <v>29</v>
+          </cell>
+          <cell r="D26" t="str">
+            <v>MPCB</v>
+          </cell>
+          <cell r="E26" t="str">
+            <v>24 - 32</v>
+          </cell>
+          <cell r="F26" t="str">
+            <v>32 - 40</v>
+          </cell>
+          <cell r="G26" t="str">
+            <v>20 - 33</v>
+          </cell>
+          <cell r="H26">
+            <v>80</v>
+          </cell>
+          <cell r="K26">
+            <v>0.25</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27">
+            <v>18.5</v>
+          </cell>
+          <cell r="C27">
+            <v>35</v>
+          </cell>
+          <cell r="D27" t="str">
+            <v>MPCB</v>
+          </cell>
+          <cell r="E27" t="str">
+            <v>32 - 40</v>
+          </cell>
+          <cell r="F27" t="str">
+            <v>50 - 58</v>
+          </cell>
+          <cell r="G27" t="str">
+            <v>30 - 50</v>
+          </cell>
+          <cell r="H27">
+            <v>80</v>
+          </cell>
+          <cell r="K27">
+            <v>0.33333333333333331</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28">
+            <v>22.5</v>
+          </cell>
+          <cell r="C28">
+            <v>40</v>
+          </cell>
+          <cell r="D28" t="str">
+            <v>MPCB</v>
+          </cell>
+          <cell r="E28" t="str">
+            <v>32 - 40</v>
+          </cell>
+          <cell r="F28" t="str">
+            <v>50 - 58</v>
+          </cell>
+          <cell r="G28" t="str">
+            <v>30 - 50</v>
+          </cell>
+          <cell r="H28">
+            <v>80</v>
+          </cell>
+          <cell r="K28">
+            <v>0.33333333333333331</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29">
+            <v>26</v>
+          </cell>
+          <cell r="C29">
+            <v>47</v>
+          </cell>
+          <cell r="D29" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="E29" t="str">
+            <v>80</v>
+          </cell>
+          <cell r="F29" t="str">
+            <v>80</v>
+          </cell>
+          <cell r="G29" t="str">
+            <v>45 - 75</v>
+          </cell>
+          <cell r="H29">
+            <v>110</v>
+          </cell>
+          <cell r="K29">
+            <v>0.33333333333333331</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30">
+            <v>30</v>
+          </cell>
+          <cell r="C30">
+            <v>55</v>
+          </cell>
+          <cell r="D30" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="E30" t="str">
+            <v>80</v>
+          </cell>
+          <cell r="F30" t="str">
+            <v>80</v>
+          </cell>
+          <cell r="G30" t="str">
+            <v>45 - 75</v>
+          </cell>
+          <cell r="H30">
+            <v>110</v>
+          </cell>
+          <cell r="K30">
+            <v>0.33333333333333331</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31">
+            <v>33.5</v>
+          </cell>
+          <cell r="C31">
+            <v>60</v>
+          </cell>
+          <cell r="D31" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="E31" t="str">
+            <v>100</v>
+          </cell>
+          <cell r="F31" t="str">
+            <v>100</v>
+          </cell>
+          <cell r="G31" t="str">
+            <v>42 - 69</v>
+          </cell>
+          <cell r="H31">
+            <v>140</v>
+          </cell>
+          <cell r="K31">
+            <v>0.33333333333333331</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32">
+            <v>37</v>
+          </cell>
+          <cell r="C32">
+            <v>66</v>
+          </cell>
+          <cell r="D32" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="E32" t="str">
+            <v>100</v>
+          </cell>
+          <cell r="F32" t="str">
+            <v>100</v>
+          </cell>
+          <cell r="G32" t="str">
+            <v>42 - 69</v>
+          </cell>
+          <cell r="H32">
+            <v>140</v>
+          </cell>
+          <cell r="K32">
+            <v>0.33333333333333331</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33">
+            <v>45</v>
+          </cell>
+          <cell r="C33">
+            <v>80</v>
+          </cell>
+          <cell r="D33" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="E33" t="str">
+            <v>125</v>
+          </cell>
+          <cell r="F33" t="str">
+            <v>125</v>
+          </cell>
+          <cell r="G33" t="str">
+            <v>60 - 100</v>
+          </cell>
+          <cell r="H33">
+            <v>140</v>
+          </cell>
+          <cell r="K33">
+            <v>0.5</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34">
+            <v>55</v>
+          </cell>
+          <cell r="C34">
+            <v>100</v>
+          </cell>
+          <cell r="D34" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="E34" t="str">
+            <v>160</v>
+          </cell>
+          <cell r="F34" t="str">
+            <v>160</v>
+          </cell>
+          <cell r="G34" t="str">
+            <v>60 - 100</v>
+          </cell>
+          <cell r="H34">
+            <v>140</v>
+          </cell>
+          <cell r="K34">
+            <v>0.5</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35">
+            <v>67.5</v>
+          </cell>
+          <cell r="C35">
+            <v>120</v>
+          </cell>
+          <cell r="D35" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="E35" t="str">
+            <v>200</v>
+          </cell>
+          <cell r="F35" t="str">
+            <v>200</v>
+          </cell>
+          <cell r="G35" t="str">
+            <v>90 - 150</v>
+          </cell>
+          <cell r="H35">
+            <v>225</v>
+          </cell>
+          <cell r="K35">
+            <v>0.5</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36">
+            <v>75</v>
+          </cell>
+          <cell r="C36">
+            <v>135</v>
+          </cell>
+          <cell r="D36" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="E36" t="str">
+            <v>200</v>
+          </cell>
+          <cell r="F36" t="str">
+            <v>200</v>
+          </cell>
+          <cell r="G36" t="str">
+            <v>90 - 150</v>
+          </cell>
+          <cell r="H36">
+            <v>225</v>
+          </cell>
+          <cell r="K36">
+            <v>0.66666666666666663</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37">
+            <v>80</v>
+          </cell>
+          <cell r="C37">
+            <v>139</v>
+          </cell>
+          <cell r="D37" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="E37" t="str">
+            <v>200</v>
+          </cell>
+          <cell r="F37" t="str">
+            <v>200</v>
+          </cell>
+          <cell r="G37" t="str">
+            <v>135 - 225</v>
+          </cell>
+          <cell r="H37">
+            <v>225</v>
+          </cell>
+          <cell r="K37">
+            <v>0.66666666666666663</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38">
+            <v>90</v>
+          </cell>
+          <cell r="C38">
+            <v>165</v>
+          </cell>
+          <cell r="D38" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="E38" t="str">
+            <v>250</v>
+          </cell>
+          <cell r="F38" t="str">
+            <v>250</v>
+          </cell>
+          <cell r="G38" t="str">
+            <v>135 - 225</v>
+          </cell>
+          <cell r="H38">
+            <v>265</v>
+          </cell>
+          <cell r="K38">
+            <v>0.66666666666666663</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39">
+            <v>110</v>
+          </cell>
+          <cell r="C39">
+            <v>200</v>
+          </cell>
+          <cell r="D39" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="E39" t="str">
+            <v>320</v>
+          </cell>
+          <cell r="F39" t="str">
+            <v>320</v>
+          </cell>
+          <cell r="G39" t="str">
+            <v>MPR</v>
+          </cell>
+          <cell r="H39">
+            <v>265</v>
+          </cell>
+          <cell r="K39">
+            <v>0.66666666666666663</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40">
+            <v>132</v>
+          </cell>
+          <cell r="C40">
+            <v>230</v>
+          </cell>
+          <cell r="D40" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="E40" t="str">
+            <v>400</v>
+          </cell>
+          <cell r="F40" t="str">
+            <v>400</v>
+          </cell>
+          <cell r="G40" t="str">
+            <v>MPR</v>
+          </cell>
+          <cell r="H40">
+            <v>265</v>
+          </cell>
+          <cell r="K40">
+            <v>0.66666666666666663</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41">
+            <v>147</v>
+          </cell>
+          <cell r="C41">
+            <v>260</v>
+          </cell>
+          <cell r="D41" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="E41" t="str">
+            <v>400</v>
+          </cell>
+          <cell r="F41" t="str">
+            <v>400</v>
+          </cell>
+          <cell r="G41" t="str">
+            <v>MPR</v>
+          </cell>
+          <cell r="H41">
+            <v>265</v>
+          </cell>
+          <cell r="K41">
+            <v>0.66666666666666663</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42">
+            <v>150</v>
+          </cell>
+          <cell r="C42">
+            <v>275</v>
+          </cell>
+          <cell r="D42" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="E42" t="str">
+            <v>400</v>
+          </cell>
+          <cell r="F42" t="str">
+            <v>400</v>
+          </cell>
+          <cell r="G42" t="str">
+            <v>MPR</v>
+          </cell>
+          <cell r="H42">
+            <v>400</v>
+          </cell>
+          <cell r="K42">
+            <v>0.66666666666666663</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43">
+            <v>160</v>
+          </cell>
+          <cell r="C43">
+            <v>280</v>
+          </cell>
+          <cell r="D43" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="E43" t="str">
+            <v>630</v>
+          </cell>
+          <cell r="F43" t="str">
+            <v>630</v>
+          </cell>
+          <cell r="G43" t="str">
+            <v>MPR</v>
+          </cell>
+          <cell r="H43">
+            <v>400</v>
+          </cell>
+          <cell r="K43">
+            <v>0.66666666666666663</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44">
+            <v>168</v>
+          </cell>
+          <cell r="C44">
+            <v>300</v>
+          </cell>
+          <cell r="D44" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="E44" t="str">
+            <v>630</v>
+          </cell>
+          <cell r="F44" t="str">
+            <v>630</v>
+          </cell>
+          <cell r="G44" t="str">
+            <v>MPR</v>
+          </cell>
+          <cell r="H44">
+            <v>400</v>
+          </cell>
+          <cell r="K44">
+            <v>0.66666666666666663</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45">
+            <v>180</v>
+          </cell>
+          <cell r="C45">
+            <v>320</v>
+          </cell>
+          <cell r="D45" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="E45" t="str">
+            <v>630</v>
+          </cell>
+          <cell r="F45" t="str">
+            <v>630</v>
+          </cell>
+          <cell r="G45" t="str">
+            <v>MPR</v>
+          </cell>
+          <cell r="H45">
+            <v>550</v>
+          </cell>
+          <cell r="K45">
+            <v>0.66666666666666663</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46">
+            <v>200</v>
+          </cell>
+          <cell r="C46">
+            <v>340</v>
+          </cell>
+          <cell r="D46" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="E46" t="str">
+            <v>630</v>
+          </cell>
+          <cell r="F46" t="str">
+            <v>630</v>
+          </cell>
+          <cell r="G46" t="str">
+            <v>MPR</v>
+          </cell>
+          <cell r="H46">
+            <v>550</v>
+          </cell>
+          <cell r="K46">
+            <v>0.66666666666666663</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="B49" t="str">
+            <v>Siemens</v>
+          </cell>
+          <cell r="K49">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="B50" t="str">
+            <v>Motor kW</v>
+          </cell>
+          <cell r="C50" t="str">
+            <v>A</v>
+          </cell>
+          <cell r="D50" t="str">
+            <v>Protection Device</v>
+          </cell>
+          <cell r="E50" t="str">
+            <v>Rating</v>
+          </cell>
+          <cell r="F50" t="str">
+            <v>Inst setting</v>
+          </cell>
+          <cell r="G50" t="str">
+            <v>TOL Range</v>
+          </cell>
+          <cell r="H50" t="str">
+            <v>Contactor</v>
+          </cell>
+          <cell r="I50">
+            <v>0</v>
+          </cell>
+          <cell r="J50" t="str">
+            <v>HRC Fuse</v>
+          </cell>
+          <cell r="K50" t="str">
+            <v>Panel Rqmt</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51">
+            <v>0.37</v>
+          </cell>
+          <cell r="C51">
+            <v>1</v>
+          </cell>
+          <cell r="D51">
+            <v>0</v>
+          </cell>
+          <cell r="E51">
+            <v>0</v>
+          </cell>
+          <cell r="F51">
+            <v>0</v>
+          </cell>
+          <cell r="G51" t="str">
+            <v>0.8 - 1.25</v>
+          </cell>
+          <cell r="H51">
+            <v>9</v>
+          </cell>
+          <cell r="I51">
+            <v>0</v>
+          </cell>
+          <cell r="J51">
+            <v>4</v>
+          </cell>
+          <cell r="K51">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="B52">
+            <v>0.55000000000000004</v>
+          </cell>
+          <cell r="C52">
+            <v>1.3</v>
+          </cell>
+          <cell r="D52">
+            <v>0</v>
+          </cell>
+          <cell r="E52">
+            <v>0</v>
+          </cell>
+          <cell r="F52">
+            <v>0</v>
+          </cell>
+          <cell r="G52" t="str">
+            <v>1 - 1.6</v>
+          </cell>
+          <cell r="H52">
+            <v>9</v>
+          </cell>
+          <cell r="I52">
+            <v>0</v>
+          </cell>
+          <cell r="J52">
+            <v>4</v>
+          </cell>
+          <cell r="K52">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53">
+            <v>0.75</v>
+          </cell>
+          <cell r="C53">
+            <v>1.9</v>
+          </cell>
+          <cell r="D53">
+            <v>0</v>
+          </cell>
+          <cell r="E53">
+            <v>0</v>
+          </cell>
+          <cell r="F53">
+            <v>0</v>
+          </cell>
+          <cell r="G53" t="str">
+            <v>1.25 - 2</v>
+          </cell>
+          <cell r="H53">
+            <v>9</v>
+          </cell>
+          <cell r="I53">
+            <v>0</v>
+          </cell>
+          <cell r="J53">
+            <v>6</v>
+          </cell>
+          <cell r="K53">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54">
+            <v>1.1000000000000001</v>
+          </cell>
+          <cell r="C54">
+            <v>2.6</v>
+          </cell>
+          <cell r="D54" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="F54" t="str">
+            <v>48</v>
+          </cell>
+          <cell r="G54" t="str">
+            <v>2 - 3.2</v>
+          </cell>
+          <cell r="H54">
+            <v>9</v>
+          </cell>
+          <cell r="I54">
+            <v>0</v>
+          </cell>
+          <cell r="J54">
+            <v>6</v>
+          </cell>
+          <cell r="K54">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55">
+            <v>1.5</v>
+          </cell>
+          <cell r="C55">
+            <v>3.7</v>
+          </cell>
+          <cell r="G55" t="str">
+            <v>2.5 - 4</v>
+          </cell>
+          <cell r="H55">
+            <v>9</v>
+          </cell>
+          <cell r="J55">
+            <v>10</v>
+          </cell>
+          <cell r="K55">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="B56">
+            <v>2.2000000000000002</v>
+          </cell>
+          <cell r="C56">
+            <v>4.8</v>
+          </cell>
+          <cell r="D56" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="F56" t="str">
+            <v>120</v>
+          </cell>
+          <cell r="G56" t="str">
+            <v>4 - 6.3</v>
+          </cell>
+          <cell r="H56">
+            <v>9</v>
+          </cell>
+          <cell r="I56">
+            <v>0</v>
+          </cell>
+          <cell r="J56">
+            <v>16</v>
+          </cell>
+          <cell r="K56">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57">
+            <v>3.7</v>
+          </cell>
+          <cell r="C57">
+            <v>7.8</v>
+          </cell>
+          <cell r="D57">
+            <v>0</v>
+          </cell>
+          <cell r="F57">
+            <v>0</v>
+          </cell>
+          <cell r="G57" t="str">
+            <v>5 - -8</v>
+          </cell>
+          <cell r="H57">
+            <v>9</v>
+          </cell>
+          <cell r="I57">
+            <v>0</v>
+          </cell>
+          <cell r="J57">
+            <v>20</v>
+          </cell>
+          <cell r="K57">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="B58">
+            <v>5.5</v>
+          </cell>
+          <cell r="C58">
+            <v>11.2</v>
+          </cell>
+          <cell r="D58" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="F58" t="str">
+            <v>190</v>
+          </cell>
+          <cell r="G58" t="str">
+            <v>8 - 12.5</v>
+          </cell>
+          <cell r="H58">
+            <v>12</v>
+          </cell>
+          <cell r="I58">
+            <v>0</v>
+          </cell>
+          <cell r="J58">
+            <v>25</v>
+          </cell>
+          <cell r="K58">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="B59">
+            <v>7.5</v>
+          </cell>
+          <cell r="C59">
+            <v>16</v>
+          </cell>
+          <cell r="D59" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="F59" t="str">
+            <v>190</v>
+          </cell>
+          <cell r="G59" t="str">
+            <v>12.5 - 20</v>
+          </cell>
+          <cell r="H59">
+            <v>16</v>
+          </cell>
+          <cell r="I59">
+            <v>0</v>
+          </cell>
+          <cell r="J59">
+            <v>25</v>
+          </cell>
+          <cell r="K59">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="B60">
+            <v>9.3000000000000007</v>
+          </cell>
+          <cell r="C60">
+            <v>19</v>
+          </cell>
+          <cell r="D60">
+            <v>0</v>
+          </cell>
+          <cell r="F60">
+            <v>0</v>
+          </cell>
+          <cell r="G60" t="str">
+            <v>16 - 25</v>
+          </cell>
+          <cell r="H60">
+            <v>32</v>
+          </cell>
+          <cell r="I60">
+            <v>0</v>
+          </cell>
+          <cell r="J60">
+            <v>32</v>
+          </cell>
+          <cell r="K60">
+            <v>0.25</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="B61">
+            <v>11</v>
+          </cell>
+          <cell r="C61">
+            <v>20.8</v>
+          </cell>
+          <cell r="D61" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="F61" t="str">
+            <v>300</v>
+          </cell>
+          <cell r="G61" t="str">
+            <v>16 - 25</v>
+          </cell>
+          <cell r="H61">
+            <v>32</v>
+          </cell>
+          <cell r="I61">
+            <v>0</v>
+          </cell>
+          <cell r="J61">
+            <v>50</v>
+          </cell>
+          <cell r="K61">
+            <v>0.25</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="B62">
+            <v>15</v>
+          </cell>
+          <cell r="C62">
+            <v>28</v>
+          </cell>
+          <cell r="D62" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="F62" t="str">
+            <v>420</v>
+          </cell>
+          <cell r="G62" t="str">
+            <v>20 - 32</v>
+          </cell>
+          <cell r="H62">
+            <v>32</v>
+          </cell>
+          <cell r="I62">
+            <v>0</v>
+          </cell>
+          <cell r="J62">
+            <v>50</v>
+          </cell>
+          <cell r="K62">
+            <v>0.25</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="B63">
+            <v>18.5</v>
+          </cell>
+          <cell r="C63">
+            <v>34</v>
+          </cell>
+          <cell r="D63" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="F63" t="str">
+            <v>480</v>
+          </cell>
+          <cell r="G63" t="str">
+            <v>25 - 36</v>
+          </cell>
+          <cell r="H63">
+            <v>38</v>
+          </cell>
+          <cell r="I63">
+            <v>0</v>
+          </cell>
+          <cell r="J63">
+            <v>63</v>
+          </cell>
+          <cell r="K63">
+            <v>0.33333333333333331</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="B64">
+            <v>22</v>
+          </cell>
+          <cell r="C64">
+            <v>40</v>
+          </cell>
+          <cell r="D64" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="F64" t="str">
+            <v>600</v>
+          </cell>
+          <cell r="G64" t="str">
+            <v>32 - 50</v>
+          </cell>
+          <cell r="H64">
+            <v>45</v>
+          </cell>
+          <cell r="I64">
+            <v>0</v>
+          </cell>
+          <cell r="J64">
+            <v>80</v>
+          </cell>
+          <cell r="K64">
+            <v>0.33333333333333331</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="B65">
+            <v>30</v>
+          </cell>
+          <cell r="C65">
+            <v>53</v>
+          </cell>
+          <cell r="D65" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="F65" t="str">
+            <v>690</v>
+          </cell>
+          <cell r="G65" t="str">
+            <v>40 - 57</v>
+          </cell>
+          <cell r="H65">
+            <v>63</v>
+          </cell>
+          <cell r="I65">
+            <v>0</v>
+          </cell>
+          <cell r="J65">
+            <v>100</v>
+          </cell>
+          <cell r="K65">
+            <v>0.33333333333333331</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="B66">
+            <v>37</v>
+          </cell>
+          <cell r="C66">
+            <v>65</v>
+          </cell>
+          <cell r="D66" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="F66" t="str">
+            <v>770</v>
+          </cell>
+          <cell r="G66" t="str">
+            <v>57 - 70</v>
+          </cell>
+          <cell r="H66">
+            <v>70</v>
+          </cell>
+          <cell r="I66">
+            <v>0</v>
+          </cell>
+          <cell r="J66">
+            <v>125</v>
+          </cell>
+          <cell r="K66">
+            <v>0.33333333333333331</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="B67">
+            <v>45</v>
+          </cell>
+          <cell r="C67">
+            <v>78</v>
+          </cell>
+          <cell r="D67" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="F67" t="str">
+            <v>840</v>
+          </cell>
+          <cell r="G67" t="str">
+            <v>70 - 95</v>
+          </cell>
+          <cell r="H67">
+            <v>85</v>
+          </cell>
+          <cell r="I67">
+            <v>0</v>
+          </cell>
+          <cell r="J67">
+            <v>125</v>
+          </cell>
+          <cell r="K67">
+            <v>0.5</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="B68">
+            <v>55</v>
+          </cell>
+          <cell r="C68">
+            <v>96</v>
+          </cell>
+          <cell r="D68" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="F68" t="str">
+            <v>1100</v>
+          </cell>
+          <cell r="G68" t="str">
+            <v>85 - 135</v>
+          </cell>
+          <cell r="H68">
+            <v>110</v>
+          </cell>
+          <cell r="I68">
+            <v>0</v>
+          </cell>
+          <cell r="J68">
+            <v>160</v>
+          </cell>
+          <cell r="K68">
+            <v>0.5</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="B69">
+            <v>75</v>
+          </cell>
+          <cell r="C69">
+            <v>131</v>
+          </cell>
+          <cell r="D69" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="F69" t="str">
+            <v>1500</v>
+          </cell>
+          <cell r="G69" t="str">
+            <v>115 - 180</v>
+          </cell>
+          <cell r="H69">
+            <v>140</v>
+          </cell>
+          <cell r="I69">
+            <v>0</v>
+          </cell>
+          <cell r="J69">
+            <v>200</v>
+          </cell>
+          <cell r="K69">
+            <v>0.66666666666666663</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="B70">
+            <v>90</v>
+          </cell>
+          <cell r="C70">
+            <v>156</v>
+          </cell>
+          <cell r="D70" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="F70" t="str">
+            <v>1700</v>
+          </cell>
+          <cell r="G70" t="str">
+            <v>115 - 180</v>
+          </cell>
+          <cell r="H70">
+            <v>170</v>
+          </cell>
+          <cell r="I70">
+            <v>0</v>
+          </cell>
+          <cell r="J70">
+            <v>250</v>
+          </cell>
+          <cell r="K70">
+            <v>0.66666666666666663</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="B71">
+            <v>110</v>
+          </cell>
+          <cell r="C71">
+            <v>189</v>
+          </cell>
+          <cell r="D71" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="F71" t="str">
+            <v>2100</v>
+          </cell>
+          <cell r="G71" t="str">
+            <v>160 - 250</v>
+          </cell>
+          <cell r="H71">
+            <v>205</v>
+          </cell>
+          <cell r="I71">
+            <v>0</v>
+          </cell>
+          <cell r="J71">
+            <v>315</v>
+          </cell>
+          <cell r="K71">
+            <v>0.66666666666666663</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="B72">
+            <v>132</v>
+          </cell>
+          <cell r="C72">
+            <v>227</v>
+          </cell>
+          <cell r="D72" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="F72" t="str">
+            <v>2800</v>
+          </cell>
+          <cell r="G72" t="str">
+            <v>160 - 250</v>
+          </cell>
+          <cell r="H72">
+            <v>250</v>
+          </cell>
+          <cell r="I72">
+            <v>0</v>
+          </cell>
+          <cell r="J72">
+            <v>355</v>
+          </cell>
+          <cell r="K72">
+            <v>0.66666666666666663</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="B73">
+            <v>160</v>
+          </cell>
+          <cell r="C73">
+            <v>271</v>
+          </cell>
+          <cell r="D73" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="F73" t="str">
+            <v>3100</v>
+          </cell>
+          <cell r="G73" t="str">
+            <v>200 - 320</v>
+          </cell>
+          <cell r="H73">
+            <v>300</v>
+          </cell>
+          <cell r="I73">
+            <v>0</v>
+          </cell>
+          <cell r="J73">
+            <v>400</v>
+          </cell>
+          <cell r="K73">
+            <v>0.66666666666666663</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="B74">
+            <v>200</v>
+          </cell>
+          <cell r="C74">
+            <v>339</v>
+          </cell>
+          <cell r="D74" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="F74" t="str">
+            <v>4000</v>
+          </cell>
+          <cell r="G74" t="str">
+            <v>250 - 400</v>
+          </cell>
+          <cell r="H74">
+            <v>400</v>
+          </cell>
+          <cell r="I74">
+            <v>0</v>
+          </cell>
+          <cell r="J74">
+            <v>500</v>
+          </cell>
+          <cell r="K74">
+            <v>0.66666666666666663</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="B75">
+            <v>250</v>
+          </cell>
+          <cell r="C75">
+            <v>398</v>
+          </cell>
+          <cell r="D75" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="F75" t="str">
+            <v>4260</v>
+          </cell>
+          <cell r="G75" t="str">
+            <v>320 - 500</v>
+          </cell>
+          <cell r="H75">
+            <v>475</v>
+          </cell>
+          <cell r="I75">
+            <v>0</v>
+          </cell>
+          <cell r="J75">
+            <v>500</v>
+          </cell>
+          <cell r="K75">
+            <v>0.66666666666666663</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="K77">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="B78" t="str">
+            <v>GE</v>
+          </cell>
+          <cell r="K78">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="B79" t="str">
+            <v>Motor kW</v>
+          </cell>
+          <cell r="C79" t="str">
+            <v>A</v>
+          </cell>
+          <cell r="D79" t="str">
+            <v>Protection Device</v>
+          </cell>
+          <cell r="E79" t="str">
+            <v>Rating</v>
+          </cell>
+          <cell r="F79" t="str">
+            <v>Mecon Sel</v>
+          </cell>
+          <cell r="G79" t="str">
+            <v>TOL Range</v>
+          </cell>
+          <cell r="H79" t="str">
+            <v>Contactor</v>
+          </cell>
+          <cell r="J79" t="str">
+            <v>HRC Fuse</v>
+          </cell>
+          <cell r="K79" t="str">
+            <v>Panel Rqmt</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="B80">
+            <v>0.55000000000000004</v>
+          </cell>
+          <cell r="C80">
+            <v>1.5</v>
+          </cell>
+          <cell r="D80" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="E80" t="str">
+            <v>3.2</v>
+          </cell>
+          <cell r="H80">
+            <v>18</v>
+          </cell>
+          <cell r="K80">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="B81">
+            <v>0.75</v>
+          </cell>
+          <cell r="C81">
+            <v>1.9</v>
+          </cell>
+          <cell r="D81" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="E81" t="str">
+            <v>3.2</v>
+          </cell>
+          <cell r="H81">
+            <v>18</v>
+          </cell>
+          <cell r="K81">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="B82">
+            <v>1.1000000000000001</v>
+          </cell>
+          <cell r="C82">
+            <v>2.5</v>
+          </cell>
+          <cell r="D82" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="E82" t="str">
+            <v>3.2</v>
+          </cell>
+          <cell r="H82">
+            <v>18</v>
+          </cell>
+          <cell r="K82">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="B83">
+            <v>1.5</v>
+          </cell>
+          <cell r="C83">
+            <v>3.4</v>
+          </cell>
+          <cell r="D83" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="E83" t="str">
+            <v>6.3</v>
+          </cell>
+          <cell r="H83">
+            <v>18</v>
+          </cell>
+          <cell r="K83">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="B84">
+            <v>2.2000000000000002</v>
+          </cell>
+          <cell r="C84">
+            <v>4.8</v>
+          </cell>
+          <cell r="D84" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="E84" t="str">
+            <v>6.3</v>
+          </cell>
+          <cell r="H84">
+            <v>18</v>
+          </cell>
+          <cell r="K84">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="B85">
+            <v>3.75</v>
+          </cell>
+          <cell r="C85">
+            <v>7.7</v>
+          </cell>
+          <cell r="D85" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="E85" t="str">
+            <v>12.5</v>
+          </cell>
+          <cell r="H85">
+            <v>18</v>
+          </cell>
+          <cell r="K85">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="B86">
+            <v>5.5</v>
+          </cell>
+          <cell r="C86">
+            <v>11.6</v>
+          </cell>
+          <cell r="D86" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="E86" t="str">
+            <v>12.5</v>
+          </cell>
+          <cell r="H86">
+            <v>18</v>
+          </cell>
+          <cell r="K86">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="B87">
+            <v>7.5</v>
+          </cell>
+          <cell r="C87">
+            <v>14.4</v>
+          </cell>
+          <cell r="D87" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="E87" t="str">
+            <v>25</v>
+          </cell>
+          <cell r="H87">
+            <v>32</v>
+          </cell>
+          <cell r="K87">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="B88">
+            <v>11</v>
+          </cell>
+          <cell r="C88">
+            <v>21.1</v>
+          </cell>
+          <cell r="D88" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="E88" t="str">
+            <v>25</v>
+          </cell>
+          <cell r="H88">
+            <v>32</v>
+          </cell>
+          <cell r="K88">
+            <v>0.25</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="B89">
+            <v>15</v>
+          </cell>
+          <cell r="C89">
+            <v>28</v>
+          </cell>
+          <cell r="D89" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="E89" t="str">
+            <v>50</v>
+          </cell>
+          <cell r="H89">
+            <v>40</v>
+          </cell>
+          <cell r="K89">
+            <v>0.25</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="B90">
+            <v>18.5</v>
+          </cell>
+          <cell r="C90">
+            <v>35</v>
+          </cell>
+          <cell r="D90" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="E90" t="str">
+            <v>50</v>
+          </cell>
+          <cell r="H90">
+            <v>40</v>
+          </cell>
+          <cell r="K90">
+            <v>0.33333333333333331</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="B91">
+            <v>22</v>
+          </cell>
+          <cell r="C91">
+            <v>41</v>
+          </cell>
+          <cell r="D91" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="E91" t="str">
+            <v>50</v>
+          </cell>
+          <cell r="H91">
+            <v>65</v>
+          </cell>
+          <cell r="K91">
+            <v>0.33333333333333331</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="B92">
+            <v>30</v>
+          </cell>
+          <cell r="C92">
+            <v>55</v>
+          </cell>
+          <cell r="D92" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="E92" t="str">
+            <v>100</v>
+          </cell>
+          <cell r="H92">
+            <v>65</v>
+          </cell>
+          <cell r="K92">
+            <v>0.33333333333333331</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="B93">
+            <v>37</v>
+          </cell>
+          <cell r="C93">
+            <v>60</v>
+          </cell>
+          <cell r="D93" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="E93" t="str">
+            <v>100</v>
+          </cell>
+          <cell r="H93">
+            <v>105</v>
+          </cell>
+          <cell r="K93">
+            <v>0.33333333333333331</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="B94">
+            <v>45</v>
+          </cell>
+          <cell r="C94">
+            <v>83</v>
+          </cell>
+          <cell r="D94" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="E94" t="str">
+            <v>100</v>
+          </cell>
+          <cell r="H94">
+            <v>105</v>
+          </cell>
+          <cell r="K94">
+            <v>0.5</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="B95">
+            <v>55</v>
+          </cell>
+          <cell r="C95">
+            <v>99</v>
+          </cell>
+          <cell r="D95" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="E95" t="str">
+            <v>200</v>
+          </cell>
+          <cell r="H95">
+            <v>150</v>
+          </cell>
+          <cell r="K95">
+            <v>0.5</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="B96">
+            <v>75</v>
+          </cell>
+          <cell r="C96">
+            <v>136</v>
+          </cell>
+          <cell r="D96" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="E96" t="str">
+            <v>200</v>
+          </cell>
+          <cell r="H96">
+            <v>150</v>
+          </cell>
+          <cell r="K96">
+            <v>0.66666666666666663</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="B97">
+            <v>90</v>
+          </cell>
+          <cell r="C97">
+            <v>162</v>
+          </cell>
+          <cell r="D97" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="E97" t="str">
+            <v>200</v>
+          </cell>
+          <cell r="H97">
+            <v>185</v>
+          </cell>
+          <cell r="K97">
+            <v>0.66666666666666663</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="B98">
+            <v>110</v>
+          </cell>
+          <cell r="C98">
+            <v>200</v>
+          </cell>
+          <cell r="D98" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="E98" t="str">
+            <v>400</v>
+          </cell>
+          <cell r="H98">
+            <v>250</v>
+          </cell>
+          <cell r="K98">
+            <v>0.66666666666666663</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="B99">
+            <v>132</v>
+          </cell>
+          <cell r="C99">
+            <v>231</v>
+          </cell>
+          <cell r="D99" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="E99" t="str">
+            <v>400</v>
+          </cell>
+          <cell r="H99">
+            <v>420</v>
+          </cell>
+          <cell r="K99">
+            <v>0.66666666666666663</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="B100">
+            <v>150</v>
+          </cell>
+          <cell r="C100">
+            <v>263</v>
+          </cell>
+          <cell r="D100" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="E100" t="str">
+            <v>400</v>
+          </cell>
+          <cell r="H100">
+            <v>420</v>
+          </cell>
+          <cell r="K100">
+            <v>0.66666666666666663</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="B101">
+            <v>160</v>
+          </cell>
+          <cell r="C101">
+            <v>281</v>
+          </cell>
+          <cell r="D101" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="E101" t="str">
+            <v>400</v>
+          </cell>
+          <cell r="H101">
+            <v>420</v>
+          </cell>
+          <cell r="K101">
+            <v>0.66666666666666663</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="B102">
+            <v>185</v>
+          </cell>
+          <cell r="C102">
+            <v>324</v>
+          </cell>
+          <cell r="D102" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="E102" t="str">
+            <v>400</v>
+          </cell>
+          <cell r="H102">
+            <v>420</v>
+          </cell>
+          <cell r="K102">
+            <v>0.66666666666666663</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="B103">
+            <v>200</v>
+          </cell>
+          <cell r="C103">
+            <v>354</v>
+          </cell>
+          <cell r="D103" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="E103" t="str">
+            <v>400</v>
+          </cell>
+          <cell r="H103">
+            <v>420</v>
+          </cell>
+          <cell r="K103">
+            <v>0.66666666666666663</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="B105" t="str">
+            <v>Crompton</v>
+          </cell>
+          <cell r="K105">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="B106" t="str">
+            <v>Motor kW</v>
+          </cell>
+          <cell r="C106" t="str">
+            <v>A</v>
+          </cell>
+          <cell r="D106" t="str">
+            <v>Protection Device</v>
+          </cell>
+          <cell r="E106" t="str">
+            <v>Rating</v>
+          </cell>
+          <cell r="F106" t="str">
+            <v>Inst setting</v>
+          </cell>
+          <cell r="G106" t="str">
+            <v>TOL Range</v>
+          </cell>
+          <cell r="H106" t="str">
+            <v>Contactor</v>
+          </cell>
+          <cell r="J106" t="str">
+            <v>HRC Fuse</v>
+          </cell>
+          <cell r="K106" t="str">
+            <v>Panel Rqmt</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="B107">
+            <v>0.25</v>
+          </cell>
+          <cell r="C107">
+            <v>0.79</v>
+          </cell>
+          <cell r="D107" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="E107" t="str">
+            <v>1.5</v>
+          </cell>
+          <cell r="F107">
+            <v>18</v>
+          </cell>
+          <cell r="H107">
+            <v>16</v>
+          </cell>
+          <cell r="J107">
+            <v>0</v>
+          </cell>
+          <cell r="K107">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="B108">
+            <v>0.37</v>
+          </cell>
+          <cell r="C108">
+            <v>1.08</v>
+          </cell>
+          <cell r="D108" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="E108" t="str">
+            <v>1.5</v>
+          </cell>
+          <cell r="F108">
+            <v>18</v>
+          </cell>
+          <cell r="H108">
+            <v>16</v>
+          </cell>
+          <cell r="J108">
+            <v>0</v>
+          </cell>
+          <cell r="K108">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="B109">
+            <v>0.55000000000000004</v>
+          </cell>
+          <cell r="C109">
+            <v>1.43</v>
+          </cell>
+          <cell r="D109" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="E109" t="str">
+            <v>2.5</v>
+          </cell>
+          <cell r="F109">
+            <v>24</v>
+          </cell>
+          <cell r="H109">
+            <v>16</v>
+          </cell>
+          <cell r="J109">
+            <v>0</v>
+          </cell>
+          <cell r="K109">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="B110">
+            <v>0.75</v>
+          </cell>
+          <cell r="C110">
+            <v>1.84</v>
+          </cell>
+          <cell r="D110" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="E110" t="str">
+            <v>3</v>
+          </cell>
+          <cell r="F110">
+            <v>36</v>
+          </cell>
+          <cell r="H110">
+            <v>16</v>
+          </cell>
+          <cell r="J110">
+            <v>0</v>
+          </cell>
+          <cell r="K110">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="B111">
+            <v>1.1000000000000001</v>
+          </cell>
+          <cell r="C111">
+            <v>2.6</v>
+          </cell>
+          <cell r="D111" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="E111" t="str">
+            <v>4</v>
+          </cell>
+          <cell r="F111">
+            <v>48</v>
+          </cell>
+          <cell r="H111">
+            <v>16</v>
+          </cell>
+          <cell r="J111">
+            <v>0</v>
+          </cell>
+          <cell r="K111">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="B112">
+            <v>1.5</v>
+          </cell>
+          <cell r="C112">
+            <v>3.4</v>
+          </cell>
+          <cell r="D112" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="E112" t="str">
+            <v>5</v>
+          </cell>
+          <cell r="F112">
+            <v>60</v>
+          </cell>
+          <cell r="H112">
+            <v>16</v>
+          </cell>
+          <cell r="J112">
+            <v>0</v>
+          </cell>
+          <cell r="K112">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="B113">
+            <v>2.2000000000000002</v>
+          </cell>
+          <cell r="C113">
+            <v>4.8</v>
+          </cell>
+          <cell r="D113" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="E113" t="str">
+            <v>8</v>
+          </cell>
+          <cell r="F113">
+            <v>96</v>
+          </cell>
+          <cell r="H113">
+            <v>16</v>
+          </cell>
+          <cell r="J113">
+            <v>0</v>
+          </cell>
+          <cell r="K113">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="B114">
+            <v>3.7</v>
+          </cell>
+          <cell r="C114">
+            <v>7.8</v>
+          </cell>
+          <cell r="D114" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="E114" t="str">
+            <v>12</v>
+          </cell>
+          <cell r="F114">
+            <v>144</v>
+          </cell>
+          <cell r="H114">
+            <v>32</v>
+          </cell>
+          <cell r="J114">
+            <v>0</v>
+          </cell>
+          <cell r="K114">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="B115">
+            <v>5.5</v>
+          </cell>
+          <cell r="C115">
+            <v>11</v>
+          </cell>
+          <cell r="D115" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="E115" t="str">
+            <v>20</v>
+          </cell>
+          <cell r="F115">
+            <v>240</v>
+          </cell>
+          <cell r="H115">
+            <v>70</v>
+          </cell>
+          <cell r="J115">
+            <v>0</v>
+          </cell>
+          <cell r="K115">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="B116">
+            <v>7.5</v>
+          </cell>
+          <cell r="C116">
+            <v>14.5</v>
+          </cell>
+          <cell r="D116" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="E116" t="str">
+            <v>25</v>
+          </cell>
+          <cell r="F116">
+            <v>300</v>
+          </cell>
+          <cell r="H116">
+            <v>70</v>
+          </cell>
+          <cell r="J116">
+            <v>0</v>
+          </cell>
+          <cell r="K116">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="B117">
+            <v>11</v>
+          </cell>
+          <cell r="C117">
+            <v>21.5</v>
+          </cell>
+          <cell r="D117" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="E117" t="str">
+            <v>35</v>
+          </cell>
+          <cell r="F117">
+            <v>420</v>
+          </cell>
+          <cell r="H117">
+            <v>70</v>
+          </cell>
+          <cell r="J117">
+            <v>0</v>
+          </cell>
+          <cell r="K117">
+            <v>0.25</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="B118">
+            <v>15</v>
+          </cell>
+          <cell r="C118">
+            <v>28</v>
+          </cell>
+          <cell r="D118" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="E118" t="str">
+            <v>45</v>
+          </cell>
+          <cell r="F118">
+            <v>540</v>
+          </cell>
+          <cell r="H118">
+            <v>70</v>
+          </cell>
+          <cell r="J118">
+            <v>0</v>
+          </cell>
+          <cell r="K118">
+            <v>0.25</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="B119">
+            <v>18.5</v>
+          </cell>
+          <cell r="C119">
+            <v>34</v>
+          </cell>
+          <cell r="D119" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="E119" t="str">
+            <v>50</v>
+          </cell>
+          <cell r="F119">
+            <v>600</v>
+          </cell>
+          <cell r="H119">
+            <v>70</v>
+          </cell>
+          <cell r="J119">
+            <v>0</v>
+          </cell>
+          <cell r="K119">
+            <v>0.33333333333333331</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="B120">
+            <v>22</v>
+          </cell>
+          <cell r="C120">
+            <v>39</v>
+          </cell>
+          <cell r="D120" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="E120" t="str">
+            <v>60</v>
+          </cell>
+          <cell r="F120">
+            <v>720</v>
+          </cell>
+          <cell r="H120">
+            <v>70</v>
+          </cell>
+          <cell r="J120">
+            <v>0</v>
+          </cell>
+          <cell r="K120">
+            <v>0.33333333333333331</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="B121">
+            <v>30</v>
+          </cell>
+          <cell r="C121">
+            <v>53</v>
+          </cell>
+          <cell r="D121" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="E121" t="str">
+            <v>90</v>
+          </cell>
+          <cell r="F121">
+            <v>900</v>
+          </cell>
+          <cell r="H121">
+            <v>115</v>
+          </cell>
+          <cell r="J121">
+            <v>0</v>
+          </cell>
+          <cell r="K121">
+            <v>0.33333333333333331</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="B122">
+            <v>37</v>
+          </cell>
+          <cell r="C122">
+            <v>65</v>
+          </cell>
+          <cell r="D122" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="E122" t="str">
+            <v>100</v>
+          </cell>
+          <cell r="F122">
+            <v>1200</v>
+          </cell>
+          <cell r="H122">
+            <v>115</v>
+          </cell>
+          <cell r="J122">
+            <v>0</v>
+          </cell>
+          <cell r="K122">
+            <v>0.33333333333333331</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="B123">
+            <v>45</v>
+          </cell>
+          <cell r="C123">
+            <v>78</v>
+          </cell>
+          <cell r="D123" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="E123" t="str">
+            <v>125</v>
+          </cell>
+          <cell r="F123">
+            <v>1750</v>
+          </cell>
+          <cell r="H123">
+            <v>200</v>
+          </cell>
+          <cell r="J123">
+            <v>0</v>
+          </cell>
+          <cell r="K123">
+            <v>0.5</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="B124">
+            <v>55</v>
+          </cell>
+          <cell r="C124">
+            <v>95</v>
+          </cell>
+          <cell r="D124" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="E124" t="str">
+            <v>150</v>
+          </cell>
+          <cell r="F124">
+            <v>2100</v>
+          </cell>
+          <cell r="H124">
+            <v>200</v>
+          </cell>
+          <cell r="J124">
+            <v>0</v>
+          </cell>
+          <cell r="K124">
+            <v>0.5</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="B125">
+            <v>75</v>
+          </cell>
+          <cell r="C125">
+            <v>132</v>
+          </cell>
+          <cell r="D125" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="E125" t="str">
+            <v>225</v>
+          </cell>
+          <cell r="F125">
+            <v>3150</v>
+          </cell>
+          <cell r="H125">
+            <v>200</v>
+          </cell>
+          <cell r="J125">
+            <v>0</v>
+          </cell>
+          <cell r="K125">
+            <v>0.66666666666666663</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="B126">
+            <v>90</v>
+          </cell>
+          <cell r="C126">
+            <v>158</v>
+          </cell>
+          <cell r="D126" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="E126" t="str">
+            <v>250</v>
+          </cell>
+          <cell r="F126">
+            <v>3000</v>
+          </cell>
+          <cell r="H126">
+            <v>400</v>
+          </cell>
+          <cell r="J126">
+            <v>0</v>
+          </cell>
+          <cell r="K126">
+            <v>0.66666666666666663</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="B127">
+            <v>110</v>
+          </cell>
+          <cell r="C127">
+            <v>193</v>
+          </cell>
+          <cell r="D127" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="E127" t="str">
+            <v>300</v>
+          </cell>
+          <cell r="F127">
+            <v>3600</v>
+          </cell>
+          <cell r="H127">
+            <v>400</v>
+          </cell>
+          <cell r="J127">
+            <v>0</v>
+          </cell>
+          <cell r="K127">
+            <v>0.66666666666666663</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="B128">
+            <v>132</v>
+          </cell>
+          <cell r="C128">
+            <v>230</v>
+          </cell>
+          <cell r="D128" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="E128" t="str">
+            <v>350</v>
+          </cell>
+          <cell r="F128">
+            <v>4200</v>
+          </cell>
+          <cell r="H128">
+            <v>400</v>
+          </cell>
+          <cell r="J128">
+            <v>0</v>
+          </cell>
+          <cell r="K128">
+            <v>0.66666666666666663</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="B129">
+            <v>160</v>
+          </cell>
+          <cell r="C129">
+            <v>280</v>
+          </cell>
+          <cell r="D129" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="E129" t="str">
+            <v>375</v>
+          </cell>
+          <cell r="F129">
+            <v>4500</v>
+          </cell>
+          <cell r="H129">
+            <v>400</v>
+          </cell>
+          <cell r="J129">
+            <v>0</v>
+          </cell>
+          <cell r="K129">
+            <v>0.66666666666666663</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="B130">
+            <v>200</v>
+          </cell>
+          <cell r="C130">
+            <v>347</v>
+          </cell>
+          <cell r="D130" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="E130" t="str">
+            <v>400</v>
+          </cell>
+          <cell r="F130">
+            <v>4800</v>
+          </cell>
+          <cell r="H130">
+            <v>400</v>
+          </cell>
+          <cell r="J130">
+            <v>0</v>
+          </cell>
+          <cell r="K130">
+            <v>0.66666666666666663</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="B132" t="str">
+            <v>ABB</v>
+          </cell>
+          <cell r="K132">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="B133" t="str">
+            <v>Motor kW</v>
+          </cell>
+          <cell r="C133" t="str">
+            <v>A</v>
+          </cell>
+          <cell r="D133" t="str">
+            <v>Protection Device</v>
+          </cell>
+          <cell r="E133" t="str">
+            <v>Rating</v>
+          </cell>
+          <cell r="F133" t="str">
+            <v>Inst setting</v>
+          </cell>
+          <cell r="G133" t="str">
+            <v>TOL Range</v>
+          </cell>
+          <cell r="H133" t="str">
+            <v>Contactor</v>
+          </cell>
+          <cell r="I133">
+            <v>0</v>
+          </cell>
+          <cell r="J133" t="str">
+            <v>HRC Fuse</v>
+          </cell>
+          <cell r="K133" t="str">
+            <v>Panel Rqmt</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="B134">
+            <v>0.37</v>
+          </cell>
+          <cell r="C134">
+            <v>1.1499999999999999</v>
+          </cell>
+          <cell r="G134" t="str">
+            <v>1 - 1.4</v>
+          </cell>
+          <cell r="H134">
+            <v>9</v>
+          </cell>
+          <cell r="J134">
+            <v>4</v>
+          </cell>
+          <cell r="K134">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="B135">
+            <v>0.55000000000000004</v>
+          </cell>
+          <cell r="C135">
+            <v>1.4</v>
+          </cell>
+          <cell r="G135" t="str">
+            <v>1.3 - 1.8</v>
+          </cell>
+          <cell r="H135">
+            <v>9</v>
+          </cell>
+          <cell r="J135">
+            <v>6</v>
+          </cell>
+          <cell r="K135">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="B136">
+            <v>0.75</v>
+          </cell>
+          <cell r="C136">
+            <v>2</v>
+          </cell>
+          <cell r="G136" t="str">
+            <v>1.7 - 2.4</v>
+          </cell>
+          <cell r="H136">
+            <v>9</v>
+          </cell>
+          <cell r="J136">
+            <v>6</v>
+          </cell>
+          <cell r="K136">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="B137">
+            <v>1.1000000000000001</v>
+          </cell>
+          <cell r="C137">
+            <v>2.5</v>
+          </cell>
+          <cell r="G137" t="str">
+            <v>2.2 - 3.1</v>
+          </cell>
+          <cell r="H137">
+            <v>9</v>
+          </cell>
+          <cell r="J137">
+            <v>10</v>
+          </cell>
+          <cell r="K137">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="B138">
+            <v>1.5</v>
+          </cell>
+          <cell r="C138">
+            <v>3.5</v>
+          </cell>
+          <cell r="G138" t="str">
+            <v>2.8 - 4</v>
+          </cell>
+          <cell r="H138">
+            <v>9</v>
+          </cell>
+          <cell r="J138">
+            <v>10</v>
+          </cell>
+          <cell r="K138">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="B139">
+            <v>2.2000000000000002</v>
+          </cell>
+          <cell r="C139">
+            <v>5</v>
+          </cell>
+          <cell r="G139" t="str">
+            <v>4.5 - 6.5</v>
+          </cell>
+          <cell r="H139">
+            <v>9</v>
+          </cell>
+          <cell r="J139">
+            <v>16</v>
+          </cell>
+          <cell r="K139">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="B140">
+            <v>3</v>
+          </cell>
+          <cell r="C140">
+            <v>6.5</v>
+          </cell>
+          <cell r="G140" t="str">
+            <v>6.0 - 8.5</v>
+          </cell>
+          <cell r="H140">
+            <v>9</v>
+          </cell>
+          <cell r="J140">
+            <v>16</v>
+          </cell>
+          <cell r="K140">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="B141">
+            <v>4</v>
+          </cell>
+          <cell r="C141">
+            <v>8.4</v>
+          </cell>
+          <cell r="G141" t="str">
+            <v>7.5 - 11</v>
+          </cell>
+          <cell r="H141">
+            <v>9</v>
+          </cell>
+          <cell r="J141">
+            <v>25</v>
+          </cell>
+          <cell r="K141">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="B142">
+            <v>5.5</v>
+          </cell>
+          <cell r="C142">
+            <v>11</v>
+          </cell>
+          <cell r="G142" t="str">
+            <v>10 - 14</v>
+          </cell>
+          <cell r="H142">
+            <v>16</v>
+          </cell>
+          <cell r="J142">
+            <v>32</v>
+          </cell>
+          <cell r="K142">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="B143">
+            <v>7.5</v>
+          </cell>
+          <cell r="C143">
+            <v>14</v>
+          </cell>
+          <cell r="G143" t="str">
+            <v>13 - 19</v>
+          </cell>
+          <cell r="H143">
+            <v>25</v>
+          </cell>
+          <cell r="J143">
+            <v>50</v>
+          </cell>
+          <cell r="K143">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="B144">
+            <v>11</v>
+          </cell>
+          <cell r="C144">
+            <v>21</v>
+          </cell>
+          <cell r="G144" t="str">
+            <v>18 - 25</v>
+          </cell>
+          <cell r="H144">
+            <v>25</v>
+          </cell>
+          <cell r="J144">
+            <v>50</v>
+          </cell>
+          <cell r="K144">
+            <v>0.25</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="B145">
+            <v>15</v>
+          </cell>
+          <cell r="C145">
+            <v>28</v>
+          </cell>
+          <cell r="G145" t="str">
+            <v>24 - 32</v>
+          </cell>
+          <cell r="H145">
+            <v>30</v>
+          </cell>
+          <cell r="J145">
+            <v>63</v>
+          </cell>
+          <cell r="K145">
+            <v>0.25</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="B146">
+            <v>18.5</v>
+          </cell>
+          <cell r="C146">
+            <v>35</v>
+          </cell>
+          <cell r="G146" t="str">
+            <v>29 - 42</v>
+          </cell>
+          <cell r="H146">
+            <v>40</v>
+          </cell>
+          <cell r="J146">
+            <v>80</v>
+          </cell>
+          <cell r="K146">
+            <v>0.33333333333333331</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="B147">
+            <v>22</v>
+          </cell>
+          <cell r="C147">
+            <v>40</v>
+          </cell>
+          <cell r="G147" t="str">
+            <v>36 - 52</v>
+          </cell>
+          <cell r="H147">
+            <v>50</v>
+          </cell>
+          <cell r="J147">
+            <v>100</v>
+          </cell>
+          <cell r="K147">
+            <v>0.33333333333333331</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="B148">
+            <v>30</v>
+          </cell>
+          <cell r="C148">
+            <v>55</v>
+          </cell>
+          <cell r="G148" t="str">
+            <v>45 - 63</v>
+          </cell>
+          <cell r="H148">
+            <v>63</v>
+          </cell>
+          <cell r="J148">
+            <v>125</v>
+          </cell>
+          <cell r="K148">
+            <v>0.33333333333333331</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="B149">
+            <v>37</v>
+          </cell>
+          <cell r="C149">
+            <v>66</v>
+          </cell>
+          <cell r="G149" t="str">
+            <v>60 - 80</v>
+          </cell>
+          <cell r="H149">
+            <v>75</v>
+          </cell>
+          <cell r="J149">
+            <v>160</v>
+          </cell>
+          <cell r="K149">
+            <v>0.33333333333333331</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="B150">
+            <v>45</v>
+          </cell>
+          <cell r="C150">
+            <v>80</v>
+          </cell>
+          <cell r="G150" t="str">
+            <v>80 - 100</v>
+          </cell>
+          <cell r="H150">
+            <v>90</v>
+          </cell>
+          <cell r="J150">
+            <v>160</v>
+          </cell>
+          <cell r="K150">
+            <v>0.5</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="B151">
+            <v>55</v>
+          </cell>
+          <cell r="C151">
+            <v>96</v>
+          </cell>
+          <cell r="G151" t="str">
+            <v>80 - 110</v>
+          </cell>
+          <cell r="H151">
+            <v>100</v>
+          </cell>
+          <cell r="J151">
+            <v>200</v>
+          </cell>
+          <cell r="K151">
+            <v>0.5</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="B152">
+            <v>75</v>
+          </cell>
+          <cell r="C152">
+            <v>135</v>
+          </cell>
+          <cell r="G152" t="str">
+            <v>110 - 150</v>
+          </cell>
+          <cell r="H152">
+            <v>145</v>
+          </cell>
+          <cell r="J152">
+            <v>250</v>
+          </cell>
+          <cell r="K152">
+            <v>0.66666666666666663</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="B153">
+            <v>90</v>
+          </cell>
+          <cell r="C153">
+            <v>165</v>
+          </cell>
+          <cell r="G153" t="str">
+            <v>130 - 175</v>
+          </cell>
+          <cell r="H153">
+            <v>150</v>
+          </cell>
+          <cell r="J153">
+            <v>315</v>
+          </cell>
+          <cell r="K153">
+            <v>0.66666666666666663</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="B154">
+            <v>110</v>
+          </cell>
+          <cell r="C154">
+            <v>200</v>
+          </cell>
+          <cell r="G154" t="str">
+            <v>150 - 200</v>
+          </cell>
+          <cell r="H154">
+            <v>160</v>
+          </cell>
+          <cell r="J154">
+            <v>315</v>
+          </cell>
+          <cell r="K154">
+            <v>0.66666666666666663</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="B155">
+            <v>132</v>
+          </cell>
+          <cell r="C155">
+            <v>242</v>
+          </cell>
+          <cell r="G155" t="str">
+            <v>220 - 310</v>
+          </cell>
+          <cell r="H155">
+            <v>250</v>
+          </cell>
+          <cell r="J155">
+            <v>400</v>
+          </cell>
+          <cell r="K155">
+            <v>0.66666666666666663</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="B156">
+            <v>160</v>
+          </cell>
+          <cell r="C156">
+            <v>280</v>
+          </cell>
+          <cell r="G156" t="str">
+            <v>220 - 310</v>
+          </cell>
+          <cell r="H156">
+            <v>370</v>
+          </cell>
+          <cell r="J156">
+            <v>500</v>
+          </cell>
+          <cell r="K156">
+            <v>0.66666666666666663</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="B157">
+            <v>200</v>
+          </cell>
+          <cell r="C157">
+            <v>340</v>
+          </cell>
+          <cell r="G157" t="str">
+            <v>285 - 400</v>
+          </cell>
+          <cell r="H157">
+            <v>370</v>
+          </cell>
+          <cell r="J157">
+            <v>630</v>
+          </cell>
+          <cell r="K157">
+            <v>0.66666666666666663</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="B158">
+            <v>250</v>
+          </cell>
+          <cell r="C158">
+            <v>425</v>
+          </cell>
+          <cell r="G158" t="str">
+            <v>355 - 500</v>
+          </cell>
+          <cell r="H158">
+            <v>550</v>
+          </cell>
+          <cell r="J158">
+            <v>630</v>
+          </cell>
+          <cell r="K158">
+            <v>0.66666666666666663</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="B159">
+            <v>290</v>
+          </cell>
+          <cell r="C159">
+            <v>500</v>
+          </cell>
+          <cell r="G159" t="str">
+            <v>465 - 650</v>
+          </cell>
+          <cell r="H159">
+            <v>550</v>
+          </cell>
+          <cell r="J159">
+            <v>630</v>
+          </cell>
+          <cell r="K159">
+            <v>0.66666666666666663</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="COVER"/>
+      <sheetName val="Index"/>
+      <sheetName val="Notes"/>
+      <sheetName val="Calc- 1"/>
+      <sheetName val="Calc- 2"/>
+      <sheetName val="B5 Substation"/>
+      <sheetName val="110V-UPS TANK DB-NTF"/>
+      <sheetName val="summary"/>
+      <sheetName val="CABLE SIZE CALCULATION-UPS DB"/>
+      <sheetName val="Main"/>
+      <sheetName val="110V-UPS TANK DB-STF"/>
+      <sheetName val="Derating Factor"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="50">
+          <cell r="N50" t="str">
+            <v>17052231-B-E-1438</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9">
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>5Cx16 Cu.</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>5Cx25 Cu.</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>5Cx35 Cu.</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>4Cx1.5 Cu</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>4Cx2.5 Cu.</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="str">
+            <v>4Cx4.0 Cu.</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12" t="str">
+            <v>4Cx6.0 Cu.</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
+            <v>4Cx10 Cu.</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14" t="str">
+            <v>4Cx16 Cu.</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v>4Cx25 Cu.</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16" t="str">
+            <v>4Cx35 Cu.</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17" t="str">
+            <v>4Cx50 Cu.</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18" t="str">
+            <v>4Cx70 Cu.</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19" t="str">
+            <v>4Cx95 Cu.</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20" t="str">
+            <v>4Cx120 Cu.</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21" t="str">
+            <v>4Cx150 Cu.</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22" t="str">
+            <v>4Cx185 Cu.</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23" t="str">
+            <v>4Cx240 Cu.</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24" t="str">
+            <v>4Cx300 Cu.</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25" t="str">
+            <v>4Cx400 Cu.</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26" t="str">
+            <v>4Cx500 Cu.</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27" t="str">
+            <v>3Cx1.5 Cu</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28" t="str">
+            <v>3Cx2.5 Cu.</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29" t="str">
+            <v>3Cx4.0 Cu.</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30" t="str">
+            <v>3Cx6.0 Cu.</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31" t="str">
+            <v>3Cx10 Cu.</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32" t="str">
+            <v>3Cx16 Cu.</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33" t="str">
+            <v>3Cx25 Cu.</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34" t="str">
+            <v>3Cx35 Cu.</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35" t="str">
+            <v>3Cx50 Cu.</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36" t="str">
+            <v>3Cx70 Cu.</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37" t="str">
+            <v>3Cx95 Cu.</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38" t="str">
+            <v>3Cx120 Cu.</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39" t="str">
+            <v>3Cx150 Cu.</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40" t="str">
+            <v>3Cx185 Cu.</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41" t="str">
+            <v>3Cx240 Cu.</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42" t="str">
+            <v>3Cx300 Cu.</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43" t="str">
+            <v>3Cx400 Cu.</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44" t="str">
+            <v>3Cx500 Cu.</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45" t="str">
+            <v>2Cx1.5 Cu</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46" t="str">
+            <v>2Cx2.5 Cu.</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="B47" t="str">
+            <v>2Cx4.0 Cu.</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48" t="str">
+            <v>2Cx6.0 Cu.</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="B49" t="str">
+            <v>2Cx10 Cu.</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="B50" t="str">
+            <v>2Cx16 Cu.</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51" t="str">
+            <v>2Cx25 Cu.</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="B52" t="str">
+            <v>2Cx35 Cu.</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53" t="str">
+            <v>2Cx50 Cu.</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54" t="str">
+            <v>2Cx70 Cu.</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55" t="str">
+            <v>2Cx95 Cu.</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="B56" t="str">
+            <v>2Cx120 Cu.</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57" t="str">
+            <v>2Cx150 Cu.</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="B58" t="str">
+            <v>2Cx185 Cu.</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="B59" t="str">
+            <v>2Cx240 Cu.</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="B60" t="str">
+            <v>2Cx300 Cu.</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="B61" t="str">
+            <v>2Cx400 Cu.</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="B62" t="str">
+            <v>1Cx300 Cu.</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="B63" t="str">
+            <v>1Cx400 Cu.</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="B64" t="str">
+            <v>1Cx500 Cu.</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="B65" t="str">
+            <v>1Cx630 Cu.</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="INTSHEET1"/>
+      <sheetName val="MANHRS"/>
+      <sheetName val="INTSHEET3"/>
+      <sheetName val="INTSHEET4"/>
+      <sheetName val="INTSHEET5B"/>
+      <sheetName val="INTSHEET5A"/>
+      <sheetName val="INTSHEET6"/>
+      <sheetName val="EX_PRG"/>
+      <sheetName val="EX_PR_TB"/>
+      <sheetName val="EX_TB_UIL"/>
+      <sheetName val="EX_TB_SAZ"/>
+      <sheetName val="overall"/>
+      <sheetName val="Overall-Eng"/>
+      <sheetName val="BE"/>
+      <sheetName val="DE"/>
+      <sheetName val="DE-PRS"/>
+      <sheetName val="DE-PIP"/>
+      <sheetName val="DE-CVL"/>
+      <sheetName val="DE-ELE"/>
+      <sheetName val="DE-IN"/>
+      <sheetName val="Overall-PRC"/>
+      <sheetName val="PRC"/>
+      <sheetName val="MFG"/>
+      <sheetName val="Overall-Const"/>
+      <sheetName val="OVERALL-GRAPH"/>
+      <sheetName val="PE-GRAPH"/>
+      <sheetName val="PI-GRAPH"/>
+      <sheetName val="CI-GRAPH"/>
+      <sheetName val="IC-GRAPH"/>
+      <sheetName val="EL-GRAPH"/>
+      <sheetName val="Sheet1"/>
+      <sheetName val="weightage"/>
+      <sheetName val="appsch"/>
+      <sheetName val="BAK%PRGS"/>
+      <sheetName val="WEIGHTAGEPCC"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="J1" t="str">
+            <v xml:space="preserve">Sheet No. 1 of 7 </v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="J2" t="str">
+            <v>.</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>INTERNAL PROGRESS REPORT</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>FOR THE MONTH OF MARCH '2006</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8" t="str">
+            <v>PLANT</v>
+          </cell>
+          <cell r="D8" t="str">
+            <v>:</v>
+          </cell>
+          <cell r="E8" t="str">
+            <v>SULPHUR COATED UREA PROJECT</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10" t="str">
+            <v>CAPACITY</v>
+          </cell>
+          <cell r="D10" t="str">
+            <v>:</v>
+          </cell>
+          <cell r="E10" t="str">
+            <v>90,000 TPA OF SULPHUR COATED UREA</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12" t="str">
+            <v>CLIENT</v>
+          </cell>
+          <cell r="D12" t="str">
+            <v>:</v>
+          </cell>
+          <cell r="E12" t="str">
+            <v>KHORASAN PETROCHEMICAL COMPANY, IRAN</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="C14" t="str">
+            <v>LOCATION</v>
+          </cell>
+          <cell r="D14" t="str">
+            <v>:</v>
+          </cell>
+          <cell r="E14" t="str">
+            <v>EXISTING UREA COMPLEX IN BOJNURD, IRAN</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="C16" t="str">
+            <v>LICENSOR</v>
+          </cell>
+          <cell r="D16" t="str">
+            <v>:</v>
+          </cell>
+          <cell r="E16" t="str">
+            <v>NU-GRO CORPORATION , CANADA</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="C18" t="str">
+            <v>JOB NO.</v>
+          </cell>
+          <cell r="D18" t="str">
+            <v>:</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22" t="str">
+            <v>EFFECTIVE DATE OF CONTRACT</v>
+          </cell>
+          <cell r="G22" t="str">
+            <v>:</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24" t="str">
+            <v>L/C OPENING</v>
+          </cell>
+          <cell r="G24" t="str">
+            <v>:</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28" t="str">
+            <v xml:space="preserve">MECHANICAL COMPLETION </v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="C30" t="str">
+            <v>CONTRACTUAL</v>
+          </cell>
+          <cell r="G30" t="str">
+            <v>:</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="C32" t="str">
+            <v>EXPECTED</v>
+          </cell>
+          <cell r="G32" t="str">
+            <v>:</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>REPORT NO     : 01</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>REPORT DATE : 25/03/2006</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>PROJECT MANAGER :  S.K. Chatterjee</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v>DISTRIBUTION:</v>
+          </cell>
+          <cell r="C45" t="str">
+            <v xml:space="preserve"> MD / ED(E) / ED(I) / ED(C)-COM / VP (Pune) / GGM (Mv) - GM (IC) /GM(PE) /GM (EL) /</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="C46" t="str">
+            <v xml:space="preserve"> GM (PI) / GM (CONS) /GM (IN-EX) / GM (PR) / GM (PL) / GM (MQ) / GM (CI) / </v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="C47" t="str">
+            <v>GM(PCC) / GM(PM)</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="52">
+          <cell r="H52">
+            <v>0</v>
+          </cell>
+          <cell r="I52">
+            <v>0</v>
+          </cell>
+          <cell r="J52">
+            <v>0</v>
+          </cell>
+          <cell r="K52">
+            <v>0</v>
+          </cell>
+          <cell r="L52">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="H53">
+            <v>0</v>
+          </cell>
+          <cell r="I53">
+            <v>0</v>
+          </cell>
+          <cell r="J53">
+            <v>0</v>
+          </cell>
+          <cell r="K53">
+            <v>0</v>
+          </cell>
+          <cell r="L53">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="H54">
+            <v>0</v>
+          </cell>
+          <cell r="I54">
+            <v>0</v>
+          </cell>
+          <cell r="J54">
+            <v>0</v>
+          </cell>
+          <cell r="K54">
+            <v>0</v>
+          </cell>
+          <cell r="L54">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="H61">
+            <v>0</v>
+          </cell>
+          <cell r="I61">
+            <v>0</v>
+          </cell>
+          <cell r="J61">
+            <v>0</v>
+          </cell>
+          <cell r="K61">
+            <v>0</v>
+          </cell>
+          <cell r="L61">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="H62">
+            <v>0</v>
+          </cell>
+          <cell r="I62">
+            <v>0</v>
+          </cell>
+          <cell r="J62">
+            <v>0</v>
+          </cell>
+          <cell r="K62">
+            <v>0</v>
+          </cell>
+          <cell r="L62">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="H63">
+            <v>0</v>
+          </cell>
+          <cell r="I63">
+            <v>0</v>
+          </cell>
+          <cell r="J63">
+            <v>0</v>
+          </cell>
+          <cell r="K63">
+            <v>0</v>
+          </cell>
+          <cell r="L63">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5">
+        <row r="13">
+          <cell r="H13">
+            <v>0</v>
+          </cell>
+          <cell r="I13">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="H14">
+            <v>0</v>
+          </cell>
+          <cell r="I14">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="H15">
+            <v>0</v>
+          </cell>
+          <cell r="I15">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="H16">
+            <v>0</v>
+          </cell>
+          <cell r="I16">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="H17">
+            <v>0</v>
+          </cell>
+          <cell r="I17">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="H18">
+            <v>0</v>
+          </cell>
+          <cell r="I18">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="H21">
+            <v>0</v>
+          </cell>
+          <cell r="I21">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="H22">
+            <v>0</v>
+          </cell>
+          <cell r="I22">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="SPReport_Definition"/>
+      <sheetName val="TITLE"/>
+      <sheetName val="INDEX"/>
+      <sheetName val="LEGENDS"/>
+      <sheetName val="Cable Schedule"/>
+      <sheetName val="BOQ"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="33kV GIS SB"/>
+      <sheetName val="6.6kV SB Main ECR"/>
+      <sheetName val="6.6kV SB CDI"/>
+      <sheetName val="6.6kV SB CLCS"/>
+      <sheetName val="415V SB Main PCC"/>
+      <sheetName val="STOCK HOUSE MCC-A"/>
+      <sheetName val="STOCK HOUSE MCC-B"/>
+      <sheetName val="STOCK HOUSE MCC-C"/>
+      <sheetName val="STOCK HOUSE PDB"/>
+      <sheetName val="STOCK HOUSE MAIN PDB"/>
+      <sheetName val="STOCK HOUSE HVAC PDB-1"/>
+      <sheetName val="STOCK HOUSE HVAC PDB-2"/>
+      <sheetName val="CLCS MCC"/>
+      <sheetName val="CLCS PDB"/>
+      <sheetName val="CLCS MAIN PDB"/>
+      <sheetName val="CLCS HVAC PDB"/>
+      <sheetName val="STOVE MCC-A"/>
+      <sheetName val="STOVE MCC-B"/>
+      <sheetName val="STOVE MCC-C"/>
+      <sheetName val="STOVE COMMON MCC"/>
+      <sheetName val="STOVE PDB"/>
+      <sheetName val="CH DEFUMING MCC"/>
+      <sheetName val="CAST HOUSE PDB"/>
+      <sheetName val="CAST HOUSE MAIN PDB"/>
+      <sheetName val="CAST HOUSE HVAC PDB"/>
+      <sheetName val="GCP MCC"/>
+      <sheetName val="GCP PDB"/>
+      <sheetName val="NEW BLT MCC"/>
+      <sheetName val="COAL INJECTION MCC"/>
+      <sheetName val="COAL INJECTION PDB"/>
+      <sheetName val="TURBO BLOWER MCC"/>
+      <sheetName val="UPS DB"/>
+      <sheetName val="TURBO BLOWER PDB"/>
+      <sheetName val="NEW HP-16 MCC"/>
+      <sheetName val="NEW HP-17 MCC"/>
+      <sheetName val="Panel Sizing"/>
+      <sheetName val="Third Party List"/>
+      <sheetName val="iMCC Schems Summary"/>
+      <sheetName val="Overall Summary"/>
+      <sheetName val="IO List - Turbo BLower"/>
+      <sheetName val="IO List"/>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Trafo"/>
+      <sheetName val="Bid Vs Actual"/>
+      <sheetName val="Power Requirement"/>
+      <sheetName val="PF Eff &amp; ST Cr"/>
+      <sheetName val="Pending Issues"/>
+      <sheetName val="Sheet20"/>
+      <sheetName val="Sheet3"/>
+      <sheetName val="SLD"/>
+      <sheetName val="Data"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
+      <sheetData sheetId="37"/>
+      <sheetData sheetId="38"/>
+      <sheetData sheetId="39"/>
+      <sheetData sheetId="40"/>
+      <sheetData sheetId="41"/>
+      <sheetData sheetId="42"/>
+      <sheetData sheetId="43"/>
+      <sheetData sheetId="44"/>
+      <sheetData sheetId="45">
+        <row r="6">
+          <cell r="M6" t="str">
+            <v>MCB/ MCCB ratings</v>
+          </cell>
+          <cell r="O6" t="str">
+            <v>MPCB Ratings</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="M7">
+            <v>6300</v>
+          </cell>
+          <cell r="N7" t="str">
+            <v>ACB</v>
+          </cell>
+          <cell r="O7">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="M8">
+            <v>5000</v>
+          </cell>
+          <cell r="N8" t="str">
+            <v>ACB</v>
+          </cell>
+          <cell r="O8">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="M9">
+            <v>4000</v>
+          </cell>
+          <cell r="N9" t="str">
+            <v>ACB</v>
+          </cell>
+          <cell r="O9">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="M10">
+            <v>3200</v>
+          </cell>
+          <cell r="N10" t="str">
+            <v>ACB</v>
+          </cell>
+          <cell r="O10">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="M11">
+            <v>2500</v>
+          </cell>
+          <cell r="N11" t="str">
+            <v>ACB</v>
+          </cell>
+          <cell r="O11">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="M12">
+            <v>2000</v>
+          </cell>
+          <cell r="N12" t="str">
+            <v>ACB</v>
+          </cell>
+          <cell r="O12">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="M13">
+            <v>1600</v>
+          </cell>
+          <cell r="N13" t="str">
+            <v>ACB</v>
+          </cell>
+          <cell r="O13">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="M14">
+            <v>1250</v>
+          </cell>
+          <cell r="N14" t="str">
+            <v>ACB</v>
+          </cell>
+          <cell r="O14">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="M15">
+            <v>1000</v>
+          </cell>
+          <cell r="N15" t="str">
+            <v>ACB</v>
+          </cell>
+          <cell r="O15">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="M16">
+            <v>800</v>
+          </cell>
+          <cell r="N16" t="str">
+            <v>ACB</v>
+          </cell>
+          <cell r="O16">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="M17">
+            <v>630</v>
+          </cell>
+          <cell r="N17" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="O17">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="M18">
+            <v>400</v>
+          </cell>
+          <cell r="N18" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="O18">
+            <v>0.33333333333333331</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="M19">
+            <v>250</v>
+          </cell>
+          <cell r="N19" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="O19">
+            <v>0.33333333333333331</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="M20">
+            <v>200</v>
+          </cell>
+          <cell r="N20" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="O20">
+            <v>0.25</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="M21">
+            <v>160</v>
+          </cell>
+          <cell r="N21" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="O21">
+            <v>0.25</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="M22">
+            <v>125</v>
+          </cell>
+          <cell r="N22" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="O22">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="M23">
+            <v>100</v>
+          </cell>
+          <cell r="N23" t="str">
+            <v>MCCB</v>
+          </cell>
+          <cell r="O23">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="M24">
+            <v>63</v>
+          </cell>
+          <cell r="N24" t="str">
+            <v>MPCB</v>
+          </cell>
+          <cell r="O24">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="M25">
+            <v>50</v>
+          </cell>
+          <cell r="N25" t="str">
+            <v>MPCB</v>
+          </cell>
+          <cell r="O25">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="M26">
+            <v>40</v>
+          </cell>
+          <cell r="N26" t="str">
+            <v>MPCB</v>
+          </cell>
+          <cell r="O26">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="M27">
+            <v>32</v>
+          </cell>
+          <cell r="N27" t="str">
+            <v>MPCB</v>
+          </cell>
+          <cell r="O27">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="M28">
+            <v>25</v>
+          </cell>
+          <cell r="N28" t="str">
+            <v>MPCB</v>
+          </cell>
+          <cell r="O28">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="M29">
+            <v>16</v>
+          </cell>
+          <cell r="N29" t="str">
+            <v>MPCB</v>
+          </cell>
+          <cell r="O29">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="M30">
+            <v>10</v>
+          </cell>
+          <cell r="N30" t="str">
+            <v>MPCB</v>
+          </cell>
+          <cell r="O30">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="M31">
+            <v>6</v>
+          </cell>
+          <cell r="N31" t="str">
+            <v>MPCB</v>
+          </cell>
+          <cell r="O31">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="M32">
+            <v>5</v>
+          </cell>
+          <cell r="N32" t="str">
+            <v>MPCB</v>
+          </cell>
+          <cell r="O32">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="M33">
+            <v>4</v>
+          </cell>
+          <cell r="N33" t="str">
+            <v>MPCB</v>
+          </cell>
+          <cell r="O33">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="M34">
+            <v>3.2</v>
+          </cell>
+          <cell r="N34" t="str">
+            <v>MPCB</v>
+          </cell>
+          <cell r="O34">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="M35">
+            <v>2.4</v>
+          </cell>
+          <cell r="N35" t="str">
+            <v>MPCB</v>
+          </cell>
+          <cell r="O35">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="M36">
+            <v>1.6</v>
+          </cell>
+          <cell r="N36" t="str">
+            <v>MPCB</v>
+          </cell>
+          <cell r="O36">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="M37">
+            <v>1</v>
+          </cell>
+          <cell r="N37" t="str">
+            <v>MPCB</v>
+          </cell>
+          <cell r="O37">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="M38">
+            <v>0.6</v>
+          </cell>
+          <cell r="N38" t="str">
+            <v>MPCB</v>
+          </cell>
+          <cell r="O38">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="M39">
+            <v>0.4</v>
+          </cell>
+          <cell r="N39" t="str">
+            <v>MPCB</v>
+          </cell>
+          <cell r="O39">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="M40">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="M51" t="str">
+            <v>-</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="M52" t="str">
+            <v>C</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="M53" t="str">
+            <v>I</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="M54" t="str">
+            <v>SB</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="M55" t="str">
+            <v>SP</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="M56" t="str">
+            <v>R</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="N76" t="str">
+            <v>Equip. Supplier</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="N77" t="str">
+            <v>Danieli</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="N78" t="str">
+            <v>Electrical</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="46"/>
+      <sheetData sheetId="47"/>
+      <sheetData sheetId="48"/>
+      <sheetData sheetId="49"/>
+      <sheetData sheetId="50"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="SC-OVERALL"/>
+      <sheetName val="SC-ENGG"/>
+      <sheetName val="SC-PROC"/>
+      <sheetName val="SC-CONST"/>
+      <sheetName val="SC-FAB"/>
+      <sheetName val="SC-EREC"/>
+      <sheetName val="weekly percentages"/>
+      <sheetName val="ALL"/>
+      <sheetName val="manhours-internal"/>
+      <sheetName val="Summary"/>
+      <sheetName val="MR-Furnace"/>
+      <sheetName val="drawing-schedule"/>
+      <sheetName val="man&amp; del"/>
+      <sheetName val="CONST"/>
+      <sheetName val="WBS"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7" refreshError="1">
+        <row r="2">
+          <cell r="A2">
+            <v>1</v>
+          </cell>
+          <cell r="G2">
+            <v>0</v>
+          </cell>
+          <cell r="H2">
+            <v>0</v>
+          </cell>
+          <cell r="I2">
+            <v>0</v>
+          </cell>
+          <cell r="J2">
+            <v>0</v>
+          </cell>
+          <cell r="K2">
+            <v>0</v>
+          </cell>
+          <cell r="L2">
+            <v>1</v>
+          </cell>
+          <cell r="M2">
+            <v>0</v>
+          </cell>
+          <cell r="N2">
+            <v>0</v>
+          </cell>
+          <cell r="O2">
+            <v>0</v>
+          </cell>
+          <cell r="P2">
+            <v>0</v>
+          </cell>
+          <cell r="Q2">
+            <v>0</v>
+          </cell>
+          <cell r="R2">
+            <v>0</v>
+          </cell>
+          <cell r="S2">
+            <v>0</v>
+          </cell>
+          <cell r="T2">
+            <v>0</v>
+          </cell>
+          <cell r="U2">
+            <v>0</v>
+          </cell>
+          <cell r="V2">
+            <v>0</v>
+          </cell>
+          <cell r="W2">
+            <v>0</v>
+          </cell>
+          <cell r="X2">
+            <v>0</v>
+          </cell>
+          <cell r="Y2">
+            <v>0</v>
+          </cell>
+          <cell r="Z2">
+            <v>0</v>
+          </cell>
+          <cell r="AA2">
+            <v>0</v>
+          </cell>
+          <cell r="AB2">
+            <v>0</v>
+          </cell>
+          <cell r="AC2">
+            <v>0</v>
+          </cell>
+          <cell r="AD2">
+            <v>0</v>
+          </cell>
+          <cell r="AE2">
+            <v>0</v>
+          </cell>
+          <cell r="AF2">
+            <v>0</v>
+          </cell>
+          <cell r="AG2">
+            <v>0</v>
+          </cell>
+          <cell r="AH2">
+            <v>0</v>
+          </cell>
+          <cell r="AI2">
+            <v>0</v>
+          </cell>
+          <cell r="AJ2">
+            <v>0</v>
+          </cell>
+          <cell r="AK2">
+            <v>0</v>
+          </cell>
+          <cell r="AL2">
+            <v>0</v>
+          </cell>
+          <cell r="AM2">
+            <v>0</v>
+          </cell>
+          <cell r="AN2">
+            <v>0</v>
+          </cell>
+          <cell r="AO2">
+            <v>0</v>
+          </cell>
+          <cell r="AP2">
+            <v>0</v>
+          </cell>
+          <cell r="AQ2">
+            <v>0</v>
+          </cell>
+          <cell r="AR2">
+            <v>0</v>
+          </cell>
+          <cell r="AS2">
+            <v>0</v>
+          </cell>
+          <cell r="AT2">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>4</v>
+          </cell>
+          <cell r="G5">
+            <v>38014</v>
+          </cell>
+          <cell r="H5">
+            <v>38021</v>
+          </cell>
+          <cell r="I5">
+            <v>38028</v>
+          </cell>
+          <cell r="J5">
+            <v>38035</v>
+          </cell>
+          <cell r="K5">
+            <v>38042</v>
+          </cell>
+          <cell r="L5">
+            <v>38049</v>
+          </cell>
+          <cell r="M5">
+            <v>38056</v>
+          </cell>
+          <cell r="N5">
+            <v>38063</v>
+          </cell>
+          <cell r="O5">
+            <v>38070</v>
+          </cell>
+          <cell r="P5">
+            <v>38077</v>
+          </cell>
+          <cell r="Q5">
+            <v>38084</v>
+          </cell>
+          <cell r="R5">
+            <v>38091</v>
+          </cell>
+          <cell r="S5">
+            <v>38098</v>
+          </cell>
+          <cell r="T5">
+            <v>38105</v>
+          </cell>
+          <cell r="U5">
+            <v>38112</v>
+          </cell>
+          <cell r="V5">
+            <v>38119</v>
+          </cell>
+          <cell r="W5">
+            <v>38126</v>
+          </cell>
+          <cell r="X5">
+            <v>38133</v>
+          </cell>
+          <cell r="Y5">
+            <v>38140</v>
+          </cell>
+          <cell r="Z5">
+            <v>38147</v>
+          </cell>
+          <cell r="AA5">
+            <v>38154</v>
+          </cell>
+          <cell r="AB5">
+            <v>38161</v>
+          </cell>
+          <cell r="AC5">
+            <v>38168</v>
+          </cell>
+          <cell r="AD5">
+            <v>38175</v>
+          </cell>
+          <cell r="AE5">
+            <v>38182</v>
+          </cell>
+          <cell r="AF5">
+            <v>38189</v>
+          </cell>
+          <cell r="AG5">
+            <v>38196</v>
+          </cell>
+          <cell r="AH5">
+            <v>38203</v>
+          </cell>
+          <cell r="AI5">
+            <v>38210</v>
+          </cell>
+          <cell r="AJ5">
+            <v>38217</v>
+          </cell>
+          <cell r="AK5">
+            <v>38224</v>
+          </cell>
+          <cell r="AL5">
+            <v>38231</v>
+          </cell>
+          <cell r="AM5">
+            <v>38238</v>
+          </cell>
+          <cell r="AN5">
+            <v>38245</v>
+          </cell>
+          <cell r="AO5">
+            <v>38252</v>
+          </cell>
+          <cell r="AP5">
+            <v>38259</v>
+          </cell>
+          <cell r="AQ5">
+            <v>38266</v>
+          </cell>
+          <cell r="AR5">
+            <v>38273</v>
+          </cell>
+          <cell r="AS5">
+            <v>38280</v>
+          </cell>
+          <cell r="AT5">
+            <v>38287</v>
+          </cell>
+          <cell r="AU5">
+            <v>38294</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>5</v>
+          </cell>
+          <cell r="G6">
+            <v>1</v>
+          </cell>
+          <cell r="H6">
+            <v>2</v>
+          </cell>
+          <cell r="I6">
+            <v>3</v>
+          </cell>
+          <cell r="J6">
+            <v>4</v>
+          </cell>
+          <cell r="K6">
+            <v>5</v>
+          </cell>
+          <cell r="L6">
+            <v>6</v>
+          </cell>
+          <cell r="M6">
+            <v>7</v>
+          </cell>
+          <cell r="N6">
+            <v>8</v>
+          </cell>
+          <cell r="O6">
+            <v>9</v>
+          </cell>
+          <cell r="P6">
+            <v>10</v>
+          </cell>
+          <cell r="Q6">
+            <v>11</v>
+          </cell>
+          <cell r="R6">
+            <v>12</v>
+          </cell>
+          <cell r="S6">
+            <v>13</v>
+          </cell>
+          <cell r="T6">
+            <v>14</v>
+          </cell>
+          <cell r="U6">
+            <v>15</v>
+          </cell>
+          <cell r="V6">
+            <v>16</v>
+          </cell>
+          <cell r="W6">
+            <v>17</v>
+          </cell>
+          <cell r="X6">
+            <v>18</v>
+          </cell>
+          <cell r="Y6">
+            <v>19</v>
+          </cell>
+          <cell r="Z6">
+            <v>20</v>
+          </cell>
+          <cell r="AA6">
+            <v>21</v>
+          </cell>
+          <cell r="AB6">
+            <v>22</v>
+          </cell>
+          <cell r="AC6">
+            <v>23</v>
+          </cell>
+          <cell r="AD6">
+            <v>24</v>
+          </cell>
+          <cell r="AE6">
+            <v>25</v>
+          </cell>
+          <cell r="AF6">
+            <v>26</v>
+          </cell>
+          <cell r="AG6">
+            <v>27</v>
+          </cell>
+          <cell r="AH6">
+            <v>28</v>
+          </cell>
+          <cell r="AI6">
+            <v>29</v>
+          </cell>
+          <cell r="AJ6">
+            <v>30</v>
+          </cell>
+          <cell r="AK6">
+            <v>31</v>
+          </cell>
+          <cell r="AL6">
+            <v>32</v>
+          </cell>
+          <cell r="AM6">
+            <v>33</v>
+          </cell>
+          <cell r="AN6">
+            <v>34</v>
+          </cell>
+          <cell r="AO6">
+            <v>35</v>
+          </cell>
+          <cell r="AP6">
+            <v>36</v>
+          </cell>
+          <cell r="AQ6">
+            <v>37</v>
+          </cell>
+          <cell r="AR6">
+            <v>38</v>
+          </cell>
+          <cell r="AS6">
+            <v>39</v>
+          </cell>
+          <cell r="AT6">
+            <v>40</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>6</v>
+          </cell>
+          <cell r="E7" t="str">
+            <v>Engg-drawings</v>
+          </cell>
+          <cell r="F7" t="str">
+            <v>SCH.</v>
+          </cell>
+          <cell r="G7">
+            <v>0</v>
+          </cell>
+          <cell r="H7">
+            <v>5.2000000000000006E-3</v>
+          </cell>
+          <cell r="I7">
+            <v>1.3975000000000001E-2</v>
+          </cell>
+          <cell r="J7">
+            <v>3.2175000000000002E-2</v>
+          </cell>
+          <cell r="K7">
+            <v>6.8574999999999997E-2</v>
+          </cell>
+          <cell r="L7">
+            <v>0.11082499999999998</v>
+          </cell>
+          <cell r="M7">
+            <v>0.14137499999999997</v>
+          </cell>
+          <cell r="N7">
+            <v>0.22002499999999997</v>
+          </cell>
+          <cell r="O7">
+            <v>0.30939999999999995</v>
+          </cell>
+          <cell r="P7">
+            <v>0.38772499999999993</v>
+          </cell>
+          <cell r="Q7">
+            <v>0.43679999999999997</v>
+          </cell>
+          <cell r="R7">
+            <v>0.50082499999999996</v>
+          </cell>
+          <cell r="S7">
+            <v>0.53332499999999994</v>
+          </cell>
+          <cell r="T7">
+            <v>0.55672499999999991</v>
+          </cell>
+          <cell r="U7">
+            <v>0.58694999999999986</v>
+          </cell>
+          <cell r="V7">
+            <v>0.60449999999999982</v>
+          </cell>
+          <cell r="W7">
+            <v>0.61262499999999986</v>
+          </cell>
+          <cell r="X7">
+            <v>0.61749999999999983</v>
+          </cell>
+          <cell r="Y7">
+            <v>0.61749999999999983</v>
+          </cell>
+          <cell r="Z7">
+            <v>0.61749999999999983</v>
+          </cell>
+          <cell r="AA7">
+            <v>0.61749999999999983</v>
+          </cell>
+          <cell r="AB7">
+            <v>0.61749999999999983</v>
+          </cell>
+          <cell r="AC7">
+            <v>0.61749999999999983</v>
+          </cell>
+          <cell r="AD7">
+            <v>0.61749999999999983</v>
+          </cell>
+          <cell r="AE7">
+            <v>0.61749999999999983</v>
+          </cell>
+          <cell r="AF7">
+            <v>0.61749999999999983</v>
+          </cell>
+          <cell r="AG7">
+            <v>0.61749999999999983</v>
+          </cell>
+          <cell r="AH7">
+            <v>0.61749999999999983</v>
+          </cell>
+          <cell r="AI7">
+            <v>0.61749999999999983</v>
+          </cell>
+          <cell r="AJ7">
+            <v>0.61749999999999983</v>
+          </cell>
+          <cell r="AK7">
+            <v>0.61749999999999983</v>
+          </cell>
+          <cell r="AL7">
+            <v>0.61749999999999983</v>
+          </cell>
+          <cell r="AM7">
+            <v>0.61749999999999983</v>
+          </cell>
+          <cell r="AN7">
+            <v>0.61749999999999983</v>
+          </cell>
+          <cell r="AO7">
+            <v>0.61749999999999983</v>
+          </cell>
+          <cell r="AP7">
+            <v>0.61749999999999983</v>
+          </cell>
+          <cell r="AQ7">
+            <v>0.61749999999999983</v>
+          </cell>
+          <cell r="AR7">
+            <v>0.61749999999999983</v>
+          </cell>
+          <cell r="AS7">
+            <v>0.61749999999999983</v>
+          </cell>
+          <cell r="AT7">
+            <v>0.6499999999999998</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>7</v>
+          </cell>
+          <cell r="F8" t="str">
+            <v>A / F</v>
+          </cell>
+          <cell r="G8">
+            <v>0</v>
+          </cell>
+          <cell r="H8">
+            <v>5.2000000000000006E-3</v>
+          </cell>
+          <cell r="I8">
+            <v>1.3000000000000001E-2</v>
+          </cell>
+          <cell r="J8">
+            <v>3.6400000000000002E-2</v>
+          </cell>
+          <cell r="K8">
+            <v>5.2000000000000005E-2</v>
+          </cell>
+          <cell r="L8">
+            <v>8.5800000000000015E-2</v>
+          </cell>
+          <cell r="M8">
+            <v>8.5800000000000015E-2</v>
+          </cell>
+          <cell r="N8">
+            <v>8.5800000000000015E-2</v>
+          </cell>
+          <cell r="O8">
+            <v>8.5800000000000015E-2</v>
+          </cell>
+          <cell r="P8">
+            <v>8.5800000000000015E-2</v>
+          </cell>
+          <cell r="Q8">
+            <v>8.5800000000000015E-2</v>
+          </cell>
+          <cell r="R8">
+            <v>8.5800000000000015E-2</v>
+          </cell>
+          <cell r="S8">
+            <v>8.5800000000000015E-2</v>
+          </cell>
+          <cell r="T8">
+            <v>8.5800000000000015E-2</v>
+          </cell>
+          <cell r="U8">
+            <v>8.5800000000000015E-2</v>
+          </cell>
+          <cell r="V8">
+            <v>8.5800000000000015E-2</v>
+          </cell>
+          <cell r="W8">
+            <v>8.5800000000000015E-2</v>
+          </cell>
+          <cell r="X8">
+            <v>8.5800000000000015E-2</v>
+          </cell>
+          <cell r="Y8">
+            <v>8.5800000000000015E-2</v>
+          </cell>
+          <cell r="Z8">
+            <v>8.5800000000000015E-2</v>
+          </cell>
+          <cell r="AA8">
+            <v>8.5800000000000015E-2</v>
+          </cell>
+          <cell r="AB8">
+            <v>8.5800000000000015E-2</v>
+          </cell>
+          <cell r="AC8">
+            <v>8.5800000000000015E-2</v>
+          </cell>
+          <cell r="AD8">
+            <v>8.5800000000000015E-2</v>
+          </cell>
+          <cell r="AE8">
+            <v>8.5800000000000015E-2</v>
+          </cell>
+          <cell r="AF8">
+            <v>8.5800000000000015E-2</v>
+          </cell>
+          <cell r="AG8">
+            <v>8.5800000000000015E-2</v>
+          </cell>
+          <cell r="AH8">
+            <v>8.5800000000000015E-2</v>
+          </cell>
+          <cell r="AI8">
+            <v>8.5800000000000015E-2</v>
+          </cell>
+          <cell r="AJ8">
+            <v>8.5800000000000015E-2</v>
+          </cell>
+          <cell r="AK8">
+            <v>8.5800000000000015E-2</v>
+          </cell>
+          <cell r="AL8">
+            <v>8.5800000000000015E-2</v>
+          </cell>
+          <cell r="AM8">
+            <v>8.5800000000000015E-2</v>
+          </cell>
+          <cell r="AN8">
+            <v>8.5800000000000015E-2</v>
+          </cell>
+          <cell r="AO8">
+            <v>8.5800000000000015E-2</v>
+          </cell>
+          <cell r="AP8">
+            <v>8.5800000000000015E-2</v>
+          </cell>
+          <cell r="AQ8">
+            <v>8.5800000000000015E-2</v>
+          </cell>
+          <cell r="AR8">
+            <v>8.5800000000000015E-2</v>
+          </cell>
+          <cell r="AS8">
+            <v>8.5800000000000015E-2</v>
+          </cell>
+          <cell r="AT8">
+            <v>8.5800000000000015E-2</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>8</v>
+          </cell>
+          <cell r="E9" t="str">
+            <v>PR-furnace</v>
+          </cell>
+          <cell r="F9" t="str">
+            <v>SCH.</v>
+          </cell>
+          <cell r="G9">
+            <v>4.6199999999999998E-2</v>
+          </cell>
+          <cell r="H9">
+            <v>7.8399999999999997E-2</v>
+          </cell>
+          <cell r="I9">
+            <v>0.1162</v>
+          </cell>
+          <cell r="J9">
+            <v>0.15820000000000001</v>
+          </cell>
+          <cell r="K9">
+            <v>0.1862</v>
+          </cell>
+          <cell r="L9">
+            <v>0.2177</v>
+          </cell>
+          <cell r="M9">
+            <v>0.25269999999999998</v>
+          </cell>
+          <cell r="N9">
+            <v>0.2576</v>
+          </cell>
+          <cell r="O9">
+            <v>0.27229999999999999</v>
+          </cell>
+          <cell r="P9">
+            <v>0.28559999999999997</v>
+          </cell>
+          <cell r="Q9">
+            <v>0.29889999999999994</v>
+          </cell>
+          <cell r="R9">
+            <v>0.30729999999999996</v>
+          </cell>
+          <cell r="S9">
+            <v>0.31919999999999998</v>
+          </cell>
+          <cell r="T9">
+            <v>0.31919999999999998</v>
+          </cell>
+          <cell r="U9">
+            <v>0.3332</v>
+          </cell>
+          <cell r="V9">
+            <v>0.33739999999999998</v>
+          </cell>
+          <cell r="W9">
+            <v>0.3458</v>
+          </cell>
+          <cell r="X9">
+            <v>0.3458</v>
+          </cell>
+          <cell r="Y9">
+            <v>0.3458</v>
+          </cell>
+          <cell r="Z9">
+            <v>0.34860000000000002</v>
+          </cell>
+          <cell r="AA9">
+            <v>0.34860000000000002</v>
+          </cell>
+          <cell r="AB9">
+            <v>0.35000000000000003</v>
+          </cell>
+          <cell r="AC9">
+            <v>0.35000000000000003</v>
+          </cell>
+          <cell r="AD9">
+            <v>0.35000000000000003</v>
+          </cell>
+          <cell r="AE9">
+            <v>0.35000000000000003</v>
+          </cell>
+          <cell r="AF9">
+            <v>0.35000000000000003</v>
+          </cell>
+          <cell r="AG9">
+            <v>0.35000000000000003</v>
+          </cell>
+          <cell r="AH9">
+            <v>0.35000000000000003</v>
+          </cell>
+          <cell r="AI9">
+            <v>0.35000000000000003</v>
+          </cell>
+          <cell r="AJ9">
+            <v>0.35000000000000003</v>
+          </cell>
+          <cell r="AK9">
+            <v>0.35000000000000003</v>
+          </cell>
+          <cell r="AL9">
+            <v>0.35000000000000003</v>
+          </cell>
+          <cell r="AM9">
+            <v>0.35000000000000003</v>
+          </cell>
+          <cell r="AN9">
+            <v>0.35000000000000003</v>
+          </cell>
+          <cell r="AO9">
+            <v>0.35000000000000003</v>
+          </cell>
+          <cell r="AP9">
+            <v>0.35000000000000003</v>
+          </cell>
+          <cell r="AQ9">
+            <v>0.35000000000000003</v>
+          </cell>
+          <cell r="AR9">
+            <v>0.35000000000000003</v>
+          </cell>
+          <cell r="AS9">
+            <v>0.35000000000000003</v>
+          </cell>
+          <cell r="AT9">
+            <v>0.35000000000000003</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>9</v>
+          </cell>
+          <cell r="F10" t="str">
+            <v>A / F</v>
+          </cell>
+          <cell r="G10">
+            <v>4.6199999999999998E-2</v>
+          </cell>
+          <cell r="H10">
+            <v>8.1199999999999994E-2</v>
+          </cell>
+          <cell r="I10">
+            <v>9.5199999999999993E-2</v>
+          </cell>
+          <cell r="J10">
+            <v>0.15820000000000001</v>
+          </cell>
+          <cell r="K10">
+            <v>0.16520000000000001</v>
+          </cell>
+          <cell r="L10">
+            <v>0.16590000000000002</v>
+          </cell>
+          <cell r="M10">
+            <v>0.16590000000000002</v>
+          </cell>
+          <cell r="N10">
+            <v>0.16590000000000002</v>
+          </cell>
+          <cell r="O10">
+            <v>0.16590000000000002</v>
+          </cell>
+          <cell r="P10">
+            <v>0.16590000000000002</v>
+          </cell>
+          <cell r="Q10">
+            <v>0.16590000000000002</v>
+          </cell>
+          <cell r="R10">
+            <v>0.16590000000000002</v>
+          </cell>
+          <cell r="S10">
+            <v>0.16590000000000002</v>
+          </cell>
+          <cell r="T10">
+            <v>0.16590000000000002</v>
+          </cell>
+          <cell r="U10">
+            <v>0.16590000000000002</v>
+          </cell>
+          <cell r="V10">
+            <v>0.16590000000000002</v>
+          </cell>
+          <cell r="W10">
+            <v>0.16590000000000002</v>
+          </cell>
+          <cell r="X10">
+            <v>0.16590000000000002</v>
+          </cell>
+          <cell r="Y10">
+            <v>0.16590000000000002</v>
+          </cell>
+          <cell r="Z10">
+            <v>0.16590000000000002</v>
+          </cell>
+          <cell r="AA10">
+            <v>0.16590000000000002</v>
+          </cell>
+          <cell r="AB10">
+            <v>0.16590000000000002</v>
+          </cell>
+          <cell r="AC10">
+            <v>0.16590000000000002</v>
+          </cell>
+          <cell r="AD10">
+            <v>0.16590000000000002</v>
+          </cell>
+          <cell r="AE10">
+            <v>0.16590000000000002</v>
+          </cell>
+          <cell r="AF10">
+            <v>0.16590000000000002</v>
+          </cell>
+          <cell r="AG10">
+            <v>0.16590000000000002</v>
+          </cell>
+          <cell r="AH10">
+            <v>0.16590000000000002</v>
+          </cell>
+          <cell r="AI10">
+            <v>0.16590000000000002</v>
+          </cell>
+          <cell r="AJ10">
+            <v>0.16590000000000002</v>
+          </cell>
+          <cell r="AK10">
+            <v>0.16590000000000002</v>
+          </cell>
+          <cell r="AL10">
+            <v>0.16590000000000002</v>
+          </cell>
+          <cell r="AM10">
+            <v>0.16590000000000002</v>
+          </cell>
+          <cell r="AN10">
+            <v>0.16590000000000002</v>
+          </cell>
+          <cell r="AO10">
+            <v>0.16590000000000002</v>
+          </cell>
+          <cell r="AP10">
+            <v>0.16590000000000002</v>
+          </cell>
+          <cell r="AQ10">
+            <v>0.16590000000000002</v>
+          </cell>
+          <cell r="AR10">
+            <v>0.16590000000000002</v>
+          </cell>
+          <cell r="AS10">
+            <v>0.16590000000000002</v>
+          </cell>
+          <cell r="AT10">
+            <v>0.16590000000000002</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>11</v>
+          </cell>
+          <cell r="D12">
+            <v>0.6</v>
+          </cell>
+          <cell r="E12" t="str">
+            <v>fabrication</v>
+          </cell>
+          <cell r="F12" t="str">
+            <v>SCH.</v>
+          </cell>
+          <cell r="G12">
+            <v>0</v>
+          </cell>
+          <cell r="H12">
+            <v>0</v>
+          </cell>
+          <cell r="I12">
+            <v>0</v>
+          </cell>
+          <cell r="J12">
+            <v>0</v>
+          </cell>
+          <cell r="K12">
+            <v>0</v>
+          </cell>
+          <cell r="L12">
+            <v>0</v>
+          </cell>
+          <cell r="M12">
+            <v>0</v>
+          </cell>
+          <cell r="N12">
+            <v>0</v>
+          </cell>
+          <cell r="O12">
+            <v>0</v>
+          </cell>
+          <cell r="P12">
+            <v>0</v>
+          </cell>
+          <cell r="Q12">
+            <v>7.4999999999999997E-3</v>
+          </cell>
+          <cell r="R12">
+            <v>1.4999999999999999E-2</v>
+          </cell>
+          <cell r="S12">
+            <v>2.2499999999999999E-2</v>
+          </cell>
+          <cell r="T12">
+            <v>0.03</v>
+          </cell>
+          <cell r="U12">
+            <v>3.7499999999999999E-2</v>
+          </cell>
+          <cell r="V12">
+            <v>4.4999999999999998E-2</v>
+          </cell>
+          <cell r="W12">
+            <v>5.2499999999999998E-2</v>
+          </cell>
+          <cell r="X12">
+            <v>7.6499999999999999E-2</v>
+          </cell>
+          <cell r="Y12">
+            <v>0.10050000000000001</v>
+          </cell>
+          <cell r="Z12">
+            <v>0.1245</v>
+          </cell>
+          <cell r="AA12">
+            <v>0.159</v>
+          </cell>
+          <cell r="AB12">
+            <v>0.19650000000000001</v>
+          </cell>
+          <cell r="AC12">
+            <v>0.23400000000000001</v>
+          </cell>
+          <cell r="AD12">
+            <v>0.28500000000000003</v>
+          </cell>
+          <cell r="AE12">
+            <v>0.34950000000000003</v>
+          </cell>
+          <cell r="AF12">
+            <v>0.41700000000000004</v>
+          </cell>
+          <cell r="AG12">
+            <v>0.47100000000000003</v>
+          </cell>
+          <cell r="AH12">
+            <v>0.52050000000000007</v>
+          </cell>
+          <cell r="AI12">
+            <v>0.55200000000000005</v>
+          </cell>
+          <cell r="AJ12">
+            <v>0.56700000000000006</v>
+          </cell>
+          <cell r="AK12">
+            <v>0.57600000000000007</v>
+          </cell>
+          <cell r="AL12">
+            <v>0.58500000000000008</v>
+          </cell>
+          <cell r="AM12">
+            <v>0.59700000000000009</v>
+          </cell>
+          <cell r="AN12">
+            <v>0.60000000000000009</v>
+          </cell>
+          <cell r="AO12">
+            <v>0.60000000000000009</v>
+          </cell>
+          <cell r="AP12">
+            <v>0.60000000000000009</v>
+          </cell>
+          <cell r="AQ12">
+            <v>0.60000000000000009</v>
+          </cell>
+          <cell r="AR12">
+            <v>0.60000000000000009</v>
+          </cell>
+          <cell r="AS12">
+            <v>0.60000000000000009</v>
+          </cell>
+          <cell r="AT12">
+            <v>0.60000000000000009</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>12</v>
+          </cell>
+          <cell r="F13" t="str">
+            <v>A / F</v>
+          </cell>
+          <cell r="G13">
+            <v>0</v>
+          </cell>
+          <cell r="H13">
+            <v>0</v>
+          </cell>
+          <cell r="I13">
+            <v>0</v>
+          </cell>
+          <cell r="J13">
+            <v>0</v>
+          </cell>
+          <cell r="K13">
+            <v>0</v>
+          </cell>
+          <cell r="L13">
+            <v>0</v>
+          </cell>
+          <cell r="M13">
+            <v>0</v>
+          </cell>
+          <cell r="N13">
+            <v>0</v>
+          </cell>
+          <cell r="O13">
+            <v>0</v>
+          </cell>
+          <cell r="P13">
+            <v>0</v>
+          </cell>
+          <cell r="Q13">
+            <v>0</v>
+          </cell>
+          <cell r="R13">
+            <v>0</v>
+          </cell>
+          <cell r="S13">
+            <v>0</v>
+          </cell>
+          <cell r="T13">
+            <v>0</v>
+          </cell>
+          <cell r="U13">
+            <v>0</v>
+          </cell>
+          <cell r="V13">
+            <v>0</v>
+          </cell>
+          <cell r="W13">
+            <v>0</v>
+          </cell>
+          <cell r="X13">
+            <v>0</v>
+          </cell>
+          <cell r="Y13">
+            <v>0</v>
+          </cell>
+          <cell r="Z13">
+            <v>0</v>
+          </cell>
+          <cell r="AA13">
+            <v>0</v>
+          </cell>
+          <cell r="AB13">
+            <v>0</v>
+          </cell>
+          <cell r="AC13">
+            <v>0</v>
+          </cell>
+          <cell r="AD13">
+            <v>0</v>
+          </cell>
+          <cell r="AE13">
+            <v>0</v>
+          </cell>
+          <cell r="AF13">
+            <v>0</v>
+          </cell>
+          <cell r="AG13">
+            <v>0</v>
+          </cell>
+          <cell r="AH13">
+            <v>0</v>
+          </cell>
+          <cell r="AI13">
+            <v>0</v>
+          </cell>
+          <cell r="AJ13">
+            <v>0</v>
+          </cell>
+          <cell r="AK13">
+            <v>0</v>
+          </cell>
+          <cell r="AL13">
+            <v>0</v>
+          </cell>
+          <cell r="AM13">
+            <v>0</v>
+          </cell>
+          <cell r="AN13">
+            <v>0</v>
+          </cell>
+          <cell r="AO13">
+            <v>0</v>
+          </cell>
+          <cell r="AP13">
+            <v>0</v>
+          </cell>
+          <cell r="AQ13">
+            <v>0</v>
+          </cell>
+          <cell r="AR13">
+            <v>0</v>
+          </cell>
+          <cell r="AS13">
+            <v>0</v>
+          </cell>
+          <cell r="AT13">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>13</v>
+          </cell>
+          <cell r="D14">
+            <v>0.4</v>
+          </cell>
+          <cell r="E14" t="str">
+            <v>Erection</v>
+          </cell>
+          <cell r="F14" t="str">
+            <v>SCH.</v>
+          </cell>
+          <cell r="G14">
+            <v>0</v>
+          </cell>
+          <cell r="H14">
+            <v>0</v>
+          </cell>
+          <cell r="I14">
+            <v>0</v>
+          </cell>
+          <cell r="J14">
+            <v>0</v>
+          </cell>
+          <cell r="K14">
+            <v>0</v>
+          </cell>
+          <cell r="L14">
+            <v>0</v>
+          </cell>
+          <cell r="M14">
+            <v>0</v>
+          </cell>
+          <cell r="N14">
+            <v>0</v>
+          </cell>
+          <cell r="O14">
+            <v>0</v>
+          </cell>
+          <cell r="P14">
+            <v>0</v>
+          </cell>
+          <cell r="Q14">
+            <v>0</v>
+          </cell>
+          <cell r="R14">
+            <v>0</v>
+          </cell>
+          <cell r="S14">
+            <v>0</v>
+          </cell>
+          <cell r="T14">
+            <v>0</v>
+          </cell>
+          <cell r="U14">
+            <v>0</v>
+          </cell>
+          <cell r="V14">
+            <v>0</v>
+          </cell>
+          <cell r="W14">
+            <v>0</v>
+          </cell>
+          <cell r="X14">
+            <v>0</v>
+          </cell>
+          <cell r="Y14">
+            <v>0</v>
+          </cell>
+          <cell r="Z14">
+            <v>0</v>
+          </cell>
+          <cell r="AA14">
+            <v>0</v>
+          </cell>
+          <cell r="AB14">
+            <v>0</v>
+          </cell>
+          <cell r="AC14">
+            <v>0</v>
+          </cell>
+          <cell r="AD14">
+            <v>0</v>
+          </cell>
+          <cell r="AE14">
+            <v>0</v>
+          </cell>
+          <cell r="AF14">
+            <v>0</v>
+          </cell>
+          <cell r="AG14">
+            <v>0</v>
+          </cell>
+          <cell r="AH14">
+            <v>0</v>
+          </cell>
+          <cell r="AI14">
+            <v>0</v>
+          </cell>
+          <cell r="AJ14">
+            <v>0</v>
+          </cell>
+          <cell r="AK14">
+            <v>1.2E-2</v>
+          </cell>
+          <cell r="AL14">
+            <v>2.8000000000000004E-2</v>
+          </cell>
+          <cell r="AM14">
+            <v>0.05</v>
+          </cell>
+          <cell r="AN14">
+            <v>7.0000000000000007E-2</v>
+          </cell>
+          <cell r="AO14">
+            <v>0.14400000000000002</v>
+          </cell>
+          <cell r="AP14">
+            <v>0.23000000000000004</v>
+          </cell>
+          <cell r="AQ14">
+            <v>0.31400000000000006</v>
+          </cell>
+          <cell r="AR14">
+            <v>0.37800000000000006</v>
+          </cell>
+          <cell r="AS14">
+            <v>0.40000000000000008</v>
+          </cell>
+          <cell r="AT14">
+            <v>0.40000000000000008</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>14</v>
+          </cell>
+          <cell r="F15" t="str">
+            <v>A / F</v>
+          </cell>
+          <cell r="G15">
+            <v>0</v>
+          </cell>
+          <cell r="H15">
+            <v>0</v>
+          </cell>
+          <cell r="I15">
+            <v>0</v>
+          </cell>
+          <cell r="J15">
+            <v>0</v>
+          </cell>
+          <cell r="K15">
+            <v>0</v>
+          </cell>
+          <cell r="L15">
+            <v>0</v>
+          </cell>
+          <cell r="M15">
+            <v>0</v>
+          </cell>
+          <cell r="N15">
+            <v>0</v>
+          </cell>
+          <cell r="O15">
+            <v>0</v>
+          </cell>
+          <cell r="P15">
+            <v>0</v>
+          </cell>
+          <cell r="Q15">
+            <v>0</v>
+          </cell>
+          <cell r="R15">
+            <v>0</v>
+          </cell>
+          <cell r="S15">
+            <v>0</v>
+          </cell>
+          <cell r="T15">
+            <v>0</v>
+          </cell>
+          <cell r="U15">
+            <v>0</v>
+          </cell>
+          <cell r="V15">
+            <v>0</v>
+          </cell>
+          <cell r="W15">
+            <v>0</v>
+          </cell>
+          <cell r="X15">
+            <v>0</v>
+          </cell>
+          <cell r="Y15">
+            <v>0</v>
+          </cell>
+          <cell r="Z15">
+            <v>0</v>
+          </cell>
+          <cell r="AA15">
+            <v>0</v>
+          </cell>
+          <cell r="AB15">
+            <v>0</v>
+          </cell>
+          <cell r="AC15">
+            <v>0</v>
+          </cell>
+          <cell r="AD15">
+            <v>0</v>
+          </cell>
+          <cell r="AE15">
+            <v>0</v>
+          </cell>
+          <cell r="AF15">
+            <v>0</v>
+          </cell>
+          <cell r="AG15">
+            <v>0</v>
+          </cell>
+          <cell r="AH15">
+            <v>0</v>
+          </cell>
+          <cell r="AI15">
+            <v>0</v>
+          </cell>
+          <cell r="AJ15">
+            <v>0</v>
+          </cell>
+          <cell r="AK15">
+            <v>0</v>
+          </cell>
+          <cell r="AL15">
+            <v>0</v>
+          </cell>
+          <cell r="AM15">
+            <v>0</v>
+          </cell>
+          <cell r="AN15">
+            <v>0</v>
+          </cell>
+          <cell r="AO15">
+            <v>0</v>
+          </cell>
+          <cell r="AP15">
+            <v>0</v>
+          </cell>
+          <cell r="AQ15">
+            <v>0</v>
+          </cell>
+          <cell r="AR15">
+            <v>0</v>
+          </cell>
+          <cell r="AS15">
+            <v>0</v>
+          </cell>
+          <cell r="AT15">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>16</v>
+          </cell>
+          <cell r="E17" t="str">
+            <v>fabrication</v>
+          </cell>
+          <cell r="F17" t="str">
+            <v>SCH.</v>
+          </cell>
+          <cell r="G17">
+            <v>0</v>
+          </cell>
+          <cell r="H17">
+            <v>0</v>
+          </cell>
+          <cell r="I17">
+            <v>0</v>
+          </cell>
+          <cell r="J17">
+            <v>0</v>
+          </cell>
+          <cell r="K17">
+            <v>0</v>
+          </cell>
+          <cell r="L17">
+            <v>0</v>
+          </cell>
+          <cell r="M17">
+            <v>0</v>
+          </cell>
+          <cell r="N17">
+            <v>0</v>
+          </cell>
+          <cell r="O17">
+            <v>0</v>
+          </cell>
+          <cell r="P17">
+            <v>0</v>
+          </cell>
+          <cell r="Q17">
+            <v>1.2500000000000001E-2</v>
+          </cell>
+          <cell r="R17">
+            <v>2.5000000000000001E-2</v>
+          </cell>
+          <cell r="S17">
+            <v>3.7499999999999999E-2</v>
+          </cell>
+          <cell r="T17">
+            <v>0.05</v>
+          </cell>
+          <cell r="U17">
+            <v>6.25E-2</v>
+          </cell>
+          <cell r="V17">
+            <v>7.4999999999999997E-2</v>
+          </cell>
+          <cell r="W17">
+            <v>8.7499999999999994E-2</v>
+          </cell>
+          <cell r="X17">
+            <v>0.1275</v>
+          </cell>
+          <cell r="Y17">
+            <v>0.16750000000000001</v>
+          </cell>
+          <cell r="Z17">
+            <v>0.20750000000000002</v>
+          </cell>
+          <cell r="AA17">
+            <v>0.26500000000000001</v>
+          </cell>
+          <cell r="AB17">
+            <v>0.32750000000000001</v>
+          </cell>
+          <cell r="AC17">
+            <v>0.39</v>
+          </cell>
+          <cell r="AD17">
+            <v>0.47500000000000009</v>
+          </cell>
+          <cell r="AE17">
+            <v>0.58250000000000013</v>
+          </cell>
+          <cell r="AF17">
+            <v>0.69500000000000006</v>
+          </cell>
+          <cell r="AG17">
+            <v>0.78500000000000003</v>
+          </cell>
+          <cell r="AH17">
+            <v>0.86750000000000016</v>
+          </cell>
+          <cell r="AI17">
+            <v>0.92000000000000015</v>
+          </cell>
+          <cell r="AJ17">
+            <v>0.94500000000000017</v>
+          </cell>
+          <cell r="AK17">
+            <v>0.96000000000000019</v>
+          </cell>
+          <cell r="AL17">
+            <v>0.9750000000000002</v>
+          </cell>
+          <cell r="AM17">
+            <v>0.99500000000000022</v>
+          </cell>
+          <cell r="AN17">
+            <v>1.0000000000000002</v>
+          </cell>
+          <cell r="AO17">
+            <v>1.0000000000000002</v>
+          </cell>
+          <cell r="AP17">
+            <v>1.0000000000000002</v>
+          </cell>
+          <cell r="AQ17">
+            <v>1.0000000000000002</v>
+          </cell>
+          <cell r="AR17">
+            <v>1.0000000000000002</v>
+          </cell>
+          <cell r="AS17">
+            <v>1.0000000000000002</v>
+          </cell>
+          <cell r="AT17">
+            <v>1.0000000000000002</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>17</v>
+          </cell>
+          <cell r="F18" t="str">
+            <v>A / F</v>
+          </cell>
+          <cell r="G18">
+            <v>0</v>
+          </cell>
+          <cell r="H18">
+            <v>0</v>
+          </cell>
+          <cell r="I18">
+            <v>0</v>
+          </cell>
+          <cell r="J18">
+            <v>0</v>
+          </cell>
+          <cell r="K18">
+            <v>0</v>
+          </cell>
+          <cell r="L18">
+            <v>0</v>
+          </cell>
+          <cell r="M18">
+            <v>0</v>
+          </cell>
+          <cell r="N18">
+            <v>0</v>
+          </cell>
+          <cell r="O18">
+            <v>0</v>
+          </cell>
+          <cell r="P18">
+            <v>0</v>
+          </cell>
+          <cell r="Q18">
+            <v>0</v>
+          </cell>
+          <cell r="R18">
+            <v>0</v>
+          </cell>
+          <cell r="S18">
+            <v>0</v>
+          </cell>
+          <cell r="T18">
+            <v>0</v>
+          </cell>
+          <cell r="U18">
+            <v>0</v>
+          </cell>
+          <cell r="V18">
+            <v>0</v>
+          </cell>
+          <cell r="W18">
+            <v>0</v>
+          </cell>
+          <cell r="X18">
+            <v>0</v>
+          </cell>
+          <cell r="Y18">
+            <v>0</v>
+          </cell>
+          <cell r="Z18">
+            <v>0</v>
+          </cell>
+          <cell r="AA18">
+            <v>0</v>
+          </cell>
+          <cell r="AB18">
+            <v>0</v>
+          </cell>
+          <cell r="AC18">
+            <v>0</v>
+          </cell>
+          <cell r="AD18">
+            <v>0</v>
+          </cell>
+          <cell r="AE18">
+            <v>0</v>
+          </cell>
+          <cell r="AF18">
+            <v>0</v>
+          </cell>
+          <cell r="AG18">
+            <v>0</v>
+          </cell>
+          <cell r="AH18">
+            <v>0</v>
+          </cell>
+          <cell r="AI18">
+            <v>0</v>
+          </cell>
+          <cell r="AJ18">
+            <v>0</v>
+          </cell>
+          <cell r="AK18">
+            <v>0</v>
+          </cell>
+          <cell r="AL18">
+            <v>0</v>
+          </cell>
+          <cell r="AM18">
+            <v>0</v>
+          </cell>
+          <cell r="AN18">
+            <v>0</v>
+          </cell>
+          <cell r="AO18">
+            <v>0</v>
+          </cell>
+          <cell r="AP18">
+            <v>0</v>
+          </cell>
+          <cell r="AQ18">
+            <v>0</v>
+          </cell>
+          <cell r="AR18">
+            <v>0</v>
+          </cell>
+          <cell r="AS18">
+            <v>0</v>
+          </cell>
+          <cell r="AT18">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>18</v>
+          </cell>
+          <cell r="E19" t="str">
+            <v>Erection</v>
+          </cell>
+          <cell r="F19" t="str">
+            <v>SCH.</v>
+          </cell>
+          <cell r="G19">
+            <v>0</v>
+          </cell>
+          <cell r="H19">
+            <v>0</v>
+          </cell>
+          <cell r="I19">
+            <v>0</v>
+          </cell>
+          <cell r="J19">
+            <v>0</v>
+          </cell>
+          <cell r="K19">
+            <v>0</v>
+          </cell>
+          <cell r="L19">
+            <v>0</v>
+          </cell>
+          <cell r="M19">
+            <v>0</v>
+          </cell>
+          <cell r="N19">
+            <v>0</v>
+          </cell>
+          <cell r="O19">
+            <v>0</v>
+          </cell>
+          <cell r="P19">
+            <v>0</v>
+          </cell>
+          <cell r="Q19">
+            <v>0</v>
+          </cell>
+          <cell r="R19">
+            <v>0</v>
+          </cell>
+          <cell r="S19">
+            <v>0</v>
+          </cell>
+          <cell r="T19">
+            <v>0</v>
+          </cell>
+          <cell r="U19">
+            <v>0</v>
+          </cell>
+          <cell r="V19">
+            <v>0</v>
+          </cell>
+          <cell r="W19">
+            <v>0</v>
+          </cell>
+          <cell r="X19">
+            <v>0</v>
+          </cell>
+          <cell r="Y19">
+            <v>0</v>
+          </cell>
+          <cell r="Z19">
+            <v>0</v>
+          </cell>
+          <cell r="AA19">
+            <v>0</v>
+          </cell>
+          <cell r="AB19">
+            <v>0</v>
+          </cell>
+          <cell r="AC19">
+            <v>0</v>
+          </cell>
+          <cell r="AD19">
+            <v>0</v>
+          </cell>
+          <cell r="AE19">
+            <v>0</v>
+          </cell>
+          <cell r="AF19">
+            <v>0</v>
+          </cell>
+          <cell r="AG19">
+            <v>0</v>
+          </cell>
+          <cell r="AH19">
+            <v>0</v>
+          </cell>
+          <cell r="AI19">
+            <v>0</v>
+          </cell>
+          <cell r="AJ19">
+            <v>0</v>
+          </cell>
+          <cell r="AK19">
+            <v>0.03</v>
+          </cell>
+          <cell r="AL19">
+            <v>7.0000000000000007E-2</v>
+          </cell>
+          <cell r="AM19">
+            <v>0.125</v>
+          </cell>
+          <cell r="AN19">
+            <v>0.17500000000000002</v>
+          </cell>
+          <cell r="AO19">
+            <v>0.36000000000000004</v>
+          </cell>
+          <cell r="AP19">
+            <v>0.57500000000000007</v>
+          </cell>
+          <cell r="AQ19">
+            <v>0.78500000000000014</v>
+          </cell>
+          <cell r="AR19">
+            <v>0.94500000000000006</v>
+          </cell>
+          <cell r="AS19">
+            <v>1.0000000000000002</v>
+          </cell>
+          <cell r="AT19">
+            <v>1.0000000000000002</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>19</v>
+          </cell>
+          <cell r="F20" t="str">
+            <v>A / F</v>
+          </cell>
+          <cell r="G20">
+            <v>0</v>
+          </cell>
+          <cell r="H20">
+            <v>0</v>
+          </cell>
+          <cell r="I20">
+            <v>0</v>
+          </cell>
+          <cell r="J20">
+            <v>0</v>
+          </cell>
+          <cell r="K20">
+            <v>0</v>
+          </cell>
+          <cell r="L20">
+            <v>0</v>
+          </cell>
+          <cell r="M20">
+            <v>0</v>
+          </cell>
+          <cell r="N20">
+            <v>0</v>
+          </cell>
+          <cell r="O20">
+            <v>0</v>
+          </cell>
+          <cell r="P20">
+            <v>0</v>
+          </cell>
+          <cell r="Q20">
+            <v>0</v>
+          </cell>
+          <cell r="R20">
+            <v>0</v>
+          </cell>
+          <cell r="S20">
+            <v>0</v>
+          </cell>
+          <cell r="T20">
+            <v>0</v>
+          </cell>
+          <cell r="U20">
+            <v>0</v>
+          </cell>
+          <cell r="V20">
+            <v>0</v>
+          </cell>
+          <cell r="W20">
+            <v>0</v>
+          </cell>
+          <cell r="X20">
+            <v>0</v>
+          </cell>
+          <cell r="Y20">
+            <v>0</v>
+          </cell>
+          <cell r="Z20">
+            <v>0</v>
+          </cell>
+          <cell r="AA20">
+            <v>0</v>
+          </cell>
+          <cell r="AB20">
+            <v>0</v>
+          </cell>
+          <cell r="AC20">
+            <v>0</v>
+          </cell>
+          <cell r="AD20">
+            <v>0</v>
+          </cell>
+          <cell r="AE20">
+            <v>0</v>
+          </cell>
+          <cell r="AF20">
+            <v>0</v>
+          </cell>
+          <cell r="AG20">
+            <v>0</v>
+          </cell>
+          <cell r="AH20">
+            <v>0</v>
+          </cell>
+          <cell r="AI20">
+            <v>0</v>
+          </cell>
+          <cell r="AJ20">
+            <v>0</v>
+          </cell>
+          <cell r="AK20">
+            <v>0</v>
+          </cell>
+          <cell r="AL20">
+            <v>0</v>
+          </cell>
+          <cell r="AM20">
+            <v>0</v>
+          </cell>
+          <cell r="AN20">
+            <v>0</v>
+          </cell>
+          <cell r="AO20">
+            <v>0</v>
+          </cell>
+          <cell r="AP20">
+            <v>0</v>
+          </cell>
+          <cell r="AQ20">
+            <v>0</v>
+          </cell>
+          <cell r="AR20">
+            <v>0</v>
+          </cell>
+          <cell r="AS20">
+            <v>0</v>
+          </cell>
+          <cell r="AT20">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>21</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>22</v>
+          </cell>
+          <cell r="D23">
+            <v>0.1</v>
+          </cell>
+          <cell r="E23" t="str">
+            <v>Detailed Engg</v>
+          </cell>
+          <cell r="F23" t="str">
+            <v>SCH.</v>
+          </cell>
+          <cell r="G23">
+            <v>4.6199999999999998E-2</v>
+          </cell>
+          <cell r="H23">
+            <v>8.3599999999999994E-2</v>
+          </cell>
+          <cell r="I23">
+            <v>0.13017499999999999</v>
+          </cell>
+          <cell r="J23">
+            <v>0.19037500000000002</v>
+          </cell>
+          <cell r="K23">
+            <v>0.25477499999999997</v>
+          </cell>
+          <cell r="L23">
+            <v>0.32852499999999996</v>
+          </cell>
+          <cell r="M23">
+            <v>0.39407499999999995</v>
+          </cell>
+          <cell r="N23">
+            <v>0.47762499999999997</v>
+          </cell>
+          <cell r="O23">
+            <v>0.58169999999999988</v>
+          </cell>
+          <cell r="P23">
+            <v>0.67332499999999995</v>
+          </cell>
+          <cell r="Q23">
+            <v>0.73569999999999991</v>
+          </cell>
+          <cell r="R23">
+            <v>0.80812499999999998</v>
+          </cell>
+          <cell r="S23">
+            <v>0.85252499999999998</v>
+          </cell>
+          <cell r="T23">
+            <v>0.87592499999999984</v>
+          </cell>
+          <cell r="U23">
+            <v>0.9201499999999998</v>
+          </cell>
+          <cell r="V23">
+            <v>0.94189999999999974</v>
+          </cell>
+          <cell r="W23">
+            <v>0.95842499999999986</v>
+          </cell>
+          <cell r="X23">
+            <v>0.96329999999999982</v>
+          </cell>
+          <cell r="Y23">
+            <v>0.96329999999999982</v>
+          </cell>
+          <cell r="Z23">
+            <v>0.96609999999999985</v>
+          </cell>
+          <cell r="AA23">
+            <v>0.96609999999999985</v>
+          </cell>
+          <cell r="AB23">
+            <v>0.9674999999999998</v>
+          </cell>
+          <cell r="AC23">
+            <v>0.9674999999999998</v>
+          </cell>
+          <cell r="AD23">
+            <v>0.9674999999999998</v>
+          </cell>
+          <cell r="AE23">
+            <v>0.9674999999999998</v>
+          </cell>
+          <cell r="AF23">
+            <v>0.9674999999999998</v>
+          </cell>
+          <cell r="AG23">
+            <v>0.9674999999999998</v>
+          </cell>
+          <cell r="AH23">
+            <v>0.9674999999999998</v>
+          </cell>
+          <cell r="AI23">
+            <v>0.9674999999999998</v>
+          </cell>
+          <cell r="AJ23">
+            <v>0.9674999999999998</v>
+          </cell>
+          <cell r="AK23">
+            <v>0.9674999999999998</v>
+          </cell>
+          <cell r="AL23">
+            <v>0.9674999999999998</v>
+          </cell>
+          <cell r="AM23">
+            <v>0.9674999999999998</v>
+          </cell>
+          <cell r="AN23">
+            <v>0.9674999999999998</v>
+          </cell>
+          <cell r="AO23">
+            <v>0.9674999999999998</v>
+          </cell>
+          <cell r="AP23">
+            <v>0.9674999999999998</v>
+          </cell>
+          <cell r="AQ23">
+            <v>0.9674999999999998</v>
+          </cell>
+          <cell r="AR23">
+            <v>0.9674999999999998</v>
+          </cell>
+          <cell r="AS23">
+            <v>0.9674999999999998</v>
+          </cell>
+          <cell r="AT23">
+            <v>0.99999999999999978</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>23</v>
+          </cell>
+          <cell r="C24">
+            <v>0.1</v>
+          </cell>
+          <cell r="F24" t="str">
+            <v>A / F</v>
+          </cell>
+          <cell r="G24">
+            <v>4.6199999999999998E-2</v>
+          </cell>
+          <cell r="H24">
+            <v>8.6399999999999991E-2</v>
+          </cell>
+          <cell r="I24">
+            <v>0.10819999999999999</v>
+          </cell>
+          <cell r="J24">
+            <v>0.1946</v>
+          </cell>
+          <cell r="K24">
+            <v>0.2172</v>
+          </cell>
+          <cell r="L24">
+            <v>0.25170000000000003</v>
+          </cell>
+          <cell r="M24">
+            <v>0.25170000000000003</v>
+          </cell>
+          <cell r="N24">
+            <v>0.25170000000000003</v>
+          </cell>
+          <cell r="O24">
+            <v>0.25170000000000003</v>
+          </cell>
+          <cell r="P24">
+            <v>0.25170000000000003</v>
+          </cell>
+          <cell r="Q24">
+            <v>0.25170000000000003</v>
+          </cell>
+          <cell r="R24">
+            <v>0.25170000000000003</v>
+          </cell>
+          <cell r="S24">
+            <v>0.25170000000000003</v>
+          </cell>
+          <cell r="T24">
+            <v>0.25170000000000003</v>
+          </cell>
+          <cell r="U24">
+            <v>0.25170000000000003</v>
+          </cell>
+          <cell r="V24">
+            <v>0.25170000000000003</v>
+          </cell>
+          <cell r="W24">
+            <v>0.25170000000000003</v>
+          </cell>
+          <cell r="X24">
+            <v>0.25170000000000003</v>
+          </cell>
+          <cell r="Y24">
+            <v>0.25170000000000003</v>
+          </cell>
+          <cell r="Z24">
+            <v>0.25170000000000003</v>
+          </cell>
+          <cell r="AA24">
+            <v>0.25170000000000003</v>
+          </cell>
+          <cell r="AB24">
+            <v>0.25170000000000003</v>
+          </cell>
+          <cell r="AC24">
+            <v>0.25170000000000003</v>
+          </cell>
+          <cell r="AD24">
+            <v>0.25170000000000003</v>
+          </cell>
+          <cell r="AE24">
+            <v>0.25170000000000003</v>
+          </cell>
+          <cell r="AF24">
+            <v>0.25170000000000003</v>
+          </cell>
+          <cell r="AG24">
+            <v>0.25170000000000003</v>
+          </cell>
+          <cell r="AH24">
+            <v>0.25170000000000003</v>
+          </cell>
+          <cell r="AI24">
+            <v>0.25170000000000003</v>
+          </cell>
+          <cell r="AJ24">
+            <v>0.25170000000000003</v>
+          </cell>
+          <cell r="AK24">
+            <v>0.25170000000000003</v>
+          </cell>
+          <cell r="AL24">
+            <v>0.25170000000000003</v>
+          </cell>
+          <cell r="AM24">
+            <v>0.25170000000000003</v>
+          </cell>
+          <cell r="AN24">
+            <v>0.25170000000000003</v>
+          </cell>
+          <cell r="AO24">
+            <v>0.25170000000000003</v>
+          </cell>
+          <cell r="AP24">
+            <v>0.25170000000000003</v>
+          </cell>
+          <cell r="AQ24">
+            <v>0.25170000000000003</v>
+          </cell>
+          <cell r="AR24">
+            <v>0.25170000000000003</v>
+          </cell>
+          <cell r="AS24">
+            <v>0.25170000000000003</v>
+          </cell>
+          <cell r="AT24">
+            <v>0.25170000000000003</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>24</v>
+          </cell>
+          <cell r="D25">
+            <v>0.6</v>
+          </cell>
+          <cell r="E25" t="str">
+            <v>Procurement</v>
+          </cell>
+          <cell r="F25" t="str">
+            <v>SCH.</v>
+          </cell>
+          <cell r="G25">
+            <v>2.7300000000000007E-3</v>
+          </cell>
+          <cell r="H25">
+            <v>4.340000000000001E-3</v>
+          </cell>
+          <cell r="I25">
+            <v>9.5900000000000013E-3</v>
+          </cell>
+          <cell r="J25">
+            <v>1.8900000000000004E-2</v>
+          </cell>
+          <cell r="K25">
+            <v>3.4955000000000007E-2</v>
+          </cell>
+          <cell r="L25">
+            <v>5.2175000000000013E-2</v>
+          </cell>
+          <cell r="M25">
+            <v>5.420500000000001E-2</v>
+          </cell>
+          <cell r="N25">
+            <v>6.0565000000000008E-2</v>
+          </cell>
+          <cell r="O25">
+            <v>6.7775000000000002E-2</v>
+          </cell>
+          <cell r="P25">
+            <v>8.2485000000000003E-2</v>
+          </cell>
+          <cell r="Q25">
+            <v>0.14327000000000001</v>
+          </cell>
+          <cell r="R25">
+            <v>0.16541500000000001</v>
+          </cell>
+          <cell r="S25">
+            <v>0.17159000000000002</v>
+          </cell>
+          <cell r="T25">
+            <v>0.19670000000000001</v>
+          </cell>
+          <cell r="U25">
+            <v>0.19877500000000001</v>
+          </cell>
+          <cell r="V25">
+            <v>0.20993500000000001</v>
+          </cell>
+          <cell r="W25">
+            <v>0.21707500000000002</v>
+          </cell>
+          <cell r="X25">
+            <v>0.23567500000000002</v>
+          </cell>
+          <cell r="Y25">
+            <v>0.29566000000000003</v>
+          </cell>
+          <cell r="Z25">
+            <v>0.34290500000000002</v>
+          </cell>
+          <cell r="AA25">
+            <v>0.39545000000000002</v>
+          </cell>
+          <cell r="AB25">
+            <v>0.58475500000000002</v>
+          </cell>
+          <cell r="AC25">
+            <v>0.70612000000000008</v>
+          </cell>
+          <cell r="AD25">
+            <v>0.75634000000000012</v>
+          </cell>
+          <cell r="AE25">
+            <v>0.77354500000000015</v>
+          </cell>
+          <cell r="AF25">
+            <v>0.83608750000000009</v>
+          </cell>
+          <cell r="AG25">
+            <v>0.89165500000000009</v>
+          </cell>
+          <cell r="AH25">
+            <v>0.92653000000000008</v>
+          </cell>
+          <cell r="AI25">
+            <v>0.9628000000000001</v>
+          </cell>
+          <cell r="AJ25">
+            <v>0.98419000000000012</v>
+          </cell>
+          <cell r="AK25">
+            <v>0.99721000000000015</v>
+          </cell>
+          <cell r="AL25">
+            <v>1.0000000000000002</v>
+          </cell>
+          <cell r="AM25">
+            <v>1.0000000000000002</v>
+          </cell>
+          <cell r="AN25">
+            <v>1.0000000000000002</v>
+          </cell>
+          <cell r="AO25">
+            <v>1.0000000000000002</v>
+          </cell>
+          <cell r="AP25">
+            <v>1.0000000000000002</v>
+          </cell>
+          <cell r="AQ25">
+            <v>1.0000000000000002</v>
+          </cell>
+          <cell r="AR25">
+            <v>1.0000000000000002</v>
+          </cell>
+          <cell r="AS25">
+            <v>1.0000000000000002</v>
+          </cell>
+          <cell r="AT25">
+            <v>1.0000000000000002</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>25</v>
+          </cell>
+          <cell r="C26">
+            <v>0.6</v>
+          </cell>
+          <cell r="F26" t="str">
+            <v>A / F</v>
+          </cell>
+          <cell r="G26">
+            <v>2.7300000000000007E-3</v>
+          </cell>
+          <cell r="H26">
+            <v>4.7600000000000012E-3</v>
+          </cell>
+          <cell r="I26">
+            <v>1.2565000000000003E-2</v>
+          </cell>
+          <cell r="J26">
+            <v>2.1035000000000005E-2</v>
+          </cell>
+          <cell r="K26">
+            <v>2.1490000000000006E-2</v>
+          </cell>
+          <cell r="L26">
+            <v>4.0810000000000013E-2</v>
+          </cell>
+          <cell r="M26">
+            <v>4.0810000000000013E-2</v>
+          </cell>
+          <cell r="N26">
+            <v>4.0810000000000013E-2</v>
+          </cell>
+          <cell r="O26">
+            <v>4.0810000000000013E-2</v>
+          </cell>
+          <cell r="P26">
+            <v>4.0810000000000013E-2</v>
+          </cell>
+          <cell r="Q26">
+            <v>4.0810000000000013E-2</v>
+          </cell>
+          <cell r="R26">
+            <v>4.0810000000000013E-2</v>
+          </cell>
+          <cell r="S26">
+            <v>4.0810000000000013E-2</v>
+          </cell>
+          <cell r="T26">
+            <v>4.0810000000000013E-2</v>
+          </cell>
+          <cell r="U26">
+            <v>4.0810000000000013E-2</v>
+          </cell>
+          <cell r="V26">
+            <v>4.0810000000000013E-2</v>
+          </cell>
+          <cell r="W26">
+            <v>4.0810000000000013E-2</v>
+          </cell>
+          <cell r="X26">
+            <v>4.0810000000000013E-2</v>
+          </cell>
+          <cell r="Y26">
+            <v>4.0810000000000013E-2</v>
+          </cell>
+          <cell r="Z26">
+            <v>4.0810000000000013E-2</v>
+          </cell>
+          <cell r="AA26">
+            <v>4.0810000000000013E-2</v>
+          </cell>
+          <cell r="AB26">
+            <v>4.0810000000000013E-2</v>
+          </cell>
+          <cell r="AC26">
+            <v>4.0810000000000013E-2</v>
+          </cell>
+          <cell r="AD26">
+            <v>4.0810000000000013E-2</v>
+          </cell>
+          <cell r="AE26">
+            <v>4.0810000000000013E-2</v>
+          </cell>
+          <cell r="AF26">
+            <v>4.0810000000000013E-2</v>
+          </cell>
+          <cell r="AG26">
+            <v>4.0810000000000013E-2</v>
+          </cell>
+          <cell r="AH26">
+            <v>4.0810000000000013E-2</v>
+          </cell>
+          <cell r="AI26">
+            <v>4.0810000000000013E-2</v>
+          </cell>
+          <cell r="AJ26">
+            <v>4.0810000000000013E-2</v>
+          </cell>
+          <cell r="AK26">
+            <v>4.0810000000000013E-2</v>
+          </cell>
+          <cell r="AL26">
+            <v>4.0810000000000013E-2</v>
+          </cell>
+          <cell r="AM26">
+            <v>4.0810000000000013E-2</v>
+          </cell>
+          <cell r="AN26">
+            <v>4.0810000000000013E-2</v>
+          </cell>
+          <cell r="AO26">
+            <v>4.0810000000000013E-2</v>
+          </cell>
+          <cell r="AP26">
+            <v>4.0810000000000013E-2</v>
+          </cell>
+          <cell r="AQ26">
+            <v>4.0810000000000013E-2</v>
+          </cell>
+          <cell r="AR26">
+            <v>4.0810000000000013E-2</v>
+          </cell>
+          <cell r="AS26">
+            <v>4.0810000000000013E-2</v>
+          </cell>
+          <cell r="AT26">
+            <v>4.0810000000000013E-2</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>26</v>
+          </cell>
+          <cell r="D27">
+            <v>0.3</v>
+          </cell>
+          <cell r="E27" t="str">
+            <v>Construction</v>
+          </cell>
+          <cell r="F27" t="str">
+            <v>SCH.</v>
+          </cell>
+          <cell r="G27">
+            <v>0</v>
+          </cell>
+          <cell r="H27">
+            <v>0</v>
+          </cell>
+          <cell r="I27">
+            <v>0</v>
+          </cell>
+          <cell r="J27">
+            <v>0</v>
+          </cell>
+          <cell r="K27">
+            <v>0</v>
+          </cell>
+          <cell r="L27">
+            <v>0</v>
+          </cell>
+          <cell r="M27">
+            <v>0</v>
+          </cell>
+          <cell r="N27">
+            <v>0</v>
+          </cell>
+          <cell r="O27">
+            <v>0</v>
+          </cell>
+          <cell r="P27">
+            <v>0</v>
+          </cell>
+          <cell r="Q27">
+            <v>7.4999999999999997E-3</v>
+          </cell>
+          <cell r="R27">
+            <v>1.4999999999999999E-2</v>
+          </cell>
+          <cell r="S27">
+            <v>2.2499999999999999E-2</v>
+          </cell>
+          <cell r="T27">
+            <v>0.03</v>
+          </cell>
+          <cell r="U27">
+            <v>3.7499999999999999E-2</v>
+          </cell>
+          <cell r="V27">
+            <v>4.4999999999999998E-2</v>
+          </cell>
+          <cell r="W27">
+            <v>5.2499999999999998E-2</v>
+          </cell>
+          <cell r="X27">
+            <v>7.6499999999999999E-2</v>
+          </cell>
+          <cell r="Y27">
+            <v>0.10050000000000001</v>
+          </cell>
+          <cell r="Z27">
+            <v>0.1245</v>
+          </cell>
+          <cell r="AA27">
+            <v>0.159</v>
+          </cell>
+          <cell r="AB27">
+            <v>0.19650000000000001</v>
+          </cell>
+          <cell r="AC27">
+            <v>0.23400000000000001</v>
+          </cell>
+          <cell r="AD27">
+            <v>0.28500000000000003</v>
+          </cell>
+          <cell r="AE27">
+            <v>0.34950000000000003</v>
+          </cell>
+          <cell r="AF27">
+            <v>0.41700000000000004</v>
+          </cell>
+          <cell r="AG27">
+            <v>0.47100000000000003</v>
+          </cell>
+          <cell r="AH27">
+            <v>0.52050000000000007</v>
+          </cell>
+          <cell r="AI27">
+            <v>0.55200000000000005</v>
+          </cell>
+          <cell r="AJ27">
+            <v>0.56700000000000006</v>
+          </cell>
+          <cell r="AK27">
+            <v>0.58800000000000008</v>
+          </cell>
+          <cell r="AL27">
+            <v>0.6130000000000001</v>
+          </cell>
+          <cell r="AM27">
+            <v>0.64700000000000013</v>
+          </cell>
+          <cell r="AN27">
+            <v>0.67000000000000015</v>
+          </cell>
+          <cell r="AO27">
+            <v>0.74400000000000011</v>
+          </cell>
+          <cell r="AP27">
+            <v>0.83000000000000007</v>
+          </cell>
+          <cell r="AQ27">
+            <v>0.91400000000000015</v>
+          </cell>
+          <cell r="AR27">
+            <v>0.9780000000000002</v>
+          </cell>
+          <cell r="AS27">
+            <v>1.0000000000000002</v>
+          </cell>
+          <cell r="AT27">
+            <v>1.0000000000000002</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>27</v>
+          </cell>
+          <cell r="C28">
+            <v>0.3</v>
+          </cell>
+          <cell r="F28" t="str">
+            <v>A / F</v>
+          </cell>
+          <cell r="G28">
+            <v>0</v>
+          </cell>
+          <cell r="H28">
+            <v>0</v>
+          </cell>
+          <cell r="I28">
+            <v>0</v>
+          </cell>
+          <cell r="J28">
+            <v>0</v>
+          </cell>
+          <cell r="K28">
+            <v>0</v>
+          </cell>
+          <cell r="L28">
+            <v>0</v>
+          </cell>
+          <cell r="M28">
+            <v>0</v>
+          </cell>
+          <cell r="N28">
+            <v>0</v>
+          </cell>
+          <cell r="O28">
+            <v>0</v>
+          </cell>
+          <cell r="P28">
+            <v>0</v>
+          </cell>
+          <cell r="Q28">
+            <v>0</v>
+          </cell>
+          <cell r="R28">
+            <v>0</v>
+          </cell>
+          <cell r="S28">
+            <v>0</v>
+          </cell>
+          <cell r="T28">
+            <v>0</v>
+          </cell>
+          <cell r="U28">
+            <v>0</v>
+          </cell>
+          <cell r="V28">
+            <v>0</v>
+          </cell>
+          <cell r="W28">
+            <v>0</v>
+          </cell>
+          <cell r="X28">
+            <v>0</v>
+          </cell>
+          <cell r="Y28">
+            <v>0</v>
+          </cell>
+          <cell r="Z28">
+            <v>0</v>
+          </cell>
+          <cell r="AA28">
+            <v>0</v>
+          </cell>
+          <cell r="AB28">
+            <v>0</v>
+          </cell>
+          <cell r="AC28">
+            <v>0</v>
+          </cell>
+          <cell r="AD28">
+            <v>0</v>
+          </cell>
+          <cell r="AE28">
+            <v>0</v>
+          </cell>
+          <cell r="AF28">
+            <v>0</v>
+          </cell>
+          <cell r="AG28">
+            <v>0</v>
+          </cell>
+          <cell r="AH28">
+            <v>0</v>
+          </cell>
+          <cell r="AI28">
+            <v>0</v>
+          </cell>
+          <cell r="AJ28">
+            <v>0</v>
+          </cell>
+          <cell r="AK28">
+            <v>0</v>
+          </cell>
+          <cell r="AL28">
+            <v>0</v>
+          </cell>
+          <cell r="AM28">
+            <v>0</v>
+          </cell>
+          <cell r="AN28">
+            <v>0</v>
+          </cell>
+          <cell r="AO28">
+            <v>0</v>
+          </cell>
+          <cell r="AP28">
+            <v>0</v>
+          </cell>
+          <cell r="AQ28">
+            <v>0</v>
+          </cell>
+          <cell r="AR28">
+            <v>0</v>
+          </cell>
+          <cell r="AS28">
+            <v>0</v>
+          </cell>
+          <cell r="AT28">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>28</v>
+          </cell>
+          <cell r="E29" t="str">
+            <v>overall</v>
+          </cell>
+          <cell r="F29" t="str">
+            <v>SCH.</v>
+          </cell>
+          <cell r="G29">
+            <v>6.2580000000000005E-3</v>
+          </cell>
+          <cell r="H29">
+            <v>1.0964E-2</v>
+          </cell>
+          <cell r="I29">
+            <v>1.87715E-2</v>
+          </cell>
+          <cell r="J29">
+            <v>3.0377500000000002E-2</v>
+          </cell>
+          <cell r="K29">
+            <v>4.6450500000000006E-2</v>
+          </cell>
+          <cell r="L29">
+            <v>6.4157500000000006E-2</v>
+          </cell>
+          <cell r="M29">
+            <v>7.1930500000000008E-2</v>
+          </cell>
+          <cell r="N29">
+            <v>8.4101499999999996E-2</v>
+          </cell>
+          <cell r="O29">
+            <v>9.8834999999999992E-2</v>
+          </cell>
+          <cell r="P29">
+            <v>0.1168235</v>
+          </cell>
+          <cell r="Q29">
+            <v>0.16178200000000001</v>
+          </cell>
+          <cell r="R29">
+            <v>0.18456150000000002</v>
+          </cell>
+          <cell r="S29">
+            <v>0.1949565</v>
+          </cell>
+          <cell r="T29">
+            <v>0.21461249999999998</v>
+          </cell>
+          <cell r="U29">
+            <v>0.22252999999999998</v>
+          </cell>
+          <cell r="V29">
+            <v>0.233651</v>
+          </cell>
+          <cell r="W29">
+            <v>0.24183749999999998</v>
+          </cell>
+          <cell r="X29">
+            <v>0.26068499999999994</v>
+          </cell>
+          <cell r="Y29">
+            <v>0.30387600000000003</v>
+          </cell>
+          <cell r="Z29">
+            <v>0.33970299999999998</v>
+          </cell>
+          <cell r="AA29">
+            <v>0.38158000000000003</v>
+          </cell>
+          <cell r="AB29">
+            <v>0.50655300000000003</v>
+          </cell>
+          <cell r="AC29">
+            <v>0.59062200000000009</v>
+          </cell>
+          <cell r="AD29">
+            <v>0.63605400000000001</v>
+          </cell>
+          <cell r="AE29">
+            <v>0.66572700000000007</v>
+          </cell>
+          <cell r="AF29">
+            <v>0.72350250000000005</v>
+          </cell>
+          <cell r="AG29">
+            <v>0.77304300000000004</v>
+          </cell>
+          <cell r="AH29">
+            <v>0.80881800000000004</v>
+          </cell>
+          <cell r="AI29">
+            <v>0.84003000000000005</v>
+          </cell>
+          <cell r="AJ29">
+            <v>0.85736400000000013</v>
+          </cell>
+          <cell r="AK29">
+            <v>0.87147600000000003</v>
+          </cell>
+          <cell r="AL29">
+            <v>0.88065000000000015</v>
+          </cell>
+          <cell r="AM29">
+            <v>0.89085000000000014</v>
+          </cell>
+          <cell r="AN29">
+            <v>0.89775000000000016</v>
+          </cell>
+          <cell r="AO29">
+            <v>0.91995000000000016</v>
+          </cell>
+          <cell r="AP29">
+            <v>0.94575000000000009</v>
+          </cell>
+          <cell r="AQ29">
+            <v>0.9709500000000002</v>
+          </cell>
+          <cell r="AR29">
+            <v>0.99015000000000009</v>
+          </cell>
+          <cell r="AS29">
+            <v>0.99675000000000014</v>
+          </cell>
+          <cell r="AT29">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>29</v>
+          </cell>
+          <cell r="F30" t="str">
+            <v>A / F</v>
+          </cell>
+          <cell r="G30">
+            <v>6.2580000000000005E-3</v>
+          </cell>
+          <cell r="H30">
+            <v>1.1496000000000001E-2</v>
+          </cell>
+          <cell r="I30">
+            <v>1.8359E-2</v>
+          </cell>
+          <cell r="J30">
+            <v>3.2081000000000005E-2</v>
+          </cell>
+          <cell r="K30">
+            <v>3.4614000000000006E-2</v>
+          </cell>
+          <cell r="L30">
+            <v>4.9656000000000013E-2</v>
+          </cell>
+          <cell r="M30">
+            <v>4.9656000000000013E-2</v>
+          </cell>
+          <cell r="N30">
+            <v>4.9656000000000013E-2</v>
+          </cell>
+          <cell r="O30">
+            <v>4.9656000000000013E-2</v>
+          </cell>
+          <cell r="P30">
+            <v>4.9656000000000013E-2</v>
+          </cell>
+          <cell r="Q30">
+            <v>4.9656000000000013E-2</v>
+          </cell>
+          <cell r="R30">
+            <v>4.9656000000000013E-2</v>
+          </cell>
+          <cell r="S30">
+            <v>4.9656000000000013E-2</v>
+          </cell>
+          <cell r="T30">
+            <v>4.9656000000000013E-2</v>
+          </cell>
+          <cell r="U30">
+            <v>4.9656000000000013E-2</v>
+          </cell>
+          <cell r="V30">
+            <v>4.9656000000000013E-2</v>
+          </cell>
+          <cell r="W30">
+            <v>4.9656000000000013E-2</v>
+          </cell>
+          <cell r="X30">
+            <v>4.9656000000000013E-2</v>
+          </cell>
+          <cell r="Y30">
+            <v>4.9656000000000013E-2</v>
+          </cell>
+          <cell r="Z30">
+            <v>4.9656000000000013E-2</v>
+          </cell>
+          <cell r="AA30">
+            <v>4.9656000000000013E-2</v>
+          </cell>
+          <cell r="AB30">
+            <v>4.9656000000000013E-2</v>
+          </cell>
+          <cell r="AC30">
+            <v>4.9656000000000013E-2</v>
+          </cell>
+          <cell r="AD30">
+            <v>4.9656000000000013E-2</v>
+          </cell>
+          <cell r="AE30">
+            <v>4.9656000000000013E-2</v>
+          </cell>
+          <cell r="AF30">
+            <v>4.9656000000000013E-2</v>
+          </cell>
+          <cell r="AG30">
+            <v>4.9656000000000013E-2</v>
+          </cell>
+          <cell r="AH30">
+            <v>4.9656000000000013E-2</v>
+          </cell>
+          <cell r="AI30">
+            <v>4.9656000000000013E-2</v>
+          </cell>
+          <cell r="AJ30">
+            <v>4.9656000000000013E-2</v>
+          </cell>
+          <cell r="AK30">
+            <v>4.9656000000000013E-2</v>
+          </cell>
+          <cell r="AL30">
+            <v>4.9656000000000013E-2</v>
+          </cell>
+          <cell r="AM30">
+            <v>4.9656000000000013E-2</v>
+          </cell>
+          <cell r="AN30">
+            <v>4.9656000000000013E-2</v>
+          </cell>
+          <cell r="AO30">
+            <v>4.9656000000000013E-2</v>
+          </cell>
+          <cell r="AP30">
+            <v>4.9656000000000013E-2</v>
+          </cell>
+          <cell r="AQ30">
+            <v>4.9656000000000013E-2</v>
+          </cell>
+          <cell r="AR30">
+            <v>4.9656000000000013E-2</v>
+          </cell>
+          <cell r="AS30">
+            <v>4.9656000000000013E-2</v>
+          </cell>
+          <cell r="AT30">
+            <v>4.9656000000000013E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="S Process"/>
+      <sheetName val="S Procmnt"/>
+      <sheetName val="S Det-Engg"/>
+      <sheetName val="Det-Engg"/>
+      <sheetName val="CIVIL &amp; STR"/>
+      <sheetName val="PILING"/>
+      <sheetName val="INST"/>
+      <sheetName val="MECH"/>
+      <sheetName val="ELECT"/>
+      <sheetName val="PROCESS"/>
+      <sheetName val="PIPING"/>
+      <sheetName val="PREQ."/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8">
+        <row r="14">
+          <cell r="AB14">
+            <v>4.6511627906976744E-2</v>
+          </cell>
+          <cell r="AC14">
+            <v>2.3255813953488372E-2</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="AC16">
+            <v>2.3255813953488372E-2</v>
+          </cell>
+          <cell r="AD16">
+            <v>4.6511627906976744E-2</v>
+          </cell>
+          <cell r="AE16">
+            <v>2.3255813953488372E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2541,8 +11622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:BQ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AU1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AQ7" sqref="AQ7:BQ7"/>
+    <sheetView topLeftCell="AU1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AQ7" sqref="AQ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2570,35 +11651,35 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:69" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="AQ3" s="62" t="s">
+      <c r="AQ3" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="AR3" s="62"/>
-      <c r="AS3" s="62"/>
-      <c r="AT3" s="62"/>
-      <c r="AU3" s="62"/>
-      <c r="AV3" s="62"/>
-      <c r="AW3" s="62"/>
-      <c r="AX3" s="62"/>
-      <c r="AY3" s="62"/>
-      <c r="AZ3" s="62"/>
-      <c r="BA3" s="62"/>
-      <c r="BB3" s="62"/>
-      <c r="BC3" s="62"/>
-      <c r="BD3" s="62"/>
-      <c r="BE3" s="62"/>
-      <c r="BF3" s="62"/>
-      <c r="BG3" s="62"/>
-      <c r="BH3" s="62"/>
-      <c r="BI3" s="62"/>
-      <c r="BJ3" s="62"/>
-      <c r="BK3" s="62"/>
-      <c r="BL3" s="62"/>
-      <c r="BM3" s="62"/>
-      <c r="BN3" s="62"/>
-      <c r="BO3" s="62"/>
-      <c r="BP3" s="62"/>
-      <c r="BQ3" s="62"/>
+      <c r="AR3" s="63"/>
+      <c r="AS3" s="63"/>
+      <c r="AT3" s="63"/>
+      <c r="AU3" s="63"/>
+      <c r="AV3" s="63"/>
+      <c r="AW3" s="63"/>
+      <c r="AX3" s="63"/>
+      <c r="AY3" s="63"/>
+      <c r="AZ3" s="63"/>
+      <c r="BA3" s="63"/>
+      <c r="BB3" s="63"/>
+      <c r="BC3" s="63"/>
+      <c r="BD3" s="63"/>
+      <c r="BE3" s="63"/>
+      <c r="BF3" s="63"/>
+      <c r="BG3" s="63"/>
+      <c r="BH3" s="63"/>
+      <c r="BI3" s="63"/>
+      <c r="BJ3" s="63"/>
+      <c r="BK3" s="63"/>
+      <c r="BL3" s="63"/>
+      <c r="BM3" s="63"/>
+      <c r="BN3" s="63"/>
+      <c r="BO3" s="63"/>
+      <c r="BP3" s="63"/>
+      <c r="BQ3" s="63"/>
     </row>
     <row r="4" spans="1:69" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="U4" s="36" t="s">
@@ -2632,81 +11713,81 @@
         <v>124</v>
       </c>
       <c r="AQ4" s="38"/>
-      <c r="AR4" s="63" t="s">
+      <c r="AR4" s="64" t="s">
         <v>128</v>
       </c>
-      <c r="AS4" s="64"/>
-      <c r="AT4" s="64"/>
-      <c r="AU4" s="64"/>
-      <c r="AV4" s="64"/>
-      <c r="AW4" s="64"/>
-      <c r="AX4" s="64"/>
-      <c r="AY4" s="64"/>
-      <c r="AZ4" s="64"/>
-      <c r="BA4" s="64"/>
-      <c r="BB4" s="64"/>
-      <c r="BC4" s="64"/>
-      <c r="BD4" s="65"/>
+      <c r="AS4" s="65"/>
+      <c r="AT4" s="65"/>
+      <c r="AU4" s="65"/>
+      <c r="AV4" s="65"/>
+      <c r="AW4" s="65"/>
+      <c r="AX4" s="65"/>
+      <c r="AY4" s="65"/>
+      <c r="AZ4" s="65"/>
+      <c r="BA4" s="65"/>
+      <c r="BB4" s="65"/>
+      <c r="BC4" s="65"/>
+      <c r="BD4" s="66"/>
       <c r="BE4" s="38"/>
-      <c r="BF4" s="63" t="s">
+      <c r="BF4" s="64" t="s">
         <v>129</v>
       </c>
-      <c r="BG4" s="64"/>
-      <c r="BH4" s="64"/>
-      <c r="BI4" s="64"/>
-      <c r="BJ4" s="64"/>
-      <c r="BK4" s="64"/>
-      <c r="BL4" s="64"/>
-      <c r="BM4" s="64"/>
-      <c r="BN4" s="64"/>
-      <c r="BO4" s="64"/>
-      <c r="BP4" s="64"/>
-      <c r="BQ4" s="65"/>
+      <c r="BG4" s="65"/>
+      <c r="BH4" s="65"/>
+      <c r="BI4" s="65"/>
+      <c r="BJ4" s="65"/>
+      <c r="BK4" s="65"/>
+      <c r="BL4" s="65"/>
+      <c r="BM4" s="65"/>
+      <c r="BN4" s="65"/>
+      <c r="BO4" s="65"/>
+      <c r="BP4" s="65"/>
+      <c r="BQ4" s="66"/>
     </row>
     <row r="5" spans="1:69" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="AG5" s="60" t="s">
+      <c r="AG5" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="AH5" s="61"/>
-      <c r="AI5" s="60" t="s">
+      <c r="AH5" s="62"/>
+      <c r="AI5" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="AJ5" s="61"/>
+      <c r="AJ5" s="62"/>
       <c r="AQ5" s="38"/>
       <c r="AR5" s="38"/>
-      <c r="AS5" s="62" t="s">
+      <c r="AS5" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="AT5" s="62"/>
-      <c r="AU5" s="62"/>
-      <c r="AV5" s="62"/>
-      <c r="AW5" s="62"/>
-      <c r="AX5" s="62"/>
-      <c r="AY5" s="62" t="s">
+      <c r="AT5" s="63"/>
+      <c r="AU5" s="63"/>
+      <c r="AV5" s="63"/>
+      <c r="AW5" s="63"/>
+      <c r="AX5" s="63"/>
+      <c r="AY5" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="AZ5" s="62"/>
-      <c r="BA5" s="62"/>
-      <c r="BB5" s="62"/>
-      <c r="BC5" s="62"/>
-      <c r="BD5" s="62"/>
+      <c r="AZ5" s="63"/>
+      <c r="BA5" s="63"/>
+      <c r="BB5" s="63"/>
+      <c r="BC5" s="63"/>
+      <c r="BD5" s="63"/>
       <c r="BE5" s="38"/>
-      <c r="BF5" s="62" t="s">
+      <c r="BF5" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="BG5" s="62"/>
-      <c r="BH5" s="62"/>
-      <c r="BI5" s="62"/>
-      <c r="BJ5" s="62"/>
-      <c r="BK5" s="62"/>
-      <c r="BL5" s="62" t="s">
+      <c r="BG5" s="63"/>
+      <c r="BH5" s="63"/>
+      <c r="BI5" s="63"/>
+      <c r="BJ5" s="63"/>
+      <c r="BK5" s="63"/>
+      <c r="BL5" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="BM5" s="62"/>
-      <c r="BN5" s="62"/>
-      <c r="BO5" s="62"/>
-      <c r="BP5" s="62"/>
-      <c r="BQ5" s="62"/>
+      <c r="BM5" s="63"/>
+      <c r="BN5" s="63"/>
+      <c r="BO5" s="63"/>
+      <c r="BP5" s="63"/>
+      <c r="BQ5" s="63"/>
     </row>
     <row r="6" spans="1:69" x14ac:dyDescent="0.35">
       <c r="AQ6" s="38"/>
@@ -2866,11 +11947,11 @@
       <c r="AW7" s="37" t="s">
         <v>413</v>
       </c>
-      <c r="AX7" s="78" t="s">
+      <c r="AX7" s="60" t="s">
         <v>206</v>
       </c>
-      <c r="AY7" s="78"/>
-      <c r="AZ7" s="78"/>
+      <c r="AY7" s="60"/>
+      <c r="AZ7" s="60"/>
       <c r="BA7" s="37" t="s">
         <v>411</v>
       </c>
@@ -2880,7 +11961,7 @@
       <c r="BC7" s="37" t="s">
         <v>413</v>
       </c>
-      <c r="BD7" s="78" t="s">
+      <c r="BD7" s="60" t="s">
         <v>206</v>
       </c>
       <c r="BE7" s="37"/>
@@ -2895,11 +11976,11 @@
       <c r="BJ7" s="37" t="s">
         <v>413</v>
       </c>
-      <c r="BK7" s="78" t="s">
+      <c r="BK7" s="60" t="s">
         <v>206</v>
       </c>
-      <c r="BL7" s="78"/>
-      <c r="BM7" s="78"/>
+      <c r="BL7" s="60"/>
+      <c r="BM7" s="60"/>
       <c r="BN7" s="37" t="s">
         <v>411</v>
       </c>
@@ -2909,7 +11990,7 @@
       <c r="BP7" s="37" t="s">
         <v>413</v>
       </c>
-      <c r="BQ7" s="78" t="s">
+      <c r="BQ7" s="60" t="s">
         <v>206</v>
       </c>
     </row>
@@ -2931,6 +12012,189 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A6F1650-4F5D-42F1-9F1F-9CA779C37C94}">
+  <dimension ref="B1:G16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="58.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B1" s="79" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B2" s="80" t="s">
+        <v>415</v>
+      </c>
+      <c r="G2" s="82" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B3" s="80" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B4" s="81"/>
+      <c r="G4" s="82" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B5" s="79" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B6" s="81"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B7" s="80" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B8" s="80" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B9" s="80" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B10" s="80" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B11" s="80" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B12" s="80" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B13" s="81" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B14" s="81" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B15" s="81" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B16" s="81" t="s">
+        <v>421</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA2FFF8-7983-4F1B-8164-EBB65FCBE4C8}">
+  <dimension ref="B1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="54" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B1" s="79" t="s">
+        <v>427</v>
+      </c>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B2" s="86"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="82" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="82" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B5" s="79" t="s">
+        <v>417</v>
+      </c>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="84"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B6" s="80" t="s">
+        <v>428</v>
+      </c>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="84"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B7" s="80" t="s">
+        <v>429</v>
+      </c>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="84"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{745F149E-23C7-42DA-825D-87BC6C1001B8}">
   <dimension ref="A1:AG101"/>
   <sheetViews>
@@ -2951,23 +12215,23 @@
       <c r="T1" s="22"/>
     </row>
     <row r="2" spans="1:33" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="69" t="s">
         <v>135</v>
       </c>
       <c r="D2" s="40"/>
-      <c r="E2" s="68" t="s">
+      <c r="E2" s="69" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="G2" s="71"/>
+      <c r="G2" s="72"/>
       <c r="L2" s="41" t="s">
         <v>138</v>
       </c>
@@ -2985,15 +12249,15 @@
       </c>
     </row>
     <row r="3" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="67"/>
-      <c r="B3" s="69" t="s">
+      <c r="A3" s="68"/>
+      <c r="B3" s="70" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="70" t="s">
         <v>143</v>
       </c>
       <c r="D3" s="44"/>
-      <c r="E3" s="69" t="s">
+      <c r="E3" s="70" t="s">
         <v>144</v>
       </c>
       <c r="F3" s="44" t="s">
@@ -5924,7 +15188,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9374E40-3FF4-4AD5-86DF-FFEF244290A5}">
   <dimension ref="A1:AN203"/>
   <sheetViews>
@@ -5957,23 +15221,23 @@
       </c>
     </row>
     <row r="2" spans="1:40" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="69" t="s">
         <v>135</v>
       </c>
       <c r="D2" s="40"/>
-      <c r="E2" s="68" t="s">
+      <c r="E2" s="69" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="G2" s="71"/>
+      <c r="G2" s="72"/>
       <c r="L2" s="41" t="s">
         <v>138</v>
       </c>
@@ -6000,15 +15264,15 @@
       </c>
     </row>
     <row r="3" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="67"/>
-      <c r="B3" s="69" t="s">
+      <c r="A3" s="68"/>
+      <c r="B3" s="70" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="70" t="s">
         <v>143</v>
       </c>
       <c r="D3" s="44"/>
-      <c r="E3" s="69" t="s">
+      <c r="E3" s="70" t="s">
         <v>144</v>
       </c>
       <c r="F3" s="44" t="s">
@@ -12144,7 +21408,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366850E3-F4A5-412F-A5F5-DCD360C92131}">
   <dimension ref="A1:A40"/>
   <sheetViews>
@@ -12359,7 +21623,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C875D96D-13EA-478D-A44B-25B1008F6539}">
   <dimension ref="C1:N64"/>
   <sheetViews>
@@ -12390,28 +21654,28 @@
     </row>
     <row r="2" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C2" s="15"/>
-      <c r="E2" s="72" t="s">
+      <c r="E2" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="75"/>
       <c r="N2" s="16"/>
     </row>
     <row r="3" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C3" s="15"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="77"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="78"/>
       <c r="N3" s="16"/>
     </row>
     <row r="4" spans="3:14" x14ac:dyDescent="0.35">
